--- a/TNfit_API.xlsx
+++ b/TNfit_API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chung Yeeun\Desktop\tnfit2\tnfit-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E87D6-FA29-4EF8-88AD-26A51CD8ADFA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B32861-6528-41A7-A6B6-F8525F3C991A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22160" windowHeight="10260" tabRatio="1000" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="196">
   <si>
     <t>{
     "message": "ok",
@@ -1097,10 +1097,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>주별로 영양소를 보여줍니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>/diet/showweek?userId=1&amp;date=180107</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1293,6 +1289,14 @@
       <t xml:space="preserve"> 400)
 message : "Null Value"</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 주 동안의 각 영양소의 하루 평균을 보여줍니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 평균값</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1827,185 +1831,197 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2151,29 +2167,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2494,248 +2501,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="63"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="68"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="68"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="2:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="30" t="s">
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2779,210 +2786,210 @@
   </cols>
   <sheetData>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="59" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="68"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="68"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="68"/>
+      <c r="B21" s="72"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="59" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
     </row>
     <row r="27" spans="2:7" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3029,272 +3036,272 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="68"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="114"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="114"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="118"/>
+      <c r="B14" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="114"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="118"/>
+      <c r="B15" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="114"/>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="118"/>
+      <c r="B16" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.45">
-      <c r="A17" s="114"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="118"/>
+      <c r="B17" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="61" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="115"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="119"/>
+      <c r="B18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="116"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="120"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
     </row>
     <row r="23" spans="1:6" ht="121.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:6" ht="102.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3335,211 +3342,211 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="59" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="68"/>
-      <c r="D11" s="117" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="68"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="68"/>
+      <c r="C13" s="72"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="11"/>
-      <c r="H14" s="30"/>
+      <c r="C14" s="56"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="59" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="3:8" ht="273" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="3:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3581,214 +3588,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="68"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="68"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="68"/>
+      <c r="A11" s="72"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="F12" s="30"/>
+      <c r="A12" s="56"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3830,213 +3837,213 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="59" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="56" x14ac:dyDescent="0.45">
-      <c r="C11" s="68"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="68"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="68"/>
+      <c r="C13" s="72"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="11"/>
-      <c r="H14" s="30"/>
+      <c r="C14" s="56"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="59" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="3:8" ht="323.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="3:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4081,219 +4088,219 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="59" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="68"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="68"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="68"/>
+      <c r="C13" s="72"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="11"/>
-      <c r="H14" s="30"/>
+      <c r="C14" s="56"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="3:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="120" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
+      <c r="E19" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="3:8" ht="93.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
+      <c r="E20" s="122" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4321,10 +4328,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4333,203 +4340,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="72"/>
+      <c r="C9" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="72"/>
+      <c r="C10" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="72"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="56"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="122" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="117" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="117" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="117" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-    </row>
-    <row r="17" spans="2:7" ht="185.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+    </row>
+    <row r="17" spans="2:8" ht="185.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="120" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="D17" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="56"/>
+      <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="124" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4550,7 +4560,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4566,173 +4576,173 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="104"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
+      <c r="B11" s="72"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="56"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4769,173 +4779,173 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="104"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
+      <c r="B11" s="72"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="56"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4972,173 +4982,173 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="104"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
+      <c r="B11" s="72"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="56"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5185,312 +5195,312 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="63"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="68"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="68"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="68"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="68"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="68"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="68"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="68"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="74"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="2:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5527,173 +5537,173 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="104"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
+      <c r="B11" s="72"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="56"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5740,190 +5750,190 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="63"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="68"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="68"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="2:7" ht="85.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="2:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5966,257 +5976,257 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="63"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="80"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="84"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="68"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="68"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="68"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="68"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="68"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="68"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="42"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="63"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="H20" s="46"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" ht="147.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
     </row>
     <row r="22" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6261,254 +6271,254 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="90"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="90"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="90"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="91"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="95"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="93"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="93"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="93"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="97"/>
+      <c r="B14" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="39" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="93"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="39" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="93"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="93"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="94"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
     </row>
     <row r="23" spans="1:6" ht="108.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6550,182 +6560,182 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="68"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="68"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C15" s="68"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="11"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="3:8" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="3:8" ht="132.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="11"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6767,238 +6777,238 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="68"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="68"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="28" x14ac:dyDescent="0.45">
-      <c r="B16" s="68"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="50" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
     </row>
     <row r="22" spans="2:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="2:7" ht="73.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7041,220 +7051,220 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="59" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="59" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="2:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7299,206 +7309,206 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="63"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="80"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="106"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="106"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="107"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="108"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="63"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
     </row>
     <row r="18" spans="1:6" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="80"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="84"/>
     </row>
     <row r="19" spans="1:6" ht="223" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
     </row>
     <row r="20" spans="1:6" ht="127.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="105"/>
+      <c r="B20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="103"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/TNfit_API.xlsx
+++ b/TNfit_API.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.0" lowestEdited="9.0" rupBuild="0.1081"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="10260" tabRatio="1000" firstSheet="4" activeTab="12"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="10260" tabRatio="1000" firstSheet="4" activeTab="10"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="마이페이지 보여주기" sheetId="1" r:id="rId4"/>
@@ -11,1022 +11,27 @@
     <x:sheet name="회원탈퇴" sheetId="3" r:id="rId6"/>
     <x:sheet name="친구요청 수락_거절" sheetId="4" r:id="rId7"/>
     <x:sheet name="친구목록 수정" sheetId="5" r:id="rId8"/>
-    <x:sheet name="친구 식단 보기" sheetId="6" r:id="rId9"/>
-    <x:sheet name="친구요청하기" sheetId="7" r:id="rId10"/>
-    <x:sheet name="친구 목록 보기" sheetId="8" r:id="rId11"/>
-    <x:sheet name="요청 목록 보기" sheetId="9" r:id="rId12"/>
-    <x:sheet name="유저 검색하기" sheetId="10" r:id="rId13"/>
-    <x:sheet name="식단 입력하기" sheetId="11" r:id="rId14"/>
-    <x:sheet name="음식당 영양소 보기" sheetId="12" r:id="rId15"/>
-    <x:sheet name="음식검색하기" sheetId="13" r:id="rId16"/>
-    <x:sheet name="한끼니당 정보 보여주기" sheetId="14" r:id="rId17"/>
-    <x:sheet name="일일 영양소 보기" sheetId="15" r:id="rId18"/>
-    <x:sheet name="주별 영양소 보여주기" sheetId="16" r:id="rId19"/>
-    <x:sheet name="비밀번호 찾기" sheetId="17" r:id="rId20"/>
-    <x:sheet name="회원가입하기" sheetId="18" r:id="rId21"/>
-    <x:sheet name="로그인하기" sheetId="19" r:id="rId22"/>
-    <x:sheet name="로그아웃하기" sheetId="20" r:id="rId23"/>
+    <x:sheet name="친구요청하기" sheetId="6" r:id="rId9"/>
+    <x:sheet name="친구 목록 보기" sheetId="7" r:id="rId10"/>
+    <x:sheet name="요청 목록 보기" sheetId="8" r:id="rId11"/>
+    <x:sheet name="유저 검색하기" sheetId="9" r:id="rId12"/>
+    <x:sheet name="식단 입력하기" sheetId="10" r:id="rId13"/>
+    <x:sheet name="음식당 영양소 보기" sheetId="11" r:id="rId14"/>
+    <x:sheet name="음식검색하기" sheetId="12" r:id="rId15"/>
+    <x:sheet name="한끼니당 정보 보여주기" sheetId="13" r:id="rId16"/>
+    <x:sheet name="일일 영양소 보기" sheetId="14" r:id="rId17"/>
+    <x:sheet name="주별 영양소 보여주기" sheetId="15" r:id="rId18"/>
+    <x:sheet name="비밀번호 찾기" sheetId="16" r:id="rId19"/>
+    <x:sheet name="회원가입하기" sheetId="17" r:id="rId20"/>
+    <x:sheet name="로그인하기" sheetId="18" r:id="rId21"/>
+    <x:sheet name="로그아웃하기" sheetId="19" r:id="rId22"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="1"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="179">
-  <x:si>
-    <x:t>{
-    "message": "ok",
-    "data": [
-        {
-            "f_name": "A1스테이크소스",
-            "f_id": 797
-        },
-        {
-            "f_name": "ALARA WHOLE FOODS 100ORGANIC RICH MUESLI",
-            "f_id": 7052
-        },
-        {
-            "f_name": "acorn squash",
-            "f_id": 7707
-        }
-    ]
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> application/x-www-form-urlencoded</x:t>
-  </x:si>
-  <x:si>
-    <x:t>application/x-www-form-urlencoded</x:t>
-  </x:si>
-  <x:si>
-    <x:t>localhost:3000/diet/showdiet/abcs</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 500)
-message:"server error"
-//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 400)
-message : "Null Value"</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 500)
-message:"server error"
-//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 400)
-message : "Null Value"
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 500)
-message:"server error"
-//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 400)
-message : "Null Value"</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>파라미터로 식단아이디만 받아도 되는지 모르겠어서 안되면 
-유저이름, 먹은 날짜, 아침/점심/저녁 여부로 params값 수정할꼐요!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//(상태코드 201)
-{
-    "message": "ok",
-    "data": [
-            {
-                "f_name": "potato",
-                "f_cnt": 1,
-                "f_unit": "회",
-                "f_gram": 100,
-                "f_cal": "188",
-                "f_carbs": "27.6",
-                "f_protein": "2.9",
-                "f_fat": "7.29",
-                "f_sugar": "0.36",
-                "f_salt": "268.8"
-            }
-        ]
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 201) 이미 친구인경우
-{
-    "message": "이미 친구입니다"
-}
-//(상태코드 201) 친구 요청 성공
-{
-    "message": "ok"
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>//(상태코드 201)
-{
-    "message": "ok",
-    "data": {
-        "kcal sum": 3454,
-        "carbs sum": 464.63,
-        "protein sum": 145.62,
-        "fat sum": 72.58,
-        "sugar sum": 0.72,
-        "salt sum": 537.6
-    }
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 201)
-{
-    "message": "ok",
-    "data": [
-        {
-            "u_nickname": "asfd",
-            "u_sex": 1,
-            "u_height": 180,
-            "u_weight": 75,
-            "u_frequest": 1
-        }
-    ]
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드 201)</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">
-{
-    "message": "ok",
-    "data": {
-        "friendNicknames": [
-            {
-                "u_nickname": "asfd"
-            },
-            {
-                "u_nickname": "byr"
-            }
-        ]
-    }
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 201)
-{
-    "message": "ok"
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 201)
-{
-    "message": "ok"
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showday?u_id=1&amp;d_date=2019-01-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//(상태코드 201)
-{
-    "message": "ok",
-    "data": 
-        [
-            {
-                "u_nickname": "asfd"
-            },
-            {
-                "u_nickname": "aaaa"
-            }
-        ]
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하루 먹은 영양소 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthMonth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 하나당 영양소 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userNickname</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">sex = 0//여자
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 선택한 음식을 입력합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침, 점심, 저녁, 간식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 검색하기-닉네임으로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage/show/2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> diet/insert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthYear</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">0: </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>여자, 1: 남자</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>개인 정보를 수정합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showmeal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/request</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한끼에 먹은 음식 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한끼에 먹은 음식 보여주기(ex) 아침)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일일 섭취 영양소 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: 아침, 1: 점심,
-2: 저녁, 3: 간식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a를 검색했을때 a로 시작하는 이름의 음식들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단 입력하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">port </x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>foodId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>l_me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>query</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메세지 예제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>flag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>????</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 패스워드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FLOAT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">open </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>여부</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>myId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구목록 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 메소드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 목록보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userSex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>params</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단공개 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색할 닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 몸무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 검색하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색하는 단어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notnull</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성공시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실패시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dlt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage/edit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage/show</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">마이페이지 보여주기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>userWeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friendId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인 유저 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청 수락/거절</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>친구</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>수락 또는 거절</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_nickname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몇 인분 먹었는지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diet/insert</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">delete </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>여부</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>r_friend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청하는 사람 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">0: </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>거절 1: 수락</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0:공개x
-1:공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/editlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청 목록을 보여줍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diet/searchdiet/a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: close 1: open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/friendlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 하나당 영양소 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/store/kind/kfood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/searchdiet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>application/json</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/search/a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청을 수락 혹은 거절합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: close, 1: open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/requestlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showmeal/5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/requestlist/2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: no delete, 1: delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구를 삭제하거나 공개 여부를 수정합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>multipart/formed-data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/friendlist/1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet/potato</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 201)
-{
-    "message": "ok",
-    "data": [
-        {
-            "u_nickname": "byr"
-        },
-        {
-            "u_nickname": "asfd"
-        },
-        {
-            "u_nickname": "jjj"
-        }
-    ]
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>유저 본인 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notnull</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex)2019-01-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 먹은 날짜</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="177">
   <x:si>
     <x:t>//(상태코드 201)
 {
@@ -1048,6 +53,996 @@
             "f_cnt": 2
         }
     ]
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "message": "ok",
+    "data": [
+        {
+            "f_name": "A1스테이크소스",
+            "f_id": 797
+        },
+        {
+            "f_name": "ALARA WHOLE FOODS 100ORGANIC RICH MUESLI",
+            "f_id": 7052
+        },
+        {
+            "f_name": "acorn squash",
+            "f_id": 7707
+        }
+    ]
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>localhost:3000/diet/showdiet/abcs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>application/x-www-form-urlencoded</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> application/x-www-form-urlencoded</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 500)
+message:"server error"
+//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 400)
+message : "Null Value"</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>파라미터로 식단아이디만 받아도 되는지 모르겠어서 안되면 
+유저이름, 먹은 날짜, 아침/점심/저녁 여부로 params값 수정할꼐요!</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 500)
+message:"server error"
+//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 400)
+message : "Null Value"
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 500)
+message:"server error"
+//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 400)
+message : "Null Value"</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201) 이미 친구인경우
+{
+    "message": "이미 친구입니다"
+}
+//(상태코드 201) 친구 요청 성공
+{
+    "message": "ok"
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드 201)</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+{
+    "message": "ok",
+    "data": {
+        "friendNicknames": [
+            {
+                "u_nickname": "asfd"
+            },
+            {
+                "u_nickname": "byr"
+            }
+        ]
+    }
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201)
+{
+    "message": "ok"
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showday?u_id=1&amp;d_date=2019-01-14</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201)
+{
+    "message": "ok"
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>//(상태코드 201)
+{
+    "message": "ok",
+    "data": {
+        "kcal sum": 3454,
+        "carbs sum": 464.63,
+        "protein sum": 145.62,
+        "fat sum": 72.58,
+        "sugar sum": 0.72,
+        "salt sum": 537.6
+    }
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201)
+{
+    "message": "ok",
+    "data": [
+        {
+            "u_nickname": "asfd",
+            "u_sex": 1,
+            "u_height": 180,
+            "u_weight": 75,
+            "u_frequest": 1
+        }
+    ]
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>a를 검색했을때 a로 시작하는 이름의 음식들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: 아침, 1: 점심,
+2: 저녁, 3: 간식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>multipart/formed-data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/friendlist/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet/potato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: no delete, 1: delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/requestlist/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구를 삭제하거나 공개 여부를 수정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> diet/insert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthYear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage/show/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">sex = 0//여자
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userNickname</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">0: </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>여자, 1: 남자</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>/friend/request</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하루 먹은 영양소 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 선택한 음식을 입력합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Content-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인 정보를 수정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthMonth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침, 점심, 저녁, 간식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 검색하기-닉네임으로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한끼에 먹은 음식 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 하나당 영양소 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showmeal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일일 섭취 영양소 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex)2019-01-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLOAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>flag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단 입력하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>foodId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 월</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">port </x:t>
+  </x:si>
+  <x:si>
+    <x:t>l_me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메세지 예제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>????</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 패스워드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 목록보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 몸무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>myId</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구목록 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 메소드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>params</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단공개 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색할 닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userSex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Body</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">open </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>여부</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 검색하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색하는 단어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notnull</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성공시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실패시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dlt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한끼에 먹은 음식 보여주기(ex) 아침)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage/edit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage/show</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">마이페이지 보여주기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>userWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>친구</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>수락 또는 거절</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인 유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청 수락/거절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diet/insert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몇 인분 먹었는지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friendId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_nickname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_friend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">0: </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>거절 1: 수락</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>요청하는 사람 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">delete </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>여부</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>0:공개x
+1:공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 먹은 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청을 수락 혹은 거절합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/search/a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청 목록을 보여줍니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showmeal/5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/searchdiet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/requestlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 하나당 영양소 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/friendlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>application/json</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: close, 1: open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/editlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diet/searchdiet/a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: close 1: open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/store/kind/kfood</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201)
+{
+    "message": "ok",
+    "data": [
+        {
+            "u_nickname": "byr"
+        },
+        {
+            "u_nickname": "asfd"
+        },
+        {
+            "u_nickname": "jjj"
+        }
+    ]
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>//(상태코드 201)
+{
+    "message": "ok",
+    "data": [
+            {
+                "f_name": "potato",
+                "f_cnt": 1,
+                "f_unit": "회",
+                "f_gram": 100,
+                "f_cal": "188",
+                "f_carbs": "27.6",
+                "f_protein": "2.9",
+                "f_fat": "7.29",
+                "f_sugar": "0.36",
+                "f_salt": "268.8"
+            }
+        ]
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확인할 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//(상태코드 201)
+{
+    "message": "ok",
+    "data": 
+        [
+            {
+                "u_nickname": "asfd",
+               "u_id":2
+            },
+            {
+                "u_nickname": "aaaa",               
+                "u_id":3
+            }
+        ]
 }</x:t>
   </x:si>
 </x:sst>
@@ -1749,7 +1744,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="122">
+  <x:cellXfs count="121">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2442,9 +2437,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -2525,6 +2517,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -2861,9 +2856,6 @@
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -3018,7 +3010,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3057,7 +3048,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3102,7 +3092,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3179,7 +3168,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3218,7 +3206,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3241,7 +3228,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3274,7 +3260,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3322,7 +3307,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3378,7 +3362,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3413,7 +3396,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3446,7 +3428,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3469,7 +3450,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3811,10 +3791,10 @@
   <x:sheetData>
     <x:row r="1" spans="3:7">
       <x:c r="C1" s="25" t="s">
-        <x:v>119</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D1" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E1" s="25"/>
       <x:c r="F1" s="25"/>
@@ -3822,10 +3802,10 @@
     </x:row>
     <x:row r="2" spans="3:7">
       <x:c r="C2" s="25" t="s">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
@@ -3840,13 +3820,13 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="75" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C4" s="63"/>
-      <x:c r="D4" s="63"/>
-      <x:c r="E4" s="63"/>
-      <x:c r="F4" s="63"/>
-      <x:c r="G4" s="64"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C4" s="62"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="6"/>
@@ -3857,8 +3837,8 @@
       <x:c r="G5" s="6"/>
     </x:row>
     <x:row r="6" spans="2:7">
-      <x:c r="B6" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B6" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -3868,10 +3848,10 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C7" s="76" t="s">
-        <x:v>138</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D7" s="77"/>
       <x:c r="E7" s="77"/>
@@ -3880,10 +3860,10 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C8" s="67" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C8" s="66" t="s">
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D8" s="59"/>
       <x:c r="E8" s="59"/>
@@ -3892,10 +3872,10 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C9" s="67" t="s">
-        <x:v>115</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C9" s="66" t="s">
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
@@ -3904,54 +3884,54 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="68" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D10" s="69"/>
-      <x:c r="E10" s="69"/>
-      <x:c r="F10" s="69"/>
-      <x:c r="G10" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C10" s="67" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="68"/>
+      <x:c r="E10" s="68"/>
+      <x:c r="F10" s="68"/>
+      <x:c r="G10" s="69"/>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7">
-      <x:c r="B12" s="71"/>
+      <x:c r="B12" s="70"/>
       <x:c r="C12" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F12" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="71"/>
+      <x:c r="B13" s="70"/>
       <x:c r="C13" s="9"/>
       <x:c r="D13" s="11"/>
       <x:c r="E13" s="9"/>
@@ -3959,7 +3939,7 @@
       <x:c r="G13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
+      <x:c r="B14" s="70"/>
       <x:c r="C14" s="9"/>
       <x:c r="D14" s="10"/>
       <x:c r="E14" s="9"/>
@@ -3967,7 +3947,7 @@
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="71"/>
+      <x:c r="B15" s="70"/>
       <x:c r="C15" s="9"/>
       <x:c r="D15" s="10"/>
       <x:c r="E15" s="9"/>
@@ -3984,10 +3964,10 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C17" s="67" t="s">
-        <x:v>30</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C17" s="66" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D17" s="59"/>
       <x:c r="E17" s="59"/>
@@ -3995,59 +3975,59 @@
       <x:c r="G17" s="60"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="72"/>
-      <x:c r="C18" s="73"/>
-      <x:c r="D18" s="73"/>
-      <x:c r="E18" s="73"/>
-      <x:c r="F18" s="73"/>
-      <x:c r="G18" s="73"/>
+      <x:c r="B18" s="71"/>
+      <x:c r="C18" s="72"/>
+      <x:c r="D18" s="72"/>
+      <x:c r="E18" s="72"/>
+      <x:c r="F18" s="72"/>
+      <x:c r="G18" s="72"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C19" s="69"/>
-      <x:c r="D19" s="69"/>
-      <x:c r="E19" s="69"/>
-      <x:c r="F19" s="69"/>
-      <x:c r="G19" s="70"/>
+      <x:c r="B19" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C19" s="68"/>
+      <x:c r="D19" s="68"/>
+      <x:c r="E19" s="68"/>
+      <x:c r="F19" s="68"/>
+      <x:c r="G19" s="69"/>
     </x:row>
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C20" s="68" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D20" s="69"/>
-      <x:c r="E20" s="69"/>
-      <x:c r="F20" s="69"/>
-      <x:c r="G20" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="67" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D20" s="68"/>
+      <x:c r="E20" s="68"/>
+      <x:c r="F20" s="68"/>
+      <x:c r="G20" s="69"/>
     </x:row>
     <x:row r="21" spans="2:8" ht="208.5" customHeight="1">
       <x:c r="B21" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D21" s="58" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
       <x:c r="G21" s="60"/>
       <x:c r="H21" s="23" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B22" s="57"/>
       <x:c r="C22" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D22" s="61" t="s">
-        <x:v>5</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D22" s="74" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -4077,252 +4057,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet10">
-    <x:tabColor rgb="ffff0000"/>
-  </x:sheetPr>
-  <x:dimension ref="B11:G28"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="B18" activeCellId="0" sqref="B18:B22"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.399999999999999"/>
-  <x:cols>
-    <x:col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <x:col min="3" max="3" width="13.25" customWidth="1"/>
-    <x:col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="11" spans="2:7">
-      <x:c r="B11" s="62" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C11" s="63"/>
-      <x:c r="D11" s="63"/>
-      <x:c r="E11" s="63"/>
-      <x:c r="F11" s="63"/>
-      <x:c r="G11" s="64"/>
-    </x:row>
-    <x:row r="12" spans="2:7">
-      <x:c r="B12" s="16"/>
-      <x:c r="C12" s="16"/>
-      <x:c r="D12" s="16"/>
-      <x:c r="E12" s="16"/>
-      <x:c r="F12" s="16"/>
-      <x:c r="G12" s="16"/>
-    </x:row>
-    <x:row r="13" spans="2:7">
-      <x:c r="B13" s="65" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C13" s="59"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
-    </x:row>
-    <x:row r="14" spans="2:7">
-      <x:c r="B14" s="17" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C14" s="66" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D14" s="59"/>
-      <x:c r="E14" s="59"/>
-      <x:c r="F14" s="59"/>
-      <x:c r="G14" s="60"/>
-    </x:row>
-    <x:row r="15" spans="2:7">
-      <x:c r="B15" s="17" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C15" s="67" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D15" s="59" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E15" s="59" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="F15" s="59" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="G15" s="60" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:7">
-      <x:c r="B16" s="17" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C16" s="67" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D16" s="59"/>
-      <x:c r="E16" s="59"/>
-      <x:c r="F16" s="59"/>
-      <x:c r="G16" s="60"/>
-    </x:row>
-    <x:row r="17" spans="2:7">
-      <x:c r="B17" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C17" s="68"/>
-      <x:c r="D17" s="69"/>
-      <x:c r="E17" s="69"/>
-      <x:c r="F17" s="69"/>
-      <x:c r="G17" s="70"/>
-    </x:row>
-    <x:row r="18" spans="2:7">
-      <x:c r="B18" s="56" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C18" s="18" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D18" s="18" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E18" s="18" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F18" s="18" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G18" s="18" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:7">
-      <x:c r="B19" s="71"/>
-      <x:c r="C19" s="19" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D19" s="20" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E19" s="19" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F19" s="19" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G19" s="19"/>
-    </x:row>
-    <x:row r="20" spans="2:7">
-      <x:c r="B20" s="71"/>
-      <x:c r="C20" s="19"/>
-      <x:c r="D20" s="21"/>
-      <x:c r="E20" s="19"/>
-      <x:c r="F20" s="22"/>
-      <x:c r="G20" s="19"/>
-    </x:row>
-    <x:row r="21" spans="2:2">
-      <x:c r="B21" s="71"/>
-    </x:row>
-    <x:row r="22" spans="2:2">
-      <x:c r="B22" s="57"/>
-    </x:row>
-    <x:row r="23" spans="2:7">
-      <x:c r="B23" s="17" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C23" s="67" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D23" s="59" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E23" s="59" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="F23" s="59" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="G23" s="60" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:7">
-      <x:c r="B24" s="72"/>
-      <x:c r="C24" s="73"/>
-      <x:c r="D24" s="73"/>
-      <x:c r="E24" s="73"/>
-      <x:c r="F24" s="73"/>
-      <x:c r="G24" s="73"/>
-    </x:row>
-    <x:row r="25" spans="2:7">
-      <x:c r="B25" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C25" s="69"/>
-      <x:c r="D25" s="69"/>
-      <x:c r="E25" s="69"/>
-      <x:c r="F25" s="69"/>
-      <x:c r="G25" s="70"/>
-    </x:row>
-    <x:row r="26" spans="2:7">
-      <x:c r="B26" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C26" s="68"/>
-      <x:c r="D26" s="69"/>
-      <x:c r="E26" s="69"/>
-      <x:c r="F26" s="69"/>
-      <x:c r="G26" s="70"/>
-    </x:row>
-    <x:row r="27" spans="2:7" ht="224.25" customHeight="1">
-      <x:c r="B27" s="56" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C27" s="18" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D27" s="58" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E27" s="59"/>
-      <x:c r="F27" s="59"/>
-      <x:c r="G27" s="60"/>
-    </x:row>
-    <x:row r="28" spans="2:7" ht="92.400000000000006" customHeight="1">
-      <x:c r="B28" s="57"/>
-      <x:c r="C28" s="18" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D28" s="61" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E28" s="59"/>
-      <x:c r="F28" s="59"/>
-      <x:c r="G28" s="60"/>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="14">
-    <x:mergeCell ref="B27:B28"/>
-    <x:mergeCell ref="D27:G27"/>
-    <x:mergeCell ref="B11:G11"/>
-    <x:mergeCell ref="B13:G13"/>
-    <x:mergeCell ref="C14:G14"/>
-    <x:mergeCell ref="C15:G15"/>
-    <x:mergeCell ref="C16:G16"/>
-    <x:mergeCell ref="C17:G17"/>
-    <x:mergeCell ref="B18:B22"/>
-    <x:mergeCell ref="C23:G23"/>
-    <x:mergeCell ref="B24:G24"/>
-    <x:mergeCell ref="B25:G25"/>
-    <x:mergeCell ref="C26:G26"/>
-    <x:mergeCell ref="D28:G28"/>
-  </x:mergeCells>
-  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet11">
     <x:tabColor rgb="ffff0000"/>
   </x:sheetPr>
@@ -4343,14 +4077,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="4" spans="1:6" ht="18.449999999999999">
-      <x:c r="A4" s="118" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B4" s="63"/>
-      <x:c r="C4" s="63"/>
-      <x:c r="D4" s="63"/>
-      <x:c r="E4" s="63"/>
-      <x:c r="F4" s="64"/>
+      <x:c r="A4" s="117" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B4" s="62"/>
+      <x:c r="C4" s="62"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="63"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="16"/>
@@ -4361,8 +4095,8 @@
       <x:c r="F5" s="16"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="A6" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B6" s="59"/>
       <x:c r="C6" s="59"/>
@@ -4372,10 +4106,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B7" s="66" t="s">
-        <x:v>26</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B7" s="65" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="59"/>
       <x:c r="D7" s="59"/>
@@ -4384,10 +4118,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B8" s="67" t="s">
-        <x:v>31</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B8" s="66" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C8" s="59"/>
       <x:c r="D8" s="59"/>
@@ -4396,10 +4130,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B9" s="67" t="s">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B9" s="66" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C9" s="59"/>
       <x:c r="D9" s="59"/>
@@ -4408,10 +4142,10 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B10" s="88" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="89"/>
       <x:c r="D10" s="89"/>
@@ -4420,139 +4154,139 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="56" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D11" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E11" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F11" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="71"/>
+      <x:c r="A12" s="70"/>
       <x:c r="B12" s="50" t="s">
-        <x:v>82</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C12" s="52" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D12" s="50" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E12" s="50" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F12" s="29"/>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="A13" s="119"/>
+      <x:c r="A13" s="118"/>
       <x:c r="B13" s="44" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="53" t="s">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D13" s="44" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E13" s="45" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F13" s="41"/>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="119"/>
+      <x:c r="A14" s="118"/>
       <x:c r="B14" s="44" t="s">
-        <x:v>64</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C14" s="53" t="s">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D14" s="44" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
       <x:c r="F14" s="41"/>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="119"/>
+      <x:c r="A15" s="118"/>
       <x:c r="B15" s="44" t="s">
-        <x:v>43</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C15" s="53" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D15" s="44" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E15" s="36"/>
       <x:c r="F15" s="41"/>
     </x:row>
     <x:row r="16" spans="1:6">
-      <x:c r="A16" s="119"/>
+      <x:c r="A16" s="118"/>
       <x:c r="B16" s="51" t="s">
-        <x:v>112</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C16" s="51" t="s">
-        <x:v>74</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D16" s="51" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E16" s="33"/>
       <x:c r="F16" s="33"/>
     </x:row>
     <x:row r="17" spans="1:6" ht="32.75">
-      <x:c r="A17" s="119"/>
+      <x:c r="A17" s="118"/>
       <x:c r="B17" s="51" t="s">
-        <x:v>55</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="51" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D17" s="51" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E17" s="33"/>
       <x:c r="F17" s="54" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
-      <x:c r="A18" s="120"/>
+      <x:c r="A18" s="119"/>
       <x:c r="B18" s="51" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C18" s="51" t="s">
-        <x:v>140</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D18" s="51" t="s">
-        <x:v>63</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E18" s="33"/>
       <x:c r="F18" s="33"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="17" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B19" s="85" t="s">
-        <x:v>141</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C19" s="105"/>
       <x:c r="D19" s="105"/>
       <x:c r="E19" s="105"/>
-      <x:c r="F19" s="121"/>
+      <x:c r="F19" s="120"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="82"/>
@@ -4563,8 +4297,8 @@
       <x:c r="F20" s="82"/>
     </x:row>
     <x:row r="21" spans="1:6">
-      <x:c r="A21" s="74" t="s">
-        <x:v>105</x:v>
+      <x:c r="A21" s="73" t="s">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="83"/>
       <x:c r="C21" s="83"/>
@@ -4574,10 +4308,10 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="17" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B22" s="88" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C22" s="89"/>
       <x:c r="D22" s="89"/>
@@ -4586,13 +4320,13 @@
     </x:row>
     <x:row r="23" spans="1:6" ht="121.75" customHeight="1">
       <x:c r="A23" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="18" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C23" s="58" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="59"/>
       <x:c r="E23" s="59"/>
@@ -4601,10 +4335,10 @@
     <x:row r="24" spans="1:6" ht="102.65000000000001" customHeight="1">
       <x:c r="A24" s="57"/>
       <x:c r="B24" s="18" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C24" s="61" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C24" s="74" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D24" s="59"/>
       <x:c r="E24" s="59"/>
@@ -4632,13 +4366,13 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet13"/>
   <x:dimension ref="C3:H20"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E20" activeCellId="0" sqref="E20:H20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E19" activeCellId="0" sqref="E19:H19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -4647,14 +4381,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="3:8">
-      <x:c r="C3" s="62" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D3" s="63"/>
-      <x:c r="E3" s="63"/>
-      <x:c r="F3" s="63"/>
-      <x:c r="G3" s="63"/>
-      <x:c r="H3" s="64"/>
+      <x:c r="C3" s="61" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="62"/>
+      <x:c r="H3" s="63"/>
     </x:row>
     <x:row r="4" spans="3:8">
       <x:c r="C4" s="6"/>
@@ -4665,8 +4399,8 @@
       <x:c r="H4" s="6"/>
     </x:row>
     <x:row r="5" spans="3:8">
-      <x:c r="C5" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="C5" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
@@ -4676,10 +4410,10 @@
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D6" s="66" t="s">
-        <x:v>153</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D6" s="65" t="s">
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -4688,30 +4422,30 @@
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D7" s="67" t="s">
-        <x:v>18</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D7" s="66" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="59" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H7" s="60" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D8" s="67" t="s">
-        <x:v>120</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D8" s="66" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E8" s="59"/>
       <x:c r="F8" s="59"/>
@@ -4720,52 +4454,52 @@
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D9" s="68"/>
-      <x:c r="E9" s="69"/>
-      <x:c r="F9" s="69"/>
-      <x:c r="G9" s="69"/>
-      <x:c r="H9" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D9" s="67"/>
+      <x:c r="E9" s="68"/>
+      <x:c r="F9" s="68"/>
+      <x:c r="G9" s="68"/>
+      <x:c r="H9" s="69"/>
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8">
-      <x:c r="C11" s="71"/>
+      <x:c r="C11" s="70"/>
       <x:c r="D11" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>73</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H11" s="9"/>
     </x:row>
     <x:row r="12" spans="3:8">
-      <x:c r="C12" s="71"/>
+      <x:c r="C12" s="70"/>
       <x:c r="D12" s="9"/>
       <x:c r="E12" s="21"/>
       <x:c r="F12" s="9"/>
@@ -4773,7 +4507,7 @@
       <x:c r="H12" s="9"/>
     </x:row>
     <x:row r="13" spans="3:3">
-      <x:c r="C13" s="71"/>
+      <x:c r="C13" s="70"/>
     </x:row>
     <x:row r="14" spans="3:8">
       <x:c r="C14" s="57"/>
@@ -4781,61 +4515,61 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D15" s="58" t="s">
-        <x:v>167</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G15" s="59" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H15" s="60" t="s">
-        <x:v>167</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
-      <x:c r="C16" s="72"/>
-      <x:c r="D16" s="73"/>
-      <x:c r="E16" s="73"/>
-      <x:c r="F16" s="73"/>
-      <x:c r="G16" s="73"/>
-      <x:c r="H16" s="73"/>
+      <x:c r="C16" s="71"/>
+      <x:c r="D16" s="72"/>
+      <x:c r="E16" s="72"/>
+      <x:c r="F16" s="72"/>
+      <x:c r="G16" s="72"/>
+      <x:c r="H16" s="72"/>
     </x:row>
     <x:row r="17" spans="3:8">
-      <x:c r="C17" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D17" s="69"/>
-      <x:c r="E17" s="69"/>
-      <x:c r="F17" s="69"/>
-      <x:c r="G17" s="69"/>
-      <x:c r="H17" s="70"/>
+      <x:c r="C17" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D17" s="68"/>
+      <x:c r="E17" s="68"/>
+      <x:c r="F17" s="68"/>
+      <x:c r="G17" s="68"/>
+      <x:c r="H17" s="69"/>
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D18" s="68"/>
-      <x:c r="E18" s="69"/>
-      <x:c r="F18" s="69"/>
-      <x:c r="G18" s="69"/>
-      <x:c r="H18" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D18" s="67"/>
+      <x:c r="E18" s="68"/>
+      <x:c r="F18" s="68"/>
+      <x:c r="G18" s="68"/>
+      <x:c r="H18" s="69"/>
     </x:row>
     <x:row r="19" spans="3:8" ht="273" customHeight="1">
       <x:c r="C19" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E19" s="58" t="s">
-        <x:v>8</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F19" s="59"/>
       <x:c r="G19" s="59"/>
@@ -4844,10 +4578,10 @@
     <x:row r="20" spans="3:8" ht="70.5" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E20" s="61" t="s">
-        <x:v>5</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E20" s="74" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="59"/>
       <x:c r="G20" s="59"/>
@@ -4875,12 +4609,12 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet20"/>
   <x:dimension ref="A1:G18"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <x:selection activeCell="C17" activeCellId="0" sqref="C17:F17"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4892,14 +4626,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="62" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="B1" s="63"/>
-      <x:c r="C1" s="63"/>
-      <x:c r="D1" s="63"/>
-      <x:c r="E1" s="63"/>
-      <x:c r="F1" s="64"/>
+      <x:c r="A1" s="61" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B1" s="62"/>
+      <x:c r="C1" s="62"/>
+      <x:c r="D1" s="62"/>
+      <x:c r="E1" s="62"/>
+      <x:c r="F1" s="63"/>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="6"/>
@@ -4910,8 +4644,8 @@
       <x:c r="F2" s="6"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="A3" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B3" s="59"/>
       <x:c r="C3" s="59"/>
@@ -4921,10 +4655,10 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B4" s="66" t="s">
-        <x:v>97</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B4" s="65" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C4" s="59"/>
       <x:c r="D4" s="59"/>
@@ -4933,30 +4667,30 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B5" s="67" t="s">
-        <x:v>155</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B5" s="66" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C5" s="59" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D5" s="59" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E5" s="59" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="60" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B6" s="67" t="s">
-        <x:v>120</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B6" s="66" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -4965,52 +4699,52 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B7" s="68"/>
-      <x:c r="C7" s="69"/>
-      <x:c r="D7" s="69"/>
-      <x:c r="E7" s="69"/>
-      <x:c r="F7" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B7" s="67"/>
+      <x:c r="C7" s="68"/>
+      <x:c r="D7" s="68"/>
+      <x:c r="E7" s="68"/>
+      <x:c r="F7" s="69"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F8" s="8" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="70"/>
+      <x:c r="B9" s="9" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C9" s="20" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D8" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E8" s="8" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F8" s="8" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="71"/>
-      <x:c r="B9" s="9" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C9" s="20" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="D9" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="A10" s="71"/>
+      <x:c r="A10" s="70"/>
       <x:c r="B10" s="9"/>
       <x:c r="C10" s="21"/>
       <x:c r="D10" s="9"/>
@@ -5018,7 +4752,7 @@
       <x:c r="F10" s="9"/>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="71"/>
+      <x:c r="A11" s="70"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="57"/>
@@ -5026,76 +4760,76 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B13" s="67" t="s">
-        <x:v>150</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B13" s="66" t="s">
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C13" s="59" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="59" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E13" s="59" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F13" s="60" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="72"/>
-      <x:c r="B14" s="73"/>
-      <x:c r="C14" s="73"/>
-      <x:c r="D14" s="73"/>
-      <x:c r="E14" s="73"/>
-      <x:c r="F14" s="73"/>
+      <x:c r="A14" s="71"/>
+      <x:c r="B14" s="72"/>
+      <x:c r="C14" s="72"/>
+      <x:c r="D14" s="72"/>
+      <x:c r="E14" s="72"/>
+      <x:c r="F14" s="72"/>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="B15" s="69"/>
-      <x:c r="C15" s="69"/>
-      <x:c r="D15" s="69"/>
-      <x:c r="E15" s="69"/>
-      <x:c r="F15" s="70"/>
+      <x:c r="A15" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B15" s="68"/>
+      <x:c r="C15" s="68"/>
+      <x:c r="D15" s="68"/>
+      <x:c r="E15" s="68"/>
+      <x:c r="F15" s="69"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B16" s="68"/>
-      <x:c r="C16" s="69"/>
-      <x:c r="D16" s="69"/>
-      <x:c r="E16" s="69"/>
-      <x:c r="F16" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B16" s="67"/>
+      <x:c r="C16" s="68"/>
+      <x:c r="D16" s="68"/>
+      <x:c r="E16" s="68"/>
+      <x:c r="F16" s="69"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="292.5" customHeight="1">
       <x:c r="A17" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C17" s="58" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D17" s="59"/>
       <x:c r="E17" s="59"/>
       <x:c r="F17" s="60"/>
       <x:c r="G17" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="126" customHeight="1">
       <x:c r="A18" s="57"/>
       <x:c r="B18" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C18" s="61" t="s">
-        <x:v>5</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C18" s="74" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="59"/>
       <x:c r="E18" s="59"/>
@@ -5118,12 +4852,12 @@
     <x:mergeCell ref="B16:F16"/>
     <x:mergeCell ref="C18:F18"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet14"/>
   <x:dimension ref="C3:H20"/>
@@ -5140,14 +4874,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="3:8">
-      <x:c r="C3" s="62" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D3" s="63"/>
-      <x:c r="E3" s="63"/>
-      <x:c r="F3" s="63"/>
-      <x:c r="G3" s="63"/>
-      <x:c r="H3" s="64"/>
+      <x:c r="C3" s="61" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="62"/>
+      <x:c r="H3" s="63"/>
     </x:row>
     <x:row r="4" spans="3:8">
       <x:c r="C4" s="6"/>
@@ -5158,8 +4892,8 @@
       <x:c r="H4" s="6"/>
     </x:row>
     <x:row r="5" spans="3:8">
-      <x:c r="C5" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="C5" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
@@ -5169,10 +4903,10 @@
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D6" s="66" t="s">
-        <x:v>38</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D6" s="65" t="s">
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -5181,30 +4915,30 @@
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D7" s="67" t="s">
-        <x:v>35</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D7" s="66" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G7" s="59" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H7" s="60" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D8" s="67" t="s">
-        <x:v>120</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D8" s="66" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E8" s="59"/>
       <x:c r="F8" s="59"/>
@@ -5213,54 +4947,54 @@
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D9" s="68"/>
-      <x:c r="E9" s="69"/>
-      <x:c r="F9" s="69"/>
-      <x:c r="G9" s="69"/>
-      <x:c r="H9" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D9" s="67"/>
+      <x:c r="E9" s="68"/>
+      <x:c r="F9" s="68"/>
+      <x:c r="G9" s="68"/>
+      <x:c r="H9" s="69"/>
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8" ht="56.350000000000001">
-      <x:c r="C11" s="71"/>
+      <x:c r="C11" s="70"/>
       <x:c r="D11" s="9" t="s">
-        <x:v>94</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G11" s="9" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="G11" s="9" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="H11" s="24" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="3:8">
-      <x:c r="C12" s="71"/>
+      <x:c r="C12" s="70"/>
       <x:c r="D12" s="9"/>
       <x:c r="E12" s="21"/>
       <x:c r="F12" s="9"/>
@@ -5268,7 +5002,7 @@
       <x:c r="H12" s="9"/>
     </x:row>
     <x:row r="13" spans="3:3">
-      <x:c r="C13" s="71"/>
+      <x:c r="C13" s="70"/>
     </x:row>
     <x:row r="14" spans="3:8">
       <x:c r="C14" s="57"/>
@@ -5276,61 +5010,61 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D15" s="67" t="s">
-        <x:v>161</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D15" s="66" t="s">
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G15" s="59" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H15" s="60" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
-      <x:c r="C16" s="72"/>
-      <x:c r="D16" s="73"/>
-      <x:c r="E16" s="73"/>
-      <x:c r="F16" s="73"/>
-      <x:c r="G16" s="73"/>
-      <x:c r="H16" s="73"/>
+      <x:c r="C16" s="71"/>
+      <x:c r="D16" s="72"/>
+      <x:c r="E16" s="72"/>
+      <x:c r="F16" s="72"/>
+      <x:c r="G16" s="72"/>
+      <x:c r="H16" s="72"/>
     </x:row>
     <x:row r="17" spans="3:8">
-      <x:c r="C17" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D17" s="69"/>
-      <x:c r="E17" s="69"/>
-      <x:c r="F17" s="69"/>
-      <x:c r="G17" s="69"/>
-      <x:c r="H17" s="70"/>
+      <x:c r="C17" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D17" s="68"/>
+      <x:c r="E17" s="68"/>
+      <x:c r="F17" s="68"/>
+      <x:c r="G17" s="68"/>
+      <x:c r="H17" s="69"/>
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D18" s="68"/>
-      <x:c r="E18" s="69"/>
-      <x:c r="F18" s="69"/>
-      <x:c r="G18" s="69"/>
-      <x:c r="H18" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D18" s="67"/>
+      <x:c r="E18" s="68"/>
+      <x:c r="F18" s="68"/>
+      <x:c r="G18" s="68"/>
+      <x:c r="H18" s="69"/>
     </x:row>
     <x:row r="19" spans="3:8" ht="323.25" customHeight="1">
       <x:c r="C19" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E19" s="58" t="s">
-        <x:v>178</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="59"/>
       <x:c r="G19" s="59"/>
@@ -5339,10 +5073,10 @@
     <x:row r="20" spans="3:8" ht="89.25" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E20" s="61" t="s">
-        <x:v>5</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E20" s="74" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="59"/>
       <x:c r="G20" s="59"/>
@@ -5370,7 +5104,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet12">
     <x:tabColor rgb="ffff0000"/>
@@ -5378,7 +5112,7 @@
   <x:dimension ref="C3:H20"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="F24" activeCellId="0" sqref="F24:F24"/>
+      <x:selection activeCell="E19" activeCellId="0" sqref="E19:H19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.399999999999999"/>
@@ -5390,14 +5124,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="3:8">
-      <x:c r="C3" s="62" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D3" s="63"/>
-      <x:c r="E3" s="63"/>
-      <x:c r="F3" s="63"/>
-      <x:c r="G3" s="63"/>
-      <x:c r="H3" s="64"/>
+      <x:c r="C3" s="61" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="62"/>
+      <x:c r="H3" s="63"/>
     </x:row>
     <x:row r="4" spans="3:8">
       <x:c r="C4" s="16"/>
@@ -5408,8 +5142,8 @@
       <x:c r="H4" s="16"/>
     </x:row>
     <x:row r="5" spans="3:8">
-      <x:c r="C5" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="C5" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
@@ -5419,10 +5153,10 @@
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="17" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D6" s="66" t="s">
-        <x:v>40</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D6" s="65" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -5431,30 +5165,30 @@
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="17" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D7" s="67" t="s">
-        <x:v>39</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D7" s="66" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G7" s="59" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H7" s="60" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="17" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D8" s="67" t="s">
-        <x:v>174</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D8" s="66" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E8" s="59"/>
       <x:c r="F8" s="59"/>
@@ -5463,68 +5197,68 @@
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D9" s="68"/>
-      <x:c r="E9" s="69"/>
-      <x:c r="F9" s="69"/>
-      <x:c r="G9" s="69"/>
-      <x:c r="H9" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D9" s="67"/>
+      <x:c r="E9" s="68"/>
+      <x:c r="F9" s="68"/>
+      <x:c r="G9" s="68"/>
+      <x:c r="H9" s="69"/>
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E10" s="18" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F10" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H10" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8">
-      <x:c r="C11" s="71"/>
+      <x:c r="C11" s="70"/>
       <x:c r="D11" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>169</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H11" s="19"/>
     </x:row>
     <x:row r="12" spans="3:8">
-      <x:c r="C12" s="71"/>
+      <x:c r="C12" s="70"/>
       <x:c r="D12" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E12" s="21" t="s">
-        <x:v>177</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G12" s="22"/>
       <x:c r="H12" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="3:3">
-      <x:c r="C13" s="71"/>
+      <x:c r="C13" s="70"/>
     </x:row>
     <x:row r="14" spans="3:8">
       <x:c r="C14" s="57"/>
@@ -5532,61 +5266,61 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="17" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D15" s="67" t="s">
-        <x:v>15</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D15" s="66" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G15" s="59" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H15" s="60" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
-      <x:c r="C16" s="72"/>
-      <x:c r="D16" s="73"/>
-      <x:c r="E16" s="73"/>
-      <x:c r="F16" s="73"/>
-      <x:c r="G16" s="73"/>
-      <x:c r="H16" s="73"/>
+      <x:c r="C16" s="71"/>
+      <x:c r="D16" s="72"/>
+      <x:c r="E16" s="72"/>
+      <x:c r="F16" s="72"/>
+      <x:c r="G16" s="72"/>
+      <x:c r="H16" s="72"/>
     </x:row>
     <x:row r="17" spans="3:8">
-      <x:c r="C17" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D17" s="69"/>
-      <x:c r="E17" s="69"/>
-      <x:c r="F17" s="69"/>
-      <x:c r="G17" s="69"/>
-      <x:c r="H17" s="70"/>
+      <x:c r="C17" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D17" s="68"/>
+      <x:c r="E17" s="68"/>
+      <x:c r="F17" s="68"/>
+      <x:c r="G17" s="68"/>
+      <x:c r="H17" s="69"/>
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D18" s="68"/>
-      <x:c r="E18" s="69"/>
-      <x:c r="F18" s="69"/>
-      <x:c r="G18" s="69"/>
-      <x:c r="H18" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D18" s="67"/>
+      <x:c r="E18" s="68"/>
+      <x:c r="F18" s="68"/>
+      <x:c r="G18" s="68"/>
+      <x:c r="H18" s="69"/>
     </x:row>
     <x:row r="19" spans="3:8" ht="199.5" customHeight="1">
       <x:c r="C19" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D19" s="18" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E19" s="58" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="59"/>
       <x:c r="G19" s="59"/>
@@ -5595,10 +5329,10 @@
     <x:row r="20" spans="3:8" ht="93.650000000000006" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="18" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E20" s="61" t="s">
-        <x:v>5</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E20" s="74" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="59"/>
       <x:c r="G20" s="59"/>
@@ -5626,7 +5360,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet15"/>
   <x:dimension ref="B1:G18"/>
@@ -5638,12 +5372,12 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="62"/>
-      <x:c r="C1" s="63"/>
-      <x:c r="D1" s="63"/>
-      <x:c r="E1" s="63"/>
-      <x:c r="F1" s="63"/>
-      <x:c r="G1" s="64"/>
+      <x:c r="B1" s="61"/>
+      <x:c r="C1" s="62"/>
+      <x:c r="D1" s="62"/>
+      <x:c r="E1" s="62"/>
+      <x:c r="F1" s="62"/>
+      <x:c r="G1" s="63"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -5654,8 +5388,8 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B3" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -5665,9 +5399,9 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C4" s="66"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C4" s="65"/>
       <x:c r="D4" s="59"/>
       <x:c r="E4" s="59"/>
       <x:c r="F4" s="59"/>
@@ -5675,9 +5409,9 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C5" s="67"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C5" s="66"/>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
       <x:c r="F5" s="59"/>
@@ -5685,9 +5419,9 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C6" s="67"/>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C6" s="66"/>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -5695,36 +5429,36 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C7" s="68"/>
-      <x:c r="D7" s="69"/>
-      <x:c r="E7" s="69"/>
-      <x:c r="F7" s="69"/>
-      <x:c r="G7" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="67"/>
+      <x:c r="D7" s="68"/>
+      <x:c r="E7" s="68"/>
+      <x:c r="F7" s="68"/>
+      <x:c r="G7" s="69"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="71"/>
+      <x:c r="B9" s="70"/>
       <x:c r="C9" s="9"/>
       <x:c r="D9" s="20"/>
       <x:c r="E9" s="9"/>
@@ -5732,7 +5466,7 @@
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="71"/>
+      <x:c r="B10" s="70"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -5740,7 +5474,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="71"/>
+      <x:c r="B11" s="70"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -5748,48 +5482,48 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="67"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C13" s="66"/>
       <x:c r="D13" s="59"/>
       <x:c r="E13" s="59"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="60"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="72"/>
-      <x:c r="C14" s="73"/>
-      <x:c r="D14" s="73"/>
-      <x:c r="E14" s="73"/>
-      <x:c r="F14" s="73"/>
-      <x:c r="G14" s="73"/>
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="72"/>
+      <x:c r="D14" s="72"/>
+      <x:c r="E14" s="72"/>
+      <x:c r="F14" s="72"/>
+      <x:c r="G14" s="72"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C15" s="69"/>
-      <x:c r="D15" s="69"/>
-      <x:c r="E15" s="69"/>
-      <x:c r="F15" s="69"/>
-      <x:c r="G15" s="70"/>
+      <x:c r="B15" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="68"/>
+      <x:c r="D15" s="68"/>
+      <x:c r="E15" s="68"/>
+      <x:c r="F15" s="68"/>
+      <x:c r="G15" s="69"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C16" s="68"/>
-      <x:c r="D16" s="69"/>
-      <x:c r="E16" s="69"/>
-      <x:c r="F16" s="69"/>
-      <x:c r="G16" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="67"/>
+      <x:c r="D16" s="68"/>
+      <x:c r="E16" s="68"/>
+      <x:c r="F16" s="68"/>
+      <x:c r="G16" s="69"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D17" s="58"/>
       <x:c r="E17" s="59"/>
@@ -5799,9 +5533,211 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D18" s="61"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D18" s="74"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="59"/>
+      <x:c r="G18" s="60"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="14">
+    <x:mergeCell ref="B17:B18"/>
+    <x:mergeCell ref="D17:G17"/>
+    <x:mergeCell ref="D18:G18"/>
+    <x:mergeCell ref="B1:G1"/>
+    <x:mergeCell ref="B3:G3"/>
+    <x:mergeCell ref="C4:G4"/>
+    <x:mergeCell ref="C5:G5"/>
+    <x:mergeCell ref="C6:G6"/>
+    <x:mergeCell ref="C7:G7"/>
+    <x:mergeCell ref="B8:B12"/>
+    <x:mergeCell ref="C13:G13"/>
+    <x:mergeCell ref="B14:G14"/>
+    <x:mergeCell ref="B15:G15"/>
+    <x:mergeCell ref="C16:G16"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet16"/>
+  <x:dimension ref="B1:G18"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:H21"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
+  <x:sheetData>
+    <x:row r="1" spans="2:7">
+      <x:c r="B1" s="61"/>
+      <x:c r="C1" s="62"/>
+      <x:c r="D1" s="62"/>
+      <x:c r="E1" s="62"/>
+      <x:c r="F1" s="62"/>
+      <x:c r="G1" s="63"/>
+    </x:row>
+    <x:row r="2" spans="2:7">
+      <x:c r="B2" s="6"/>
+      <x:c r="C2" s="6"/>
+      <x:c r="D2" s="6"/>
+      <x:c r="E2" s="6"/>
+      <x:c r="F2" s="6"/>
+      <x:c r="G2" s="6"/>
+    </x:row>
+    <x:row r="3" spans="2:7">
+      <x:c r="B3" s="64" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C3" s="59"/>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="60"/>
+    </x:row>
+    <x:row r="4" spans="2:7">
+      <x:c r="B4" s="7" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C4" s="65"/>
+      <x:c r="D4" s="59"/>
+      <x:c r="E4" s="59"/>
+      <x:c r="F4" s="59"/>
+      <x:c r="G4" s="60"/>
+    </x:row>
+    <x:row r="5" spans="2:7">
+      <x:c r="B5" s="7" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C5" s="66"/>
+      <x:c r="D5" s="59"/>
+      <x:c r="E5" s="59"/>
+      <x:c r="F5" s="59"/>
+      <x:c r="G5" s="60"/>
+    </x:row>
+    <x:row r="6" spans="2:7">
+      <x:c r="B6" s="7" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C6" s="66"/>
+      <x:c r="D6" s="59"/>
+      <x:c r="E6" s="59"/>
+      <x:c r="F6" s="59"/>
+      <x:c r="G6" s="60"/>
+    </x:row>
+    <x:row r="7" spans="2:7">
+      <x:c r="B7" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="67"/>
+      <x:c r="D7" s="68"/>
+      <x:c r="E7" s="68"/>
+      <x:c r="F7" s="68"/>
+      <x:c r="G7" s="69"/>
+    </x:row>
+    <x:row r="8" spans="2:7">
+      <x:c r="B8" s="56" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F8" s="8" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G8" s="8" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:7">
+      <x:c r="B9" s="70"/>
+      <x:c r="C9" s="9"/>
+      <x:c r="D9" s="20"/>
+      <x:c r="E9" s="9"/>
+      <x:c r="F9" s="9"/>
+      <x:c r="G9" s="9"/>
+    </x:row>
+    <x:row r="10" spans="2:7">
+      <x:c r="B10" s="70"/>
+      <x:c r="C10" s="9"/>
+      <x:c r="D10" s="21"/>
+      <x:c r="E10" s="9"/>
+      <x:c r="F10" s="12"/>
+      <x:c r="G10" s="9"/>
+    </x:row>
+    <x:row r="11" spans="2:2">
+      <x:c r="B11" s="70"/>
+    </x:row>
+    <x:row r="12" spans="2:7">
+      <x:c r="B12" s="57"/>
+      <x:c r="G12" s="23"/>
+    </x:row>
+    <x:row r="13" spans="2:7">
+      <x:c r="B13" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C13" s="66"/>
+      <x:c r="D13" s="59"/>
+      <x:c r="E13" s="59"/>
+      <x:c r="F13" s="59"/>
+      <x:c r="G13" s="60"/>
+    </x:row>
+    <x:row r="14" spans="2:7">
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="72"/>
+      <x:c r="D14" s="72"/>
+      <x:c r="E14" s="72"/>
+      <x:c r="F14" s="72"/>
+      <x:c r="G14" s="72"/>
+    </x:row>
+    <x:row r="15" spans="2:7">
+      <x:c r="B15" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="68"/>
+      <x:c r="D15" s="68"/>
+      <x:c r="E15" s="68"/>
+      <x:c r="F15" s="68"/>
+      <x:c r="G15" s="69"/>
+    </x:row>
+    <x:row r="16" spans="2:7">
+      <x:c r="B16" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="67"/>
+      <x:c r="D16" s="68"/>
+      <x:c r="E16" s="68"/>
+      <x:c r="F16" s="68"/>
+      <x:c r="G16" s="69"/>
+    </x:row>
+    <x:row r="17" spans="2:7">
+      <x:c r="B17" s="56" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C17" s="8" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D17" s="58"/>
+      <x:c r="E17" s="59"/>
+      <x:c r="F17" s="59"/>
+      <x:c r="G17" s="60"/>
+    </x:row>
+    <x:row r="18" spans="2:7">
+      <x:c r="B18" s="57"/>
+      <x:c r="C18" s="8" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D18" s="74"/>
       <x:c r="E18" s="59"/>
       <x:c r="F18" s="59"/>
       <x:c r="G18" s="60"/>
@@ -5830,7 +5766,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet16"/>
+  <x:sheetPr codeName="Sheet17"/>
   <x:dimension ref="B1:G18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
@@ -5840,12 +5776,12 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="62"/>
-      <x:c r="C1" s="63"/>
-      <x:c r="D1" s="63"/>
-      <x:c r="E1" s="63"/>
-      <x:c r="F1" s="63"/>
-      <x:c r="G1" s="64"/>
+      <x:c r="B1" s="61"/>
+      <x:c r="C1" s="62"/>
+      <x:c r="D1" s="62"/>
+      <x:c r="E1" s="62"/>
+      <x:c r="F1" s="62"/>
+      <x:c r="G1" s="63"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -5856,8 +5792,8 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B3" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -5867,9 +5803,9 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C4" s="66"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C4" s="65"/>
       <x:c r="D4" s="59"/>
       <x:c r="E4" s="59"/>
       <x:c r="F4" s="59"/>
@@ -5877,9 +5813,9 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C5" s="67"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C5" s="66"/>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
       <x:c r="F5" s="59"/>
@@ -5887,9 +5823,9 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C6" s="67"/>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C6" s="66"/>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -5897,36 +5833,36 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C7" s="68"/>
-      <x:c r="D7" s="69"/>
-      <x:c r="E7" s="69"/>
-      <x:c r="F7" s="69"/>
-      <x:c r="G7" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="67"/>
+      <x:c r="D7" s="68"/>
+      <x:c r="E7" s="68"/>
+      <x:c r="F7" s="68"/>
+      <x:c r="G7" s="69"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="71"/>
+      <x:c r="B9" s="70"/>
       <x:c r="C9" s="9"/>
       <x:c r="D9" s="20"/>
       <x:c r="E9" s="9"/>
@@ -5934,7 +5870,7 @@
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="71"/>
+      <x:c r="B10" s="70"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -5942,7 +5878,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="71"/>
+      <x:c r="B11" s="70"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -5950,48 +5886,48 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="67"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C13" s="66"/>
       <x:c r="D13" s="59"/>
       <x:c r="E13" s="59"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="60"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="72"/>
-      <x:c r="C14" s="73"/>
-      <x:c r="D14" s="73"/>
-      <x:c r="E14" s="73"/>
-      <x:c r="F14" s="73"/>
-      <x:c r="G14" s="73"/>
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="72"/>
+      <x:c r="D14" s="72"/>
+      <x:c r="E14" s="72"/>
+      <x:c r="F14" s="72"/>
+      <x:c r="G14" s="72"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C15" s="69"/>
-      <x:c r="D15" s="69"/>
-      <x:c r="E15" s="69"/>
-      <x:c r="F15" s="69"/>
-      <x:c r="G15" s="70"/>
+      <x:c r="B15" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="68"/>
+      <x:c r="D15" s="68"/>
+      <x:c r="E15" s="68"/>
+      <x:c r="F15" s="68"/>
+      <x:c r="G15" s="69"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C16" s="68"/>
-      <x:c r="D16" s="69"/>
-      <x:c r="E16" s="69"/>
-      <x:c r="F16" s="69"/>
-      <x:c r="G16" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="67"/>
+      <x:c r="D16" s="68"/>
+      <x:c r="E16" s="68"/>
+      <x:c r="F16" s="68"/>
+      <x:c r="G16" s="69"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D17" s="58"/>
       <x:c r="E17" s="59"/>
@@ -6001,9 +5937,9 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D18" s="61"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D18" s="74"/>
       <x:c r="E18" s="59"/>
       <x:c r="F18" s="59"/>
       <x:c r="G18" s="60"/>
@@ -6032,7 +5968,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet17"/>
+  <x:sheetPr codeName="Sheet18"/>
   <x:dimension ref="B1:G18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
@@ -6042,12 +5978,12 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="62"/>
-      <x:c r="C1" s="63"/>
-      <x:c r="D1" s="63"/>
-      <x:c r="E1" s="63"/>
-      <x:c r="F1" s="63"/>
-      <x:c r="G1" s="64"/>
+      <x:c r="B1" s="61"/>
+      <x:c r="C1" s="62"/>
+      <x:c r="D1" s="62"/>
+      <x:c r="E1" s="62"/>
+      <x:c r="F1" s="62"/>
+      <x:c r="G1" s="63"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -6058,8 +5994,8 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B3" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -6069,9 +6005,9 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C4" s="66"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C4" s="65"/>
       <x:c r="D4" s="59"/>
       <x:c r="E4" s="59"/>
       <x:c r="F4" s="59"/>
@@ -6079,9 +6015,9 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C5" s="67"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C5" s="66"/>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
       <x:c r="F5" s="59"/>
@@ -6089,9 +6025,9 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C6" s="67"/>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C6" s="66"/>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -6099,36 +6035,36 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C7" s="68"/>
-      <x:c r="D7" s="69"/>
-      <x:c r="E7" s="69"/>
-      <x:c r="F7" s="69"/>
-      <x:c r="G7" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="67"/>
+      <x:c r="D7" s="68"/>
+      <x:c r="E7" s="68"/>
+      <x:c r="F7" s="68"/>
+      <x:c r="G7" s="69"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="71"/>
+      <x:c r="B9" s="70"/>
       <x:c r="C9" s="9"/>
       <x:c r="D9" s="20"/>
       <x:c r="E9" s="9"/>
@@ -6136,7 +6072,7 @@
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="71"/>
+      <x:c r="B10" s="70"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -6144,7 +6080,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="71"/>
+      <x:c r="B11" s="70"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -6152,48 +6088,48 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="67"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C13" s="66"/>
       <x:c r="D13" s="59"/>
       <x:c r="E13" s="59"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="60"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="72"/>
-      <x:c r="C14" s="73"/>
-      <x:c r="D14" s="73"/>
-      <x:c r="E14" s="73"/>
-      <x:c r="F14" s="73"/>
-      <x:c r="G14" s="73"/>
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="72"/>
+      <x:c r="D14" s="72"/>
+      <x:c r="E14" s="72"/>
+      <x:c r="F14" s="72"/>
+      <x:c r="G14" s="72"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C15" s="69"/>
-      <x:c r="D15" s="69"/>
-      <x:c r="E15" s="69"/>
-      <x:c r="F15" s="69"/>
-      <x:c r="G15" s="70"/>
+      <x:c r="B15" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="68"/>
+      <x:c r="D15" s="68"/>
+      <x:c r="E15" s="68"/>
+      <x:c r="F15" s="68"/>
+      <x:c r="G15" s="69"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C16" s="68"/>
-      <x:c r="D16" s="69"/>
-      <x:c r="E16" s="69"/>
-      <x:c r="F16" s="69"/>
-      <x:c r="G16" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="67"/>
+      <x:c r="D16" s="68"/>
+      <x:c r="E16" s="68"/>
+      <x:c r="F16" s="68"/>
+      <x:c r="G16" s="69"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D17" s="58"/>
       <x:c r="E17" s="59"/>
@@ -6203,9 +6139,9 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D18" s="61"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D18" s="74"/>
       <x:c r="E18" s="59"/>
       <x:c r="F18" s="59"/>
       <x:c r="G18" s="60"/>
@@ -6234,22 +6170,22 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet18"/>
+  <x:sheetPr codeName="Sheet19"/>
   <x:dimension ref="B1:G18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:H21"/>
+      <x:selection activeCell="H22" activeCellId="0" sqref="B1:H22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="62"/>
-      <x:c r="C1" s="63"/>
-      <x:c r="D1" s="63"/>
-      <x:c r="E1" s="63"/>
-      <x:c r="F1" s="63"/>
-      <x:c r="G1" s="64"/>
+      <x:c r="B1" s="61"/>
+      <x:c r="C1" s="62"/>
+      <x:c r="D1" s="62"/>
+      <x:c r="E1" s="62"/>
+      <x:c r="F1" s="62"/>
+      <x:c r="G1" s="63"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -6260,8 +6196,8 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B3" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -6271,9 +6207,9 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C4" s="66"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C4" s="65"/>
       <x:c r="D4" s="59"/>
       <x:c r="E4" s="59"/>
       <x:c r="F4" s="59"/>
@@ -6281,9 +6217,9 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C5" s="67"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C5" s="66"/>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
       <x:c r="F5" s="59"/>
@@ -6291,9 +6227,9 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C6" s="67"/>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C6" s="66"/>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -6301,36 +6237,36 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C7" s="68"/>
-      <x:c r="D7" s="69"/>
-      <x:c r="E7" s="69"/>
-      <x:c r="F7" s="69"/>
-      <x:c r="G7" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="67"/>
+      <x:c r="D7" s="68"/>
+      <x:c r="E7" s="68"/>
+      <x:c r="F7" s="68"/>
+      <x:c r="G7" s="69"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="71"/>
+      <x:c r="B9" s="70"/>
       <x:c r="C9" s="9"/>
       <x:c r="D9" s="20"/>
       <x:c r="E9" s="9"/>
@@ -6338,7 +6274,7 @@
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="71"/>
+      <x:c r="B10" s="70"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -6346,7 +6282,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="71"/>
+      <x:c r="B11" s="70"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -6354,48 +6290,48 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="67"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C13" s="66"/>
       <x:c r="D13" s="59"/>
       <x:c r="E13" s="59"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="60"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="72"/>
-      <x:c r="C14" s="73"/>
-      <x:c r="D14" s="73"/>
-      <x:c r="E14" s="73"/>
-      <x:c r="F14" s="73"/>
-      <x:c r="G14" s="73"/>
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="72"/>
+      <x:c r="D14" s="72"/>
+      <x:c r="E14" s="72"/>
+      <x:c r="F14" s="72"/>
+      <x:c r="G14" s="72"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C15" s="69"/>
-      <x:c r="D15" s="69"/>
-      <x:c r="E15" s="69"/>
-      <x:c r="F15" s="69"/>
-      <x:c r="G15" s="70"/>
+      <x:c r="B15" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="68"/>
+      <x:c r="D15" s="68"/>
+      <x:c r="E15" s="68"/>
+      <x:c r="F15" s="68"/>
+      <x:c r="G15" s="69"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C16" s="68"/>
-      <x:c r="D16" s="69"/>
-      <x:c r="E16" s="69"/>
-      <x:c r="F16" s="69"/>
-      <x:c r="G16" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="67"/>
+      <x:c r="D16" s="68"/>
+      <x:c r="E16" s="68"/>
+      <x:c r="F16" s="68"/>
+      <x:c r="G16" s="69"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D17" s="58"/>
       <x:c r="E17" s="59"/>
@@ -6405,9 +6341,9 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D18" s="61"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D18" s="74"/>
       <x:c r="E18" s="59"/>
       <x:c r="F18" s="59"/>
       <x:c r="G18" s="60"/>
@@ -6457,13 +6393,13 @@
   <x:sheetData>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="75" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C4" s="63"/>
-      <x:c r="D4" s="63"/>
-      <x:c r="E4" s="63"/>
-      <x:c r="F4" s="63"/>
-      <x:c r="G4" s="64"/>
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C4" s="62"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="6"/>
@@ -6474,8 +6410,8 @@
       <x:c r="G5" s="6"/>
     </x:row>
     <x:row r="6" spans="2:7">
-      <x:c r="B6" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B6" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -6485,10 +6421,10 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C7" s="76" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D7" s="77"/>
       <x:c r="E7" s="77"/>
@@ -6497,10 +6433,10 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="26" t="s">
-        <x:v>110</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C8" s="79" t="s">
-        <x:v>121</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D8" s="59"/>
       <x:c r="E8" s="59"/>
@@ -6509,10 +6445,10 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C9" s="67" t="s">
         <x:v>80</x:v>
+      </x:c>
+      <x:c r="C9" s="66" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
@@ -6521,162 +6457,162 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="68" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D10" s="69"/>
-      <x:c r="E10" s="69"/>
-      <x:c r="F10" s="69"/>
-      <x:c r="G10" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C10" s="67" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D10" s="68"/>
+      <x:c r="E10" s="68"/>
+      <x:c r="F10" s="68"/>
+      <x:c r="G10" s="69"/>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="80" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B12" s="71"/>
+      <x:c r="B12" s="70"/>
       <x:c r="C12" s="27" t="s">
-        <x:v>82</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E12" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F12" s="27" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G12" s="24"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="71"/>
+      <x:c r="B13" s="70"/>
       <x:c r="C13" s="27" t="s">
-        <x:v>123</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E13" s="27" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F13" s="12"/>
       <x:c r="G13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
+      <x:c r="B14" s="70"/>
       <x:c r="C14" s="27" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E14" s="27" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F14" s="12"/>
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="71"/>
+      <x:c r="B15" s="70"/>
       <x:c r="C15" s="27" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D15" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E15" s="27" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F15" s="12"/>
       <x:c r="G15" s="9"/>
     </x:row>
     <x:row r="16" spans="2:7">
-      <x:c r="B16" s="71"/>
+      <x:c r="B16" s="70"/>
       <x:c r="C16" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D16" s="14" t="s">
-        <x:v>47</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E16" s="27" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="71"/>
+      <x:c r="B17" s="70"/>
       <x:c r="C17" s="27" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
-        <x:v>139</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E17" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F17" s="22"/>
       <x:c r="G17" s="19"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="71"/>
+      <x:c r="B18" s="70"/>
       <x:c r="C18" s="27" t="s">
-        <x:v>20</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F18" s="22"/>
       <x:c r="G18" s="19"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="71"/>
+      <x:c r="B19" s="70"/>
       <x:c r="C19" s="27" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D19" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E19" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F19" s="22"/>
       <x:c r="G19" s="19"/>
     </x:row>
     <x:row r="20" spans="2:7">
-      <x:c r="B20" s="71"/>
+      <x:c r="B20" s="70"/>
       <x:c r="C20" s="27" t="s">
-        <x:v>129</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D20" s="14" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E20" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F20" s="22"/>
       <x:c r="G20" s="19"/>
@@ -6684,23 +6620,23 @@
     <x:row r="21" spans="2:7">
       <x:c r="B21" s="81"/>
       <x:c r="C21" s="27" t="s">
-        <x:v>128</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E21" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F21" s="22"/>
       <x:c r="G21" s="19"/>
     </x:row>
     <x:row r="22" spans="2:7">
       <x:c r="B22" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C22" s="67" t="s">
-        <x:v>154</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="66" t="s">
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D22" s="59"/>
       <x:c r="E22" s="59"/>
@@ -6716,8 +6652,8 @@
       <x:c r="G23" s="82"/>
     </x:row>
     <x:row r="24" spans="2:7">
-      <x:c r="B24" s="74" t="s">
-        <x:v>105</x:v>
+      <x:c r="B24" s="73" t="s">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C24" s="83"/>
       <x:c r="D24" s="83"/>
@@ -6727,22 +6663,22 @@
     </x:row>
     <x:row r="25" spans="2:7">
       <x:c r="B25" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C25" s="68" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D25" s="69"/>
-      <x:c r="E25" s="69"/>
-      <x:c r="F25" s="69"/>
-      <x:c r="G25" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C25" s="67" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D25" s="68"/>
+      <x:c r="E25" s="68"/>
+      <x:c r="F25" s="68"/>
+      <x:c r="G25" s="69"/>
     </x:row>
     <x:row r="26" spans="2:7" ht="180.75" customHeight="1">
       <x:c r="B26" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C26" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D26" s="58" t="s">
         <x:v>13</x:v>
@@ -6754,10 +6690,10 @@
     <x:row r="27" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B27" s="57"/>
       <x:c r="C27" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D27" s="61" t="s">
-        <x:v>4</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D27" s="74" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="59"/>
       <x:c r="F27" s="59"/>
@@ -6782,208 +6718,6 @@
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet19"/>
-  <x:dimension ref="B1:G18"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="H22" activeCellId="0" sqref="B1:H22"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData>
-    <x:row r="1" spans="2:7">
-      <x:c r="B1" s="62"/>
-      <x:c r="C1" s="63"/>
-      <x:c r="D1" s="63"/>
-      <x:c r="E1" s="63"/>
-      <x:c r="F1" s="63"/>
-      <x:c r="G1" s="64"/>
-    </x:row>
-    <x:row r="2" spans="2:7">
-      <x:c r="B2" s="6"/>
-      <x:c r="C2" s="6"/>
-      <x:c r="D2" s="6"/>
-      <x:c r="E2" s="6"/>
-      <x:c r="F2" s="6"/>
-      <x:c r="G2" s="6"/>
-    </x:row>
-    <x:row r="3" spans="2:7">
-      <x:c r="B3" s="65" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C3" s="59"/>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
-    </x:row>
-    <x:row r="4" spans="2:7">
-      <x:c r="B4" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C4" s="66"/>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="59"/>
-      <x:c r="G4" s="60"/>
-    </x:row>
-    <x:row r="5" spans="2:7">
-      <x:c r="B5" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C5" s="67"/>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="60"/>
-    </x:row>
-    <x:row r="6" spans="2:7">
-      <x:c r="B6" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C6" s="67"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
-    </x:row>
-    <x:row r="7" spans="2:7">
-      <x:c r="B7" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C7" s="68"/>
-      <x:c r="D7" s="69"/>
-      <x:c r="E7" s="69"/>
-      <x:c r="F7" s="69"/>
-      <x:c r="G7" s="70"/>
-    </x:row>
-    <x:row r="8" spans="2:7">
-      <x:c r="B8" s="56" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D8" s="8" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E8" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F8" s="8" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G8" s="8" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:7">
-      <x:c r="B9" s="71"/>
-      <x:c r="C9" s="9"/>
-      <x:c r="D9" s="20"/>
-      <x:c r="E9" s="9"/>
-      <x:c r="F9" s="9"/>
-      <x:c r="G9" s="9"/>
-    </x:row>
-    <x:row r="10" spans="2:7">
-      <x:c r="B10" s="71"/>
-      <x:c r="C10" s="9"/>
-      <x:c r="D10" s="21"/>
-      <x:c r="E10" s="9"/>
-      <x:c r="F10" s="12"/>
-      <x:c r="G10" s="9"/>
-    </x:row>
-    <x:row r="11" spans="2:2">
-      <x:c r="B11" s="71"/>
-    </x:row>
-    <x:row r="12" spans="2:7">
-      <x:c r="B12" s="57"/>
-      <x:c r="G12" s="23"/>
-    </x:row>
-    <x:row r="13" spans="2:7">
-      <x:c r="B13" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="67"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
-    </x:row>
-    <x:row r="14" spans="2:7">
-      <x:c r="B14" s="72"/>
-      <x:c r="C14" s="73"/>
-      <x:c r="D14" s="73"/>
-      <x:c r="E14" s="73"/>
-      <x:c r="F14" s="73"/>
-      <x:c r="G14" s="73"/>
-    </x:row>
-    <x:row r="15" spans="2:7">
-      <x:c r="B15" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C15" s="69"/>
-      <x:c r="D15" s="69"/>
-      <x:c r="E15" s="69"/>
-      <x:c r="F15" s="69"/>
-      <x:c r="G15" s="70"/>
-    </x:row>
-    <x:row r="16" spans="2:7">
-      <x:c r="B16" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C16" s="68"/>
-      <x:c r="D16" s="69"/>
-      <x:c r="E16" s="69"/>
-      <x:c r="F16" s="69"/>
-      <x:c r="G16" s="70"/>
-    </x:row>
-    <x:row r="17" spans="2:7">
-      <x:c r="B17" s="56" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C17" s="8" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D17" s="58"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
-    </x:row>
-    <x:row r="18" spans="2:7">
-      <x:c r="B18" s="57"/>
-      <x:c r="C18" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D18" s="61"/>
-      <x:c r="E18" s="59"/>
-      <x:c r="F18" s="59"/>
-      <x:c r="G18" s="60"/>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="14">
-    <x:mergeCell ref="B17:B18"/>
-    <x:mergeCell ref="D17:G17"/>
-    <x:mergeCell ref="D18:G18"/>
-    <x:mergeCell ref="B1:G1"/>
-    <x:mergeCell ref="B3:G3"/>
-    <x:mergeCell ref="C4:G4"/>
-    <x:mergeCell ref="C5:G5"/>
-    <x:mergeCell ref="C6:G6"/>
-    <x:mergeCell ref="C7:G7"/>
-    <x:mergeCell ref="B8:B12"/>
-    <x:mergeCell ref="C13:G13"/>
-    <x:mergeCell ref="B14:G14"/>
-    <x:mergeCell ref="B15:G15"/>
-    <x:mergeCell ref="C16:G16"/>
-  </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
@@ -7010,11 +6744,11 @@
   <x:sheetData>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="75"/>
-      <x:c r="C4" s="63"/>
-      <x:c r="D4" s="63"/>
-      <x:c r="E4" s="63"/>
-      <x:c r="F4" s="63"/>
-      <x:c r="G4" s="64"/>
+      <x:c r="C4" s="62"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="6"/>
@@ -7025,8 +6759,8 @@
       <x:c r="G5" s="6"/>
     </x:row>
     <x:row r="6" spans="2:7">
-      <x:c r="B6" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B6" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -7036,7 +6770,7 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C7" s="76"/>
       <x:c r="D7" s="77"/>
@@ -7046,9 +6780,9 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C8" s="67"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C8" s="66"/>
       <x:c r="D8" s="59"/>
       <x:c r="E8" s="59"/>
       <x:c r="F8" s="59"/>
@@ -7056,9 +6790,9 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C9" s="67"/>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C9" s="66"/>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
       <x:c r="F9" s="59"/>
@@ -7066,36 +6800,36 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="68"/>
-      <x:c r="D10" s="69"/>
-      <x:c r="E10" s="69"/>
-      <x:c r="F10" s="69"/>
-      <x:c r="G10" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C10" s="67"/>
+      <x:c r="D10" s="68"/>
+      <x:c r="E10" s="68"/>
+      <x:c r="F10" s="68"/>
+      <x:c r="G10" s="69"/>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7">
-      <x:c r="B12" s="71"/>
+      <x:c r="B12" s="70"/>
       <x:c r="C12" s="9"/>
       <x:c r="D12" s="10"/>
       <x:c r="E12" s="9"/>
@@ -7103,7 +6837,7 @@
       <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="71"/>
+      <x:c r="B13" s="70"/>
       <x:c r="C13" s="9"/>
       <x:c r="D13" s="11"/>
       <x:c r="E13" s="9"/>
@@ -7111,7 +6845,7 @@
       <x:c r="G13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
+      <x:c r="B14" s="70"/>
       <x:c r="C14" s="9"/>
       <x:c r="D14" s="10"/>
       <x:c r="E14" s="9"/>
@@ -7119,7 +6853,7 @@
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="71"/>
+      <x:c r="B15" s="70"/>
       <x:c r="C15" s="9"/>
       <x:c r="D15" s="10"/>
       <x:c r="E15" s="9"/>
@@ -7136,48 +6870,48 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C17" s="67"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C17" s="66"/>
       <x:c r="D17" s="59"/>
       <x:c r="E17" s="59"/>
       <x:c r="F17" s="59"/>
       <x:c r="G17" s="60"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="72"/>
-      <x:c r="C18" s="73"/>
-      <x:c r="D18" s="73"/>
-      <x:c r="E18" s="73"/>
-      <x:c r="F18" s="73"/>
-      <x:c r="G18" s="73"/>
+      <x:c r="B18" s="71"/>
+      <x:c r="C18" s="72"/>
+      <x:c r="D18" s="72"/>
+      <x:c r="E18" s="72"/>
+      <x:c r="F18" s="72"/>
+      <x:c r="G18" s="72"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C19" s="69"/>
-      <x:c r="D19" s="69"/>
-      <x:c r="E19" s="69"/>
-      <x:c r="F19" s="69"/>
-      <x:c r="G19" s="70"/>
+      <x:c r="B19" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C19" s="68"/>
+      <x:c r="D19" s="68"/>
+      <x:c r="E19" s="68"/>
+      <x:c r="F19" s="68"/>
+      <x:c r="G19" s="69"/>
     </x:row>
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C20" s="68"/>
-      <x:c r="D20" s="69"/>
-      <x:c r="E20" s="69"/>
-      <x:c r="F20" s="69"/>
-      <x:c r="G20" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="67"/>
+      <x:c r="D20" s="68"/>
+      <x:c r="E20" s="68"/>
+      <x:c r="F20" s="68"/>
+      <x:c r="G20" s="69"/>
     </x:row>
     <x:row r="21" spans="2:7" ht="85.25" customHeight="1">
       <x:c r="B21" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D21" s="58"/>
       <x:c r="E21" s="59"/>
@@ -7187,9 +6921,9 @@
     <x:row r="22" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B22" s="57"/>
       <x:c r="C22" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D22" s="61"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D22" s="74"/>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
       <x:c r="G22" s="60"/>
@@ -7235,13 +6969,13 @@
   <x:sheetData>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="75" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="B2" s="63"/>
-      <x:c r="C2" s="63"/>
-      <x:c r="D2" s="63"/>
-      <x:c r="E2" s="63"/>
-      <x:c r="F2" s="64"/>
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B2" s="62"/>
+      <x:c r="C2" s="62"/>
+      <x:c r="D2" s="62"/>
+      <x:c r="E2" s="62"/>
+      <x:c r="F2" s="63"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="6"/>
@@ -7252,8 +6986,8 @@
       <x:c r="F3" s="6"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="A4" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B4" s="59"/>
       <x:c r="C4" s="59"/>
@@ -7263,10 +6997,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B5" s="76" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C5" s="77"/>
       <x:c r="D5" s="77"/>
@@ -7275,10 +7009,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B6" s="85" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C6" s="77"/>
       <x:c r="D6" s="77"/>
@@ -7287,10 +7021,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B7" s="85" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C7" s="77"/>
       <x:c r="D7" s="77"/>
@@ -7299,10 +7033,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="86" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="82"/>
       <x:c r="D8" s="82"/>
@@ -7311,90 +7045,90 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="56" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D9" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F9" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="A10" s="71"/>
+      <x:c r="A10" s="70"/>
       <x:c r="B10" s="27" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C10" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D10" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E10" s="27" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F10" s="19"/>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="A11" s="71"/>
+      <x:c r="A11" s="70"/>
       <x:c r="B11" s="27" t="s">
-        <x:v>130</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C11" s="15" t="s">
-        <x:v>133</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D11" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E11" s="38" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F11" s="19"/>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="71"/>
+      <x:c r="A12" s="70"/>
       <x:c r="B12" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C12" s="37" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D12" s="27" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E12" s="22"/>
       <x:c r="F12" s="27" t="s">
-        <x:v>145</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="A13" s="71"/>
+      <x:c r="A13" s="70"/>
       <x:c r="B13" s="27" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C13" s="38" t="s">
-        <x:v>70</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D13" s="27" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E13" s="22"/>
       <x:c r="F13" s="27" t="s">
-        <x:v>151</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="71"/>
+      <x:c r="A14" s="70"/>
       <x:c r="B14" s="19"/>
       <x:c r="C14" s="22"/>
       <x:c r="D14" s="19"/>
@@ -7402,7 +7136,7 @@
       <x:c r="F14" s="19"/>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="71"/>
+      <x:c r="A15" s="70"/>
       <x:c r="B15" s="19"/>
       <x:c r="C15" s="22"/>
       <x:c r="D15" s="29"/>
@@ -7419,10 +7153,10 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B17" s="85" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C17" s="77"/>
       <x:c r="D17" s="77"/>
@@ -7430,29 +7164,29 @@
       <x:c r="F17" s="78"/>
     </x:row>
     <x:row r="18" spans="1:6">
-      <x:c r="A18" s="72"/>
-      <x:c r="B18" s="73"/>
-      <x:c r="C18" s="73"/>
-      <x:c r="D18" s="73"/>
-      <x:c r="E18" s="73"/>
-      <x:c r="F18" s="73"/>
+      <x:c r="A18" s="71"/>
+      <x:c r="B18" s="72"/>
+      <x:c r="C18" s="72"/>
+      <x:c r="D18" s="72"/>
+      <x:c r="E18" s="72"/>
+      <x:c r="F18" s="72"/>
     </x:row>
     <x:row r="19" spans="1:6">
-      <x:c r="A19" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="B19" s="69"/>
-      <x:c r="C19" s="69"/>
-      <x:c r="D19" s="69"/>
-      <x:c r="E19" s="69"/>
-      <x:c r="F19" s="70"/>
+      <x:c r="A19" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B19" s="68"/>
+      <x:c r="C19" s="68"/>
+      <x:c r="D19" s="68"/>
+      <x:c r="E19" s="68"/>
+      <x:c r="F19" s="69"/>
     </x:row>
     <x:row r="20" spans="1:8" ht="33" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B20" s="88" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="89"/>
       <x:c r="D20" s="89"/>
@@ -7462,13 +7196,13 @@
     </x:row>
     <x:row r="21" spans="1:6" ht="147.65000000000001" customHeight="1">
       <x:c r="A21" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C21" s="58" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="59"/>
       <x:c r="E21" s="59"/>
@@ -7477,10 +7211,10 @@
     <x:row r="22" spans="1:6" ht="122.40000000000001" customHeight="1">
       <x:c r="A22" s="57"/>
       <x:c r="B22" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C22" s="61" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C22" s="74" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D22" s="59"/>
       <x:c r="E22" s="59"/>
@@ -7529,7 +7263,7 @@
   <x:sheetData>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="91" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B4" s="92"/>
       <x:c r="C4" s="92"/>
@@ -7547,7 +7281,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="94" t="s">
-        <x:v>116</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B6" s="95"/>
       <x:c r="C6" s="95"/>
@@ -7557,10 +7291,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B7" s="76" t="s">
-        <x:v>164</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="77"/>
       <x:c r="D7" s="77"/>
@@ -7569,10 +7303,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="47" t="s">
-        <x:v>114</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B8" s="85" t="s">
-        <x:v>148</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C8" s="77"/>
       <x:c r="D8" s="77"/>
@@ -7581,10 +7315,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="47" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B9" s="85" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C9" s="77"/>
       <x:c r="D9" s="77"/>
@@ -7593,10 +7327,10 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="47" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B10" s="86" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="82"/>
       <x:c r="D10" s="82"/>
@@ -7605,50 +7339,50 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="99" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B11" s="40" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E11" s="40" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F11" s="48" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="100"/>
       <x:c r="B12" s="44" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C12" s="42" t="s">
-        <x:v>132</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D12" s="44" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E12" s="44" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F12" s="41"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="100"/>
       <x:c r="B13" s="44" t="s">
-        <x:v>130</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C13" s="43" t="s">
-        <x:v>133</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D13" s="44" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E13" s="36"/>
       <x:c r="F13" s="41"/>
@@ -7656,33 +7390,33 @@
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="100"/>
       <x:c r="B14" s="43" t="s">
-        <x:v>111</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C14" s="45" t="s">
-        <x:v>142</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D14" s="44" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
       <x:c r="F14" s="44" t="s">
-        <x:v>163</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="100"/>
       <x:c r="B15" s="44" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C15" s="45" t="s">
-        <x:v>70</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D15" s="44" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E15" s="36"/>
       <x:c r="F15" s="44" t="s">
-        <x:v>159</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -7711,10 +7445,10 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="49" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B19" s="102" t="s">
-        <x:v>148</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C19" s="103"/>
       <x:c r="D19" s="103"/>
@@ -7730,8 +7464,8 @@
       <x:c r="F20" s="105"/>
     </x:row>
     <x:row r="21" spans="1:6">
-      <x:c r="A21" s="74" t="s">
-        <x:v>105</x:v>
+      <x:c r="A21" s="73" t="s">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="83"/>
       <x:c r="C21" s="83"/>
@@ -7741,10 +7475,10 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B22" s="88" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="89"/>
       <x:c r="D22" s="89"/>
@@ -7753,10 +7487,10 @@
     </x:row>
     <x:row r="23" spans="1:6" ht="108.65000000000001" customHeight="1">
       <x:c r="A23" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C23" s="58" t="s">
         <x:v>13</x:v>
@@ -7768,10 +7502,10 @@
     <x:row r="24" spans="1:6" ht="111" customHeight="1">
       <x:c r="A24" s="57"/>
       <x:c r="B24" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C24" s="61" t="s">
-        <x:v>4</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C24" s="74" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D24" s="59"/>
       <x:c r="E24" s="59"/>
@@ -7801,222 +7535,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet6"/>
-  <x:dimension ref="C5:H22"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A24" activeCellId="0" sqref="A24:A24"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.399999999999999"/>
-  <x:cols>
-    <x:col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <x:col min="4" max="4" width="19.58203125" customWidth="1"/>
-    <x:col min="5" max="5" width="13.9140625" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="5" spans="3:8">
-      <x:c r="C5" s="75"/>
-      <x:c r="D5" s="63"/>
-      <x:c r="E5" s="63"/>
-      <x:c r="F5" s="63"/>
-      <x:c r="G5" s="63"/>
-      <x:c r="H5" s="64"/>
-    </x:row>
-    <x:row r="6" spans="3:8">
-      <x:c r="C6" s="6"/>
-      <x:c r="D6" s="6"/>
-      <x:c r="E6" s="6"/>
-      <x:c r="F6" s="6"/>
-      <x:c r="G6" s="6"/>
-      <x:c r="H6" s="6"/>
-    </x:row>
-    <x:row r="7" spans="3:8">
-      <x:c r="C7" s="65" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D7" s="59"/>
-      <x:c r="E7" s="59"/>
-      <x:c r="F7" s="59"/>
-      <x:c r="G7" s="59"/>
-      <x:c r="H7" s="60"/>
-    </x:row>
-    <x:row r="8" spans="3:8">
-      <x:c r="C8" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D8" s="106"/>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="59"/>
-      <x:c r="H8" s="60"/>
-    </x:row>
-    <x:row r="9" spans="3:8">
-      <x:c r="C9" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D9" s="67"/>
-      <x:c r="E9" s="59"/>
-      <x:c r="F9" s="59"/>
-      <x:c r="G9" s="59"/>
-      <x:c r="H9" s="60"/>
-    </x:row>
-    <x:row r="10" spans="3:8">
-      <x:c r="C10" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D10" s="67"/>
-      <x:c r="E10" s="59"/>
-      <x:c r="F10" s="59"/>
-      <x:c r="G10" s="59"/>
-      <x:c r="H10" s="60"/>
-    </x:row>
-    <x:row r="11" spans="3:8">
-      <x:c r="C11" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D11" s="68"/>
-      <x:c r="E11" s="69"/>
-      <x:c r="F11" s="69"/>
-      <x:c r="G11" s="69"/>
-      <x:c r="H11" s="70"/>
-    </x:row>
-    <x:row r="12" spans="3:8">
-      <x:c r="C12" s="56" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D12" s="8" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E12" s="8" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F12" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G12" s="8" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="H12" s="8" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="3:8">
-      <x:c r="C13" s="71"/>
-      <x:c r="D13" s="9"/>
-      <x:c r="E13" s="14"/>
-      <x:c r="F13" s="9"/>
-      <x:c r="G13" s="9"/>
-      <x:c r="H13" s="9"/>
-    </x:row>
-    <x:row r="14" spans="3:8">
-      <x:c r="C14" s="71"/>
-      <x:c r="D14" s="9"/>
-      <x:c r="E14" s="15"/>
-      <x:c r="F14" s="9"/>
-      <x:c r="G14" s="12"/>
-      <x:c r="H14" s="9"/>
-    </x:row>
-    <x:row r="15" spans="3:8">
-      <x:c r="C15" s="71"/>
-      <x:c r="D15" s="9"/>
-      <x:c r="E15" s="12"/>
-      <x:c r="F15" s="9"/>
-      <x:c r="G15" s="12"/>
-      <x:c r="H15" s="9"/>
-    </x:row>
-    <x:row r="16" spans="3:8">
-      <x:c r="C16" s="57"/>
-      <x:c r="D16" s="9"/>
-      <x:c r="E16" s="12"/>
-      <x:c r="F16" s="9"/>
-      <x:c r="G16" s="12"/>
-      <x:c r="H16" s="13"/>
-    </x:row>
-    <x:row r="17" spans="3:8">
-      <x:c r="C17" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D17" s="67"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="59"/>
-      <x:c r="H17" s="60"/>
-    </x:row>
-    <x:row r="18" spans="3:8">
-      <x:c r="C18" s="72"/>
-      <x:c r="D18" s="73"/>
-      <x:c r="E18" s="73"/>
-      <x:c r="F18" s="73"/>
-      <x:c r="G18" s="73"/>
-      <x:c r="H18" s="73"/>
-    </x:row>
-    <x:row r="19" spans="3:8">
-      <x:c r="C19" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D19" s="69"/>
-      <x:c r="E19" s="69"/>
-      <x:c r="F19" s="69"/>
-      <x:c r="G19" s="69"/>
-      <x:c r="H19" s="70"/>
-    </x:row>
-    <x:row r="20" spans="3:8">
-      <x:c r="C20" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D20" s="107"/>
-      <x:c r="E20" s="69"/>
-      <x:c r="F20" s="69"/>
-      <x:c r="G20" s="69"/>
-      <x:c r="H20" s="70"/>
-    </x:row>
-    <x:row r="21" spans="3:8" ht="77.400000000000006" customHeight="1">
-      <x:c r="C21" s="56" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D21" s="8" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E21" s="58"/>
-      <x:c r="F21" s="59"/>
-      <x:c r="G21" s="59"/>
-      <x:c r="H21" s="60"/>
-    </x:row>
-    <x:row r="22" spans="3:8" ht="132.65000000000001" customHeight="1">
-      <x:c r="C22" s="57"/>
-      <x:c r="D22" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E22" s="61"/>
-      <x:c r="F22" s="59"/>
-      <x:c r="G22" s="59"/>
-      <x:c r="H22" s="60"/>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="14">
-    <x:mergeCell ref="C21:C22"/>
-    <x:mergeCell ref="E21:H21"/>
-    <x:mergeCell ref="E22:H22"/>
-    <x:mergeCell ref="C5:H5"/>
-    <x:mergeCell ref="C7:H7"/>
-    <x:mergeCell ref="D8:H8"/>
-    <x:mergeCell ref="D9:H9"/>
-    <x:mergeCell ref="D10:H10"/>
-    <x:mergeCell ref="D11:H11"/>
-    <x:mergeCell ref="C12:C16"/>
-    <x:mergeCell ref="D17:H17"/>
-    <x:mergeCell ref="C18:H18"/>
-    <x:mergeCell ref="C19:H19"/>
-    <x:mergeCell ref="D20:H20"/>
-  </x:mergeCells>
-  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet7"/>
   <x:dimension ref="B6:G23"/>
   <x:sheetViews>
@@ -8033,13 +7551,13 @@
   <x:sheetData>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="75" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C6" s="63"/>
-      <x:c r="D6" s="63"/>
-      <x:c r="E6" s="63"/>
-      <x:c r="F6" s="63"/>
-      <x:c r="G6" s="64"/>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C6" s="62"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="6"/>
@@ -8050,8 +7568,8 @@
       <x:c r="G7" s="6"/>
     </x:row>
     <x:row r="8" spans="2:7">
-      <x:c r="B8" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B8" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C8" s="59"/>
       <x:c r="D8" s="59"/>
@@ -8061,10 +7579,10 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C9" s="106" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
@@ -8073,30 +7591,30 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C10" s="67" t="s">
-        <x:v>36</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C10" s="66" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F10" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G10" s="60" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C11" s="67" t="s">
-        <x:v>101</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C11" s="66" t="s">
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="59"/>
       <x:c r="E11" s="59"/>
@@ -8105,82 +7623,82 @@
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C12" s="68"/>
-      <x:c r="D12" s="69"/>
-      <x:c r="E12" s="69"/>
-      <x:c r="F12" s="69"/>
-      <x:c r="G12" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="67"/>
+      <x:c r="D12" s="68"/>
+      <x:c r="E12" s="68"/>
+      <x:c r="F12" s="68"/>
+      <x:c r="G12" s="69"/>
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="56" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D13" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F13" s="8" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G13" s="8" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:7">
+      <x:c r="B14" s="70"/>
+      <x:c r="C14" s="9" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D14" s="14" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E14" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F14" s="9" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G14" s="9"/>
+    </x:row>
+    <x:row r="15" spans="2:7">
+      <x:c r="B15" s="70"/>
+      <x:c r="C15" s="9" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D15" s="15" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E15" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F15" s="12" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G15" s="9"/>
+    </x:row>
+    <x:row r="16" spans="2:7" ht="28.199999999999999">
+      <x:c r="B16" s="70"/>
+      <x:c r="C16" s="9" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="F13" s="8" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G13" s="8" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="9" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D14" s="14" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E14" s="9" t="s">
+      <x:c r="D16" s="12" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E16" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F16" s="12" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="F14" s="9" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G14" s="9"/>
-    </x:row>
-    <x:row r="15" spans="2:7">
-      <x:c r="B15" s="71"/>
-      <x:c r="C15" s="9" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D15" s="15" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E15" s="9" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="F15" s="12" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G15" s="9"/>
-    </x:row>
-    <x:row r="16" spans="2:7" ht="28.199999999999999">
-      <x:c r="B16" s="71"/>
-      <x:c r="C16" s="9" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D16" s="12" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E16" s="9" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="F16" s="12" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="G16" s="55" t="s">
-        <x:v>147</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7">
@@ -8193,58 +7711,58 @@
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="67" t="s">
-        <x:v>36</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C18" s="66" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D18" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F18" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G18" s="60" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="72"/>
-      <x:c r="C19" s="73"/>
-      <x:c r="D19" s="73"/>
-      <x:c r="E19" s="73"/>
-      <x:c r="F19" s="73"/>
-      <x:c r="G19" s="73"/>
+      <x:c r="B19" s="71"/>
+      <x:c r="C19" s="72"/>
+      <x:c r="D19" s="72"/>
+      <x:c r="E19" s="72"/>
+      <x:c r="F19" s="72"/>
+      <x:c r="G19" s="72"/>
     </x:row>
     <x:row r="20" spans="2:7">
-      <x:c r="B20" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C20" s="69"/>
-      <x:c r="D20" s="69"/>
-      <x:c r="E20" s="69"/>
-      <x:c r="F20" s="69"/>
-      <x:c r="G20" s="70"/>
+      <x:c r="B20" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C20" s="68"/>
+      <x:c r="D20" s="68"/>
+      <x:c r="E20" s="68"/>
+      <x:c r="F20" s="68"/>
+      <x:c r="G20" s="69"/>
     </x:row>
     <x:row r="21" spans="2:7">
       <x:c r="B21" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C21" s="68"/>
-      <x:c r="D21" s="69"/>
-      <x:c r="E21" s="69"/>
-      <x:c r="F21" s="69"/>
-      <x:c r="G21" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C21" s="67"/>
+      <x:c r="D21" s="68"/>
+      <x:c r="E21" s="68"/>
+      <x:c r="F21" s="68"/>
+      <x:c r="G21" s="69"/>
     </x:row>
     <x:row r="22" spans="2:7" ht="123" customHeight="1">
       <x:c r="B22" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D22" s="58" t="s">
         <x:v>9</x:v>
@@ -8256,10 +7774,10 @@
     <x:row r="23" spans="2:7" ht="73.25" customHeight="1">
       <x:c r="B23" s="57"/>
       <x:c r="C23" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D23" s="61" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D23" s="74" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E23" s="59"/>
       <x:c r="F23" s="59"/>
@@ -8287,7 +7805,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="B3:G20"/>
@@ -8306,13 +7824,13 @@
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="75" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C3" s="63"/>
-      <x:c r="D3" s="63"/>
-      <x:c r="E3" s="63"/>
-      <x:c r="F3" s="63"/>
-      <x:c r="G3" s="64"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="63"/>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="6"/>
@@ -8323,8 +7841,8 @@
       <x:c r="G4" s="6"/>
     </x:row>
     <x:row r="5" spans="2:7">
-      <x:c r="B5" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="B5" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C5" s="59"/>
       <x:c r="D5" s="59"/>
@@ -8334,10 +7852,10 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C6" s="106" t="s">
-        <x:v>87</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
@@ -8346,30 +7864,30 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C7" s="67" t="s">
-        <x:v>152</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C7" s="66" t="s">
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D7" s="59" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G7" s="60" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C8" s="67" t="s">
-        <x:v>120</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C8" s="66" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D8" s="59"/>
       <x:c r="E8" s="59"/>
@@ -8378,52 +7896,52 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C9" s="68"/>
-      <x:c r="D9" s="69"/>
-      <x:c r="E9" s="69"/>
-      <x:c r="F9" s="69"/>
-      <x:c r="G9" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C9" s="67"/>
+      <x:c r="D9" s="68"/>
+      <x:c r="E9" s="68"/>
+      <x:c r="F9" s="68"/>
+      <x:c r="G9" s="69"/>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7">
-      <x:c r="B11" s="71"/>
+      <x:c r="B11" s="70"/>
       <x:c r="C11" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D11" s="14" t="s">
-        <x:v>131</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G11" s="9"/>
     </x:row>
     <x:row r="12" spans="2:7">
-      <x:c r="B12" s="71"/>
+      <x:c r="B12" s="70"/>
       <x:c r="C12" s="9"/>
       <x:c r="D12" s="15"/>
       <x:c r="E12" s="9"/>
@@ -8431,7 +7949,7 @@
       <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="71"/>
+      <x:c r="B13" s="70"/>
       <x:c r="C13" s="9"/>
       <x:c r="D13" s="12"/>
       <x:c r="E13" s="9"/>
@@ -8448,61 +7966,61 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C15" s="67" t="s">
-        <x:v>166</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C15" s="66" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D15" s="59" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G15" s="60" t="s">
-        <x:v>166</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:7">
-      <x:c r="B16" s="72"/>
-      <x:c r="C16" s="73"/>
-      <x:c r="D16" s="73"/>
-      <x:c r="E16" s="73"/>
-      <x:c r="F16" s="73"/>
-      <x:c r="G16" s="73"/>
+      <x:c r="B16" s="71"/>
+      <x:c r="C16" s="72"/>
+      <x:c r="D16" s="72"/>
+      <x:c r="E16" s="72"/>
+      <x:c r="F16" s="72"/>
+      <x:c r="G16" s="72"/>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C17" s="69"/>
-      <x:c r="D17" s="69"/>
-      <x:c r="E17" s="69"/>
-      <x:c r="F17" s="69"/>
-      <x:c r="G17" s="70"/>
+      <x:c r="B17" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C17" s="68"/>
+      <x:c r="D17" s="68"/>
+      <x:c r="E17" s="68"/>
+      <x:c r="F17" s="68"/>
+      <x:c r="G17" s="69"/>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C18" s="68"/>
-      <x:c r="D18" s="69"/>
-      <x:c r="E18" s="69"/>
-      <x:c r="F18" s="69"/>
-      <x:c r="G18" s="70"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C18" s="67"/>
+      <x:c r="D18" s="68"/>
+      <x:c r="E18" s="68"/>
+      <x:c r="F18" s="68"/>
+      <x:c r="G18" s="69"/>
     </x:row>
     <x:row r="19" spans="2:7" ht="222" customHeight="1">
       <x:c r="B19" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D19" s="58" t="s">
-        <x:v>168</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E19" s="59"/>
       <x:c r="F19" s="59"/>
@@ -8511,10 +8029,10 @@
     <x:row r="20" spans="2:7" ht="72" customHeight="1">
       <x:c r="B20" s="57"/>
       <x:c r="C20" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D20" s="61" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D20" s="74" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E20" s="59"/>
       <x:c r="F20" s="59"/>
@@ -8542,7 +8060,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet9">
     <x:tabColor rgb="ffff0000"/>
@@ -8562,12 +8080,12 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="62"/>
-      <x:c r="B3" s="63"/>
-      <x:c r="C3" s="63"/>
-      <x:c r="D3" s="63"/>
-      <x:c r="E3" s="63"/>
-      <x:c r="F3" s="64"/>
+      <x:c r="A3" s="61"/>
+      <x:c r="B3" s="62"/>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="63"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="16"/>
@@ -8578,8 +8096,8 @@
       <x:c r="F4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="65" t="s">
-        <x:v>116</x:v>
+      <x:c r="A5" s="64" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B5" s="77"/>
       <x:c r="C5" s="77"/>
@@ -8589,10 +8107,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="111" t="s">
-        <x:v>149</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B6" s="110" t="s">
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C6" s="77"/>
       <x:c r="D6" s="77"/>
@@ -8601,10 +8119,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17" t="s">
-        <x:v>114</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B7" s="85" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C7" s="77"/>
       <x:c r="D7" s="77"/>
@@ -8613,10 +8131,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B8" s="85" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C8" s="77"/>
       <x:c r="D8" s="77"/>
@@ -8625,10 +8143,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="86" t="s">
-        <x:v>156</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C9" s="82"/>
       <x:c r="D9" s="82"/>
@@ -8637,42 +8155,42 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B10" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E10" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F10" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="A11" s="112"/>
+      <x:c r="A11" s="111"/>
       <x:c r="B11" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C11" s="28" t="s">
-        <x:v>124</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D11" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E11" s="27" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F11" s="19"/>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="112"/>
+      <x:c r="A12" s="111"/>
       <x:c r="B12" s="29"/>
       <x:c r="C12" s="30"/>
       <x:c r="D12" s="29"/>
@@ -8680,7 +8198,7 @@
       <x:c r="F12" s="29"/>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="A13" s="113"/>
+      <x:c r="A13" s="112"/>
       <x:c r="B13" s="32"/>
       <x:c r="C13" s="32"/>
       <x:c r="D13" s="32"/>
@@ -8688,7 +8206,7 @@
       <x:c r="F13" s="32"/>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="114"/>
+      <x:c r="A14" s="113"/>
       <x:c r="B14" s="33"/>
       <x:c r="C14" s="33"/>
       <x:c r="D14" s="33"/>
@@ -8697,10 +8215,10 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="17" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B15" s="85" t="s">
-        <x:v>162</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="77"/>
       <x:c r="D15" s="77"/>
@@ -8708,29 +8226,29 @@
       <x:c r="F15" s="78"/>
     </x:row>
     <x:row r="16" spans="1:6">
-      <x:c r="A16" s="72"/>
-      <x:c r="B16" s="115"/>
-      <x:c r="C16" s="115"/>
-      <x:c r="D16" s="115"/>
-      <x:c r="E16" s="115"/>
-      <x:c r="F16" s="115"/>
+      <x:c r="A16" s="71"/>
+      <x:c r="B16" s="114"/>
+      <x:c r="C16" s="114"/>
+      <x:c r="D16" s="114"/>
+      <x:c r="E16" s="114"/>
+      <x:c r="F16" s="114"/>
     </x:row>
     <x:row r="17" spans="1:6">
-      <x:c r="A17" s="74" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="B17" s="116"/>
-      <x:c r="C17" s="116"/>
-      <x:c r="D17" s="116"/>
-      <x:c r="E17" s="116"/>
-      <x:c r="F17" s="117"/>
+      <x:c r="A17" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B17" s="115"/>
+      <x:c r="C17" s="115"/>
+      <x:c r="D17" s="115"/>
+      <x:c r="E17" s="115"/>
+      <x:c r="F17" s="116"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="21.649999999999999" customHeight="1">
       <x:c r="A18" s="17" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B18" s="86" t="s">
-        <x:v>156</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C18" s="82"/>
       <x:c r="D18" s="82"/>
@@ -8739,29 +8257,29 @@
     </x:row>
     <x:row r="19" spans="1:6" ht="223" customHeight="1">
       <x:c r="A19" s="56" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B19" s="18" t="s">
-        <x:v>103</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C19" s="58" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D19" s="109"/>
-      <x:c r="E19" s="109"/>
-      <x:c r="F19" s="110"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D19" s="108"/>
+      <x:c r="E19" s="108"/>
+      <x:c r="F19" s="109"/>
     </x:row>
     <x:row r="20" spans="1:6" ht="127.75" customHeight="1">
-      <x:c r="A20" s="108"/>
+      <x:c r="A20" s="107"/>
       <x:c r="B20" s="18" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C20" s="61" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D20" s="109"/>
-      <x:c r="E20" s="109"/>
-      <x:c r="F20" s="110"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C20" s="74" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D20" s="108"/>
+      <x:c r="E20" s="108"/>
+      <x:c r="F20" s="109"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -8783,4 +8301,250 @@
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet10">
+    <x:tabColor rgb="ffff0000"/>
+  </x:sheetPr>
+  <x:dimension ref="B11:G28"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J27" activeCellId="0" sqref="J27:J27"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <x:col min="3" max="3" width="13.25" customWidth="1"/>
+    <x:col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="11" spans="2:7">
+      <x:c r="B11" s="61" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C11" s="62"/>
+      <x:c r="D11" s="62"/>
+      <x:c r="E11" s="62"/>
+      <x:c r="F11" s="62"/>
+      <x:c r="G11" s="63"/>
+    </x:row>
+    <x:row r="12" spans="2:7">
+      <x:c r="B12" s="16"/>
+      <x:c r="C12" s="16"/>
+      <x:c r="D12" s="16"/>
+      <x:c r="E12" s="16"/>
+      <x:c r="F12" s="16"/>
+      <x:c r="G12" s="16"/>
+    </x:row>
+    <x:row r="13" spans="2:7">
+      <x:c r="B13" s="64" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C13" s="59"/>
+      <x:c r="D13" s="59"/>
+      <x:c r="E13" s="59"/>
+      <x:c r="F13" s="59"/>
+      <x:c r="G13" s="60"/>
+    </x:row>
+    <x:row r="14" spans="2:7">
+      <x:c r="B14" s="17" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C14" s="65" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D14" s="59"/>
+      <x:c r="E14" s="59"/>
+      <x:c r="F14" s="59"/>
+      <x:c r="G14" s="60"/>
+    </x:row>
+    <x:row r="15" spans="2:7">
+      <x:c r="B15" s="17" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C15" s="66" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D15" s="59" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E15" s="59" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F15" s="59" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G15" s="60" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:7">
+      <x:c r="B16" s="17" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C16" s="66" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D16" s="59"/>
+      <x:c r="E16" s="59"/>
+      <x:c r="F16" s="59"/>
+      <x:c r="G16" s="60"/>
+    </x:row>
+    <x:row r="17" spans="2:7">
+      <x:c r="B17" s="17" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C17" s="67"/>
+      <x:c r="D17" s="68"/>
+      <x:c r="E17" s="68"/>
+      <x:c r="F17" s="68"/>
+      <x:c r="G17" s="69"/>
+    </x:row>
+    <x:row r="18" spans="2:7">
+      <x:c r="B18" s="56" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C18" s="18" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D18" s="18" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E18" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F18" s="18" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G18" s="18" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:7">
+      <x:c r="B19" s="70"/>
+      <x:c r="C19" s="19" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D19" s="20" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E19" s="19" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F19" s="19" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G19" s="19"/>
+    </x:row>
+    <x:row r="20" spans="2:7">
+      <x:c r="B20" s="70"/>
+      <x:c r="C20" s="19"/>
+      <x:c r="D20" s="21"/>
+      <x:c r="E20" s="19"/>
+      <x:c r="F20" s="22"/>
+      <x:c r="G20" s="19"/>
+    </x:row>
+    <x:row r="21" spans="2:2">
+      <x:c r="B21" s="70"/>
+    </x:row>
+    <x:row r="22" spans="2:2">
+      <x:c r="B22" s="57"/>
+    </x:row>
+    <x:row r="23" spans="2:7">
+      <x:c r="B23" s="17" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C23" s="66" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D23" s="59" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E23" s="59" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F23" s="59" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G23" s="60" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:7">
+      <x:c r="B24" s="71"/>
+      <x:c r="C24" s="72"/>
+      <x:c r="D24" s="72"/>
+      <x:c r="E24" s="72"/>
+      <x:c r="F24" s="72"/>
+      <x:c r="G24" s="72"/>
+    </x:row>
+    <x:row r="25" spans="2:7">
+      <x:c r="B25" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C25" s="68"/>
+      <x:c r="D25" s="68"/>
+      <x:c r="E25" s="68"/>
+      <x:c r="F25" s="68"/>
+      <x:c r="G25" s="69"/>
+    </x:row>
+    <x:row r="26" spans="2:7">
+      <x:c r="B26" s="17" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C26" s="67"/>
+      <x:c r="D26" s="68"/>
+      <x:c r="E26" s="68"/>
+      <x:c r="F26" s="68"/>
+      <x:c r="G26" s="69"/>
+    </x:row>
+    <x:row r="27" spans="2:7" ht="224.25" customHeight="1">
+      <x:c r="B27" s="56" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C27" s="18" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D27" s="58" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E27" s="59"/>
+      <x:c r="F27" s="59"/>
+      <x:c r="G27" s="60"/>
+    </x:row>
+    <x:row r="28" spans="2:7" ht="92.400000000000006" customHeight="1">
+      <x:c r="B28" s="57"/>
+      <x:c r="C28" s="18" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D28" s="74" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E28" s="59"/>
+      <x:c r="F28" s="59"/>
+      <x:c r="G28" s="60"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="14">
+    <x:mergeCell ref="B27:B28"/>
+    <x:mergeCell ref="D27:G27"/>
+    <x:mergeCell ref="B11:G11"/>
+    <x:mergeCell ref="B13:G13"/>
+    <x:mergeCell ref="C14:G14"/>
+    <x:mergeCell ref="C15:G15"/>
+    <x:mergeCell ref="C16:G16"/>
+    <x:mergeCell ref="C17:G17"/>
+    <x:mergeCell ref="B18:B22"/>
+    <x:mergeCell ref="C23:G23"/>
+    <x:mergeCell ref="B24:G24"/>
+    <x:mergeCell ref="B25:G25"/>
+    <x:mergeCell ref="C26:G26"/>
+    <x:mergeCell ref="D28:G28"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/TNfit_API.xlsx
+++ b/TNfit_API.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.0" lowestEdited="9.0" rupBuild="0.1081"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="10260" tabRatio="1000" firstSheet="4" activeTab="10"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10125" windowHeight="10230" tabRatio="1000" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="마이페이지 보여주기" sheetId="1" r:id="rId4"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="177">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="213">
   <x:si>
     <x:t>//(상태코드 201)
 {
@@ -131,6 +131,51 @@
   <x:si>
     <x:t>파라미터로 식단아이디만 받아도 되는지 모르겠어서 안되면 
 유저이름, 먹은 날짜, 아침/점심/저녁 여부로 params값 수정할꼐요!</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 500)
+message:"server error"
+//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 400)
+message : "Null Value"</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -179,82 +224,67 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 500)
-message:"server error"
-//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 400)
-message : "Null Value"</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 201) 이미 친구인경우
-{
-    "message": "이미 친구입니다"
-}
-//(상태코드 201) 친구 요청 성공
+    <x:t>성공시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실패시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dlt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/user/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//(상태코드 201)
 {
     "message": "ok"
 }</x:t>
-    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -296,6 +326,9 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>/diet/showday?u_id=1&amp;d_date=2019-01-14</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -323,9 +356,6 @@
     "message": "ok"
 }</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showday?u_id=1&amp;d_date=2019-01-14</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -416,38 +446,68 @@
 2: 저녁, 3: 간식</x:t>
   </x:si>
   <x:si>
-    <x:t>multipart/formed-data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/friendlist/1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet/potato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: no delete, 1: delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/requestlist/2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구를 삭제하거나 공개 여부를 수정합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> diet/insert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthYear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage/show/2</x:t>
+    <x:t>하루 먹은 영양소 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인 정보를 수정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showmeal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일일 섭취 영양소 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthMonth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침, 점심, 저녁, 간식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex)2019-01-14</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">sex = 0//여자
 </x:t>
   </x:si>
   <x:si>
+    <x:t>userBirthDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 검색하기-닉네임으로</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> diet/insert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한끼에 먹은 음식 보여주기</x:t>
+  </x:si>
+  <x:si>
     <x:t>userNickname</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 선택한 음식을 입력합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Content-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 하나당 영양소 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthYear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -468,202 +528,201 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>mypage/show/2</x:t>
+  </x:si>
+  <x:si>
     <x:t>/friend/request</x:t>
   </x:si>
   <x:si>
-    <x:t>/friend/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하루 먹은 영양소 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 선택한 음식을 입력합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인 정보를 수정합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthMonth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침, 점심, 저녁, 간식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 검색하기-닉네임으로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한끼에 먹은 음식 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 하나당 영양소 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showmeal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일일 섭취 영양소 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex)2019-01-14</x:t>
+    <x:t>로그아웃하면 u_state가 0됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//(상태코드 201)
+{
+    "message": "ok",
+    "data": 
+        [
+            {
+                "u_nickname": "asfd",
+               "u_id":2
+            },
+            {
+                "u_nickname": "aaaa",               
+                "u_id":3
+            }
+        ]
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>myId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 패스워드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>foodId</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구목록 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>????</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>flag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">port </x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 목록보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 몸무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메세지 예제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>query</x:t>
   </x:si>
   <x:si>
     <x:t>FLOAT</x:t>
   </x:si>
   <x:si>
-    <x:t>userPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>flag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>query</x:t>
-  </x:si>
-  <x:si>
     <x:t>식단 입력하기</x:t>
   </x:si>
   <x:si>
-    <x:t>foodId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 월</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">port </x:t>
-  </x:si>
-  <x:si>
     <x:t>l_me</x:t>
   </x:si>
   <x:si>
-    <x:t>r_open</x:t>
-  </x:si>
-  <x:si>
     <x:t>친구 아이디</x:t>
   </x:si>
   <x:si>
-    <x:t>month</x:t>
-  </x:si>
-  <x:si>
     <x:t>유저 인덱스</x:t>
   </x:si>
   <x:si>
-    <x:t>r_me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메세지 예제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>????</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 패스워드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 목록보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 몸무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>myId</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구목록 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>body</x:t>
+    <x:t>유저 닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 검색하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색하는 단어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notnull</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단공개 여부</x:t>
   </x:si>
   <x:si>
     <x:t>요청 메소드</x:t>
   </x:si>
   <x:si>
-    <x:t>open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 키</x:t>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar</x:t>
   </x:si>
   <x:si>
     <x:t>유저 이메일</x:t>
   </x:si>
   <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>params</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단공개 여부</x:t>
-  </x:si>
-  <x:si>
     <x:t>검색할 닉네임</x:t>
   </x:si>
   <x:si>
     <x:t>userSex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Body</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -684,127 +743,95 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
+    <x:t>음식 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>params</x:t>
   </x:si>
   <x:si>
     <x:t>f_name</x:t>
   </x:si>
   <x:si>
-    <x:t>u_id</x:t>
+    <x:t>userId</x:t>
   </x:si>
   <x:si>
     <x:t>유저 생일 일</x:t>
   </x:si>
   <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 검색하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색하는 단어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notnull</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성공시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실패시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dlt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한끼에 먹은 음식 보여주기(ex) 아침)</x:t>
-  </x:si>
-  <x:si>
     <x:t>mypage/edit</x:t>
   </x:si>
   <x:si>
+    <x:t>마이페이지 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청 수락/거절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage/show</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">마이페이지 보여주기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>userWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인 유저 아이디</x:t>
+  </x:si>
+  <x:si>
     <x:t>본인의 유저 아이디</x:t>
   </x:si>
   <x:si>
-    <x:t>mypage/show</x:t>
-  </x:si>
-  <x:si>
     <x:t>not null</x:t>
   </x:si>
   <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
     <x:t>userEmail</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">마이페이지 보여주기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>userWeight</x:t>
+    <x:t>0:공개x
+1:공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 먹은 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_friend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friendId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_nickname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diet/insert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몇 인분 먹었는지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청하는 사람 아이디</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -833,46 +860,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>마이페이지 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인 유저 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청 수락/거절</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diet/insert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몇 인분 먹었는지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friendId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_nickname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_friend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름 검색</x:t>
+    <x:t>확인할 유저 인덱스</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -893,9 +881,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>요청하는 사람 아이디</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -912,58 +897,6 @@
       </x:rPr>
       <x:t>여부</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>0:공개x
-1:공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 먹은 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet/2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청을 수락 혹은 거절합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/search/a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청 목록을 보여줍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showmeal/5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/searchdiet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/requestlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 하나당 영양소 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/friendlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>application/json</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: close, 1: open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/editlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diet/searchdiet/a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: close 1: open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/store/kind/kfood</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1006,10 +939,76 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>/store/kind/kfood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>application/json</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: close 1: open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diet/searchdiet/a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/search/a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: close, 1: open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/friendlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/searchdiet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showmeal/5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청 목록을 보여줍니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/requestlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 하나당 영양소 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청을 수락 혹은 거절합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/editlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/requestlist/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: no delete, 1: delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/friendlist/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet/potato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>multipart/formed-data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구를 삭제하거나 공개 여부를 수정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한끼에 먹은 음식 보여주기(ex) 아침)</x:t>
+  </x:si>
+  <x:si>
     <x:t>//(상태코드 201)
 {
     "message": "ok",
-    "data": [
+    "data": 
             {
                 "f_name": "potato",
                 "f_cnt": 1,
@@ -1022,28 +1021,139 @@
                 "f_sugar": "0.36",
                 "f_salt": "268.8"
             }
-        ]
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>확인할 유저 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//(상태코드 201)
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201) 이미 친구인경우
 {
-    "message": "ok",
-    "data": 
-        [
-            {
-                "u_nickname": "asfd",
-               "u_id":2
-            },
-            {
-                "u_nickname": "aaaa",               
-                "u_id":3
-            }
-        ]
+    "message": "이미 친구입니다"
+}
+//(상태코드 201) 친구 요청 성공
+{
+    "message": "ok"
 }</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>몸무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/user/join</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notnull</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLOAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴할 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_nickname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 고유 닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별(0: 여자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃할 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/withdrawal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일(1999-01-01)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3010,6 +3120,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3048,6 +3159,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3092,6 +3204,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3168,6 +3281,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3206,6 +3320,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3228,6 +3343,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3260,6 +3376,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3307,6 +3424,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3362,6 +3480,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3396,6 +3515,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3428,6 +3548,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3450,6 +3571,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3791,10 +3913,10 @@
   <x:sheetData>
     <x:row r="1" spans="3:7">
       <x:c r="C1" s="25" t="s">
-        <x:v>115</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D1" s="25" t="s">
-        <x:v>67</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E1" s="25"/>
       <x:c r="F1" s="25"/>
@@ -3802,10 +3924,10 @@
     </x:row>
     <x:row r="2" spans="3:7">
       <x:c r="C2" s="25" t="s">
-        <x:v>57</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>67</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
@@ -3820,7 +3942,7 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="75" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C4" s="62"/>
       <x:c r="D4" s="62"/>
@@ -3838,7 +3960,7 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -3848,10 +3970,10 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="76" t="s">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D7" s="77"/>
       <x:c r="E7" s="77"/>
@@ -3860,7 +3982,7 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="66" t="s">
         <x:v>132</x:v>
@@ -3872,10 +3994,10 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C9" s="66" t="s">
-        <x:v>116</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
@@ -3884,10 +4006,10 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C10" s="67" t="s">
-        <x:v>18</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D10" s="68"/>
       <x:c r="E10" s="68"/>
@@ -3896,37 +4018,37 @@
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="70"/>
       <x:c r="C12" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="9" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
     </x:row>
@@ -3964,10 +4086,10 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C17" s="66" t="s">
-        <x:v>26</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D17" s="59"/>
       <x:c r="E17" s="59"/>
@@ -3984,7 +4106,7 @@
     </x:row>
     <x:row r="19" spans="2:7">
       <x:c r="B19" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C19" s="68"/>
       <x:c r="D19" s="68"/>
@@ -3994,7 +4116,7 @@
     </x:row>
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C20" s="67" t="s">
         <x:v>3</x:v>
@@ -4006,28 +4128,28 @@
     </x:row>
     <x:row r="21" spans="2:8" ht="208.5" customHeight="1">
       <x:c r="B21" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="58" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
       <x:c r="G21" s="60"/>
       <x:c r="H21" s="23" t="s">
-        <x:v>27</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B22" s="57"/>
       <x:c r="C22" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D22" s="74" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -4078,7 +4200,7 @@
   <x:sheetData>
     <x:row r="4" spans="1:6" ht="18.449999999999999">
       <x:c r="A4" s="117" t="s">
-        <x:v>52</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B4" s="62"/>
       <x:c r="C4" s="62"/>
@@ -4096,7 +4218,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B6" s="59"/>
       <x:c r="C6" s="59"/>
@@ -4106,10 +4228,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="65" t="s">
-        <x:v>33</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C7" s="59"/>
       <x:c r="D7" s="59"/>
@@ -4118,10 +4240,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B8" s="66" t="s">
-        <x:v>24</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C8" s="59"/>
       <x:c r="D8" s="59"/>
@@ -4130,10 +4252,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B9" s="66" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C9" s="59"/>
       <x:c r="D9" s="59"/>
@@ -4142,7 +4264,7 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B10" s="88" t="s">
         <x:v>4</x:v>
@@ -4154,66 +4276,66 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D11" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E11" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F11" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="70"/>
       <x:c r="B12" s="50" t="s">
-        <x:v>90</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C12" s="52" t="s">
-        <x:v>62</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D12" s="50" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E12" s="50" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F12" s="29"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="118"/>
       <x:c r="B13" s="44" t="s">
-        <x:v>53</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C13" s="53" t="s">
-        <x:v>54</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D13" s="44" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E13" s="45" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F13" s="41"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="118"/>
       <x:c r="B14" s="44" t="s">
-        <x:v>72</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C14" s="53" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="D14" s="44" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
       <x:c r="F14" s="41"/>
@@ -4221,13 +4343,13 @@
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="118"/>
       <x:c r="B15" s="44" t="s">
-        <x:v>61</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C15" s="53" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="44" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E15" s="36"/>
       <x:c r="F15" s="41"/>
@@ -4235,13 +4357,13 @@
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="118"/>
       <x:c r="B16" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="51" t="s">
-        <x:v>86</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="51" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E16" s="33"/>
       <x:c r="F16" s="33"/>
@@ -4249,36 +4371,36 @@
     <x:row r="17" spans="1:6" ht="32.75">
       <x:c r="A17" s="118"/>
       <x:c r="B17" s="51" t="s">
-        <x:v>50</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C17" s="51" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D17" s="51" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E17" s="33"/>
       <x:c r="F17" s="54" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="119"/>
       <x:c r="B18" s="51" t="s">
-        <x:v>78</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C18" s="51" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="D18" s="51" t="s">
-        <x:v>48</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E18" s="33"/>
       <x:c r="F18" s="33"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="17" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B19" s="85" t="s">
         <x:v>147</x:v>
@@ -4298,7 +4420,7 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B21" s="83"/>
       <x:c r="C21" s="83"/>
@@ -4308,7 +4430,7 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B22" s="88" t="s">
         <x:v>4</x:v>
@@ -4320,13 +4442,13 @@
     </x:row>
     <x:row r="23" spans="1:6" ht="121.75" customHeight="1">
       <x:c r="A23" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B23" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C23" s="58" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D23" s="59"/>
       <x:c r="E23" s="59"/>
@@ -4335,7 +4457,7 @@
     <x:row r="24" spans="1:6" ht="102.65000000000001" customHeight="1">
       <x:c r="A24" s="57"/>
       <x:c r="B24" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="74" t="s">
         <x:v>5</x:v>
@@ -4371,7 +4493,7 @@
   <x:sheetPr codeName="Sheet13"/>
   <x:dimension ref="C3:H20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <x:selection activeCell="E19" activeCellId="0" sqref="E19:H19"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4382,7 +4504,7 @@
   <x:sheetData>
     <x:row r="3" spans="3:8">
       <x:c r="C3" s="61" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D3" s="62"/>
       <x:c r="E3" s="62"/>
@@ -4400,7 +4522,7 @@
     </x:row>
     <x:row r="5" spans="3:8">
       <x:c r="C5" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
@@ -4410,10 +4532,10 @@
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="65" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -4422,30 +4544,30 @@
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="66" t="s">
-        <x:v>37</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G7" s="59" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H7" s="60" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D8" s="66" t="s">
-        <x:v>117</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="59"/>
       <x:c r="F8" s="59"/>
@@ -4454,7 +4576,7 @@
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D9" s="67"/>
       <x:c r="E9" s="68"/>
@@ -4464,37 +4586,37 @@
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8">
       <x:c r="C11" s="70"/>
       <x:c r="D11" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H11" s="9"/>
     </x:row>
@@ -4515,22 +4637,22 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D15" s="58" t="s">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G15" s="59" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H15" s="60" t="s">
-        <x:v>20</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
@@ -4543,7 +4665,7 @@
     </x:row>
     <x:row r="17" spans="3:8">
       <x:c r="C17" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="68"/>
       <x:c r="E17" s="68"/>
@@ -4553,7 +4675,7 @@
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="67"/>
       <x:c r="E18" s="68"/>
@@ -4563,13 +4685,13 @@
     </x:row>
     <x:row r="19" spans="3:8" ht="273" customHeight="1">
       <x:c r="C19" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E19" s="58" t="s">
-        <x:v>174</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F19" s="59"/>
       <x:c r="G19" s="59"/>
@@ -4578,10 +4700,10 @@
     <x:row r="20" spans="3:8" ht="70.5" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="74" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="59"/>
       <x:c r="G20" s="59"/>
@@ -4615,7 +4737,7 @@
   <x:dimension ref="A1:G18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C17" activeCellId="0" sqref="C17:F17"/>
+      <x:selection activeCell="C18" activeCellId="0" sqref="C18:F18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -4627,7 +4749,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="61" t="s">
-        <x:v>152</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B1" s="62"/>
       <x:c r="C1" s="62"/>
@@ -4645,7 +4767,7 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="59"/>
       <x:c r="C3" s="59"/>
@@ -4655,10 +4777,10 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="65" t="s">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C4" s="59"/>
       <x:c r="D4" s="59"/>
@@ -4667,10 +4789,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B5" s="66" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C5" s="59" t="s">
         <x:v>2</x:v>
@@ -4687,10 +4809,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B6" s="66" t="s">
-        <x:v>117</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -4699,7 +4821,7 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B7" s="67"/>
       <x:c r="C7" s="68"/>
@@ -4709,37 +4831,37 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="70"/>
       <x:c r="B9" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D9" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
     </x:row>
@@ -4760,10 +4882,10 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B13" s="66" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C13" s="59" t="s">
         <x:v>2</x:v>
@@ -4788,7 +4910,7 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B15" s="68"/>
       <x:c r="C15" s="68"/>
@@ -4798,7 +4920,7 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B16" s="67"/>
       <x:c r="C16" s="68"/>
@@ -4808,10 +4930,10 @@
     </x:row>
     <x:row r="17" spans="1:7" ht="292.5" customHeight="1">
       <x:c r="A17" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="58" t="s">
         <x:v>1</x:v>
@@ -4820,16 +4942,16 @@
       <x:c r="E17" s="59"/>
       <x:c r="F17" s="60"/>
       <x:c r="G17" t="s">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="126" customHeight="1">
       <x:c r="A18" s="57"/>
       <x:c r="B18" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="74" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="59"/>
       <x:c r="E18" s="59"/>
@@ -4852,7 +4974,7 @@
     <x:mergeCell ref="B16:F16"/>
     <x:mergeCell ref="C18:F18"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4875,7 +4997,7 @@
   <x:sheetData>
     <x:row r="3" spans="3:8">
       <x:c r="C3" s="61" t="s">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D3" s="62"/>
       <x:c r="E3" s="62"/>
@@ -4893,7 +5015,7 @@
     </x:row>
     <x:row r="5" spans="3:8">
       <x:c r="C5" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
@@ -4903,10 +5025,10 @@
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="65" t="s">
-        <x:v>129</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -4915,30 +5037,30 @@
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="66" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G7" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H7" s="60" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D8" s="66" t="s">
-        <x:v>117</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="59"/>
       <x:c r="F8" s="59"/>
@@ -4947,7 +5069,7 @@
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D9" s="67"/>
       <x:c r="E9" s="68"/>
@@ -4957,37 +5079,37 @@
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8" ht="56.350000000000001">
       <x:c r="C11" s="70"/>
       <x:c r="D11" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>103</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H11" s="24" t="s">
         <x:v>6</x:v>
@@ -5010,22 +5132,22 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D15" s="66" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G15" s="59" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H15" s="60" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
@@ -5038,7 +5160,7 @@
     </x:row>
     <x:row r="17" spans="3:8">
       <x:c r="C17" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="68"/>
       <x:c r="E17" s="68"/>
@@ -5048,7 +5170,7 @@
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="67"/>
       <x:c r="E18" s="68"/>
@@ -5058,10 +5180,10 @@
     </x:row>
     <x:row r="19" spans="3:8" ht="323.25" customHeight="1">
       <x:c r="C19" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E19" s="58" t="s">
         <x:v>0</x:v>
@@ -5073,10 +5195,10 @@
     <x:row r="20" spans="3:8" ht="89.25" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="74" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="59"/>
       <x:c r="G20" s="59"/>
@@ -5125,7 +5247,7 @@
   <x:sheetData>
     <x:row r="3" spans="3:8">
       <x:c r="C3" s="61" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D3" s="62"/>
       <x:c r="E3" s="62"/>
@@ -5143,7 +5265,7 @@
     </x:row>
     <x:row r="5" spans="3:8">
       <x:c r="C5" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
@@ -5153,10 +5275,10 @@
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="17" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="65" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -5165,30 +5287,30 @@
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="17" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="66" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G7" s="59" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H7" s="60" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="17" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D8" s="66" t="s">
-        <x:v>117</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="59"/>
       <x:c r="F8" s="59"/>
@@ -5197,7 +5319,7 @@
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D9" s="67"/>
       <x:c r="E9" s="68"/>
@@ -5207,54 +5329,54 @@
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G10" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H10" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8">
       <x:c r="C11" s="70"/>
       <x:c r="D11" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>175</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H11" s="19"/>
     </x:row>
     <x:row r="12" spans="3:8">
       <x:c r="C12" s="70"/>
       <x:c r="D12" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E12" s="21" t="s">
-        <x:v>157</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G12" s="22"/>
       <x:c r="H12" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="3:3">
@@ -5266,22 +5388,22 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="17" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D15" s="66" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="59" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H15" s="60" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
@@ -5294,7 +5416,7 @@
     </x:row>
     <x:row r="17" spans="3:8">
       <x:c r="C17" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="68"/>
       <x:c r="E17" s="68"/>
@@ -5304,7 +5426,7 @@
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="67"/>
       <x:c r="E18" s="68"/>
@@ -5314,13 +5436,13 @@
     </x:row>
     <x:row r="19" spans="3:8" ht="199.5" customHeight="1">
       <x:c r="C19" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D19" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E19" s="58" t="s">
-        <x:v>14</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="59"/>
       <x:c r="G19" s="59"/>
@@ -5329,10 +5451,10 @@
     <x:row r="20" spans="3:8" ht="93.650000000000006" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="74" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="59"/>
       <x:c r="G20" s="59"/>
@@ -5389,7 +5511,7 @@
     </x:row>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -5399,7 +5521,7 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="65"/>
       <x:c r="D4" s="59"/>
@@ -5409,7 +5531,7 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="66"/>
       <x:c r="D5" s="59"/>
@@ -5419,7 +5541,7 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C6" s="66"/>
       <x:c r="D6" s="59"/>
@@ -5429,7 +5551,7 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="67"/>
       <x:c r="D7" s="68"/>
@@ -5439,22 +5561,22 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
@@ -5482,7 +5604,7 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C13" s="66"/>
       <x:c r="D13" s="59"/>
@@ -5500,7 +5622,7 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="68"/>
       <x:c r="D15" s="68"/>
@@ -5510,7 +5632,7 @@
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="67"/>
       <x:c r="D16" s="68"/>
@@ -5520,10 +5642,10 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="58"/>
       <x:c r="E17" s="59"/>
@@ -5533,7 +5655,7 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="74"/>
       <x:c r="E18" s="59"/>
@@ -5591,7 +5713,7 @@
     </x:row>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -5601,7 +5723,7 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="65"/>
       <x:c r="D4" s="59"/>
@@ -5611,7 +5733,7 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="66"/>
       <x:c r="D5" s="59"/>
@@ -5621,7 +5743,7 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C6" s="66"/>
       <x:c r="D6" s="59"/>
@@ -5631,7 +5753,7 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="67"/>
       <x:c r="D7" s="68"/>
@@ -5641,22 +5763,22 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
@@ -5684,7 +5806,7 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C13" s="66"/>
       <x:c r="D13" s="59"/>
@@ -5702,7 +5824,7 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="68"/>
       <x:c r="D15" s="68"/>
@@ -5712,7 +5834,7 @@
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="67"/>
       <x:c r="D16" s="68"/>
@@ -5722,10 +5844,10 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="58"/>
       <x:c r="E17" s="59"/>
@@ -5735,7 +5857,7 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="74"/>
       <x:c r="E18" s="59"/>
@@ -5767,16 +5889,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet17"/>
-  <x:dimension ref="B1:G18"/>
+  <x:dimension ref="B1:G21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:H21"/>
+      <x:selection activeCell="I13" activeCellId="0" sqref="I13:I13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="2" max="2" width="16.5" customWidth="1"/>
+    <x:col min="3" max="3" width="13.875" customWidth="1"/>
+    <x:col min="4" max="4" width="22.875" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="61"/>
+      <x:c r="B1" s="61" t="s">
+        <x:v>191</x:v>
+      </x:c>
       <x:c r="C1" s="62"/>
       <x:c r="D1" s="62"/>
       <x:c r="E1" s="62"/>
@@ -5793,7 +5922,7 @@
     </x:row>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -5803,9 +5932,11 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C4" s="65"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="65" t="s">
+        <x:v>192</x:v>
+      </x:c>
       <x:c r="D4" s="59"/>
       <x:c r="E4" s="59"/>
       <x:c r="F4" s="59"/>
@@ -5813,9 +5944,11 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C5" s="66"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="66" t="s">
+        <x:v>181</x:v>
+      </x:c>
       <x:c r="D5" s="59"/>
       <x:c r="E5" s="59"/>
       <x:c r="F5" s="59"/>
@@ -5823,9 +5956,11 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C6" s="66"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C6" s="66" t="s">
+        <x:v>184</x:v>
+      </x:c>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -5833,7 +5968,7 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="67"/>
       <x:c r="D7" s="68"/>
@@ -5843,122 +5978,213 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="70"/>
-      <x:c r="C9" s="9"/>
-      <x:c r="D9" s="20"/>
-      <x:c r="E9" s="9"/>
-      <x:c r="F9" s="9"/>
+      <x:c r="C9" s="9" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D9" s="20" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E9" s="9" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="70"/>
-      <x:c r="C10" s="9"/>
-      <x:c r="D10" s="21"/>
-      <x:c r="E10" s="9"/>
-      <x:c r="F10" s="12"/>
+      <x:c r="C10" s="9" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D10" s="21" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E10" s="9" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="F10" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
       <x:c r="G10" s="9"/>
     </x:row>
-    <x:row r="11" spans="2:2">
+    <x:row r="11" spans="2:6">
       <x:c r="B11" s="70"/>
-    </x:row>
-    <x:row r="12" spans="2:7">
-      <x:c r="B12" s="57"/>
-      <x:c r="G12" s="23"/>
-    </x:row>
-    <x:row r="13" spans="2:7">
-      <x:c r="B13" s="7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C13" s="66"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
-    </x:row>
-    <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="72"/>
-      <x:c r="D14" s="72"/>
-      <x:c r="E14" s="72"/>
-      <x:c r="F14" s="72"/>
-      <x:c r="G14" s="72"/>
+      <x:c r="C11" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="F11" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:6">
+      <x:c r="B12" s="56"/>
+      <x:c r="C12" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F12" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:6">
+      <x:c r="B13" s="56"/>
+      <x:c r="C13" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F13" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:6">
+      <x:c r="B14" s="56"/>
+      <x:c r="C14" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E14" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="F14" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="73" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="C15" s="68"/>
-      <x:c r="D15" s="68"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="68"/>
-      <x:c r="G15" s="69"/>
+      <x:c r="B15" s="57"/>
+      <x:c r="C15" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="F15" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G15" s="23"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C16" s="67"/>
-      <x:c r="D16" s="68"/>
-      <x:c r="E16" s="68"/>
-      <x:c r="F16" s="68"/>
-      <x:c r="G16" s="69"/>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C16" s="66" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D16" s="59"/>
+      <x:c r="E16" s="59"/>
+      <x:c r="F16" s="59"/>
+      <x:c r="G16" s="60"/>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="56" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C17" s="8" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D17" s="58"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
+      <x:c r="B17" s="71"/>
+      <x:c r="C17" s="72"/>
+      <x:c r="D17" s="72"/>
+      <x:c r="E17" s="72"/>
+      <x:c r="F17" s="72"/>
+      <x:c r="G17" s="72"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="57"/>
-      <x:c r="C18" s="8" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D18" s="74"/>
-      <x:c r="E18" s="59"/>
-      <x:c r="F18" s="59"/>
-      <x:c r="G18" s="60"/>
+      <x:c r="B18" s="73" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C18" s="68"/>
+      <x:c r="D18" s="68"/>
+      <x:c r="E18" s="68"/>
+      <x:c r="F18" s="68"/>
+      <x:c r="G18" s="69"/>
+    </x:row>
+    <x:row r="19" spans="2:7">
+      <x:c r="B19" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="67"/>
+      <x:c r="D19" s="68"/>
+      <x:c r="E19" s="68"/>
+      <x:c r="F19" s="68"/>
+      <x:c r="G19" s="69"/>
+    </x:row>
+    <x:row r="20" spans="2:7" ht="126.75" customHeight="1">
+      <x:c r="B20" s="56" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C20" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D20" s="58" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="59"/>
+      <x:c r="G20" s="60"/>
+    </x:row>
+    <x:row r="21" spans="2:7" ht="103.5" customHeight="1">
+      <x:c r="B21" s="57"/>
+      <x:c r="C21" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D21" s="74" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="59"/>
+      <x:c r="G21" s="60"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
-    <x:mergeCell ref="B17:B18"/>
-    <x:mergeCell ref="D17:G17"/>
-    <x:mergeCell ref="D18:G18"/>
+    <x:mergeCell ref="B20:B21"/>
     <x:mergeCell ref="B1:G1"/>
     <x:mergeCell ref="B3:G3"/>
     <x:mergeCell ref="C4:G4"/>
     <x:mergeCell ref="C5:G5"/>
     <x:mergeCell ref="C6:G6"/>
     <x:mergeCell ref="C7:G7"/>
-    <x:mergeCell ref="B8:B12"/>
-    <x:mergeCell ref="C13:G13"/>
-    <x:mergeCell ref="B14:G14"/>
-    <x:mergeCell ref="B15:G15"/>
+    <x:mergeCell ref="B8:B15"/>
+    <x:mergeCell ref="B17:G17"/>
+    <x:mergeCell ref="B18:G18"/>
+    <x:mergeCell ref="C19:G19"/>
+    <x:mergeCell ref="D20:G20"/>
+    <x:mergeCell ref="D21:G21"/>
     <x:mergeCell ref="C16:G16"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -5995,7 +6221,7 @@
     </x:row>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -6005,7 +6231,7 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="65"/>
       <x:c r="D4" s="59"/>
@@ -6015,7 +6241,7 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="66"/>
       <x:c r="D5" s="59"/>
@@ -6025,7 +6251,7 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C6" s="66"/>
       <x:c r="D6" s="59"/>
@@ -6035,7 +6261,7 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="67"/>
       <x:c r="D7" s="68"/>
@@ -6045,22 +6271,22 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
@@ -6088,7 +6314,7 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C13" s="66"/>
       <x:c r="D13" s="59"/>
@@ -6106,7 +6332,7 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="68"/>
       <x:c r="D15" s="68"/>
@@ -6116,7 +6342,7 @@
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="67"/>
       <x:c r="D16" s="68"/>
@@ -6126,10 +6352,10 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="58"/>
       <x:c r="E17" s="59"/>
@@ -6139,7 +6365,7 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="74"/>
       <x:c r="E18" s="59"/>
@@ -6174,13 +6400,20 @@
   <x:dimension ref="B1:G18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="H22" activeCellId="0" sqref="B1:H22"/>
+      <x:selection activeCell="D17" activeCellId="0" sqref="D17:G18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="2" max="2" width="15.125" customWidth="1"/>
+    <x:col min="4" max="4" width="20.625" customWidth="1"/>
+    <x:col min="7" max="7" width="24.625" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="61"/>
+      <x:c r="B1" s="61" t="s">
+        <x:v>182</x:v>
+      </x:c>
       <x:c r="C1" s="62"/>
       <x:c r="D1" s="62"/>
       <x:c r="E1" s="62"/>
@@ -6197,7 +6430,7 @@
     </x:row>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="59"/>
       <x:c r="D3" s="59"/>
@@ -6207,9 +6440,11 @@
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C4" s="65"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="65" t="s">
+        <x:v>183</x:v>
+      </x:c>
       <x:c r="D4" s="59"/>
       <x:c r="E4" s="59"/>
       <x:c r="F4" s="59"/>
@@ -6217,19 +6452,31 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C5" s="66"/>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="60"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="66" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D5" s="59" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E5" s="59" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F5" s="59" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="60" t="s">
+        <x:v>27</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C6" s="66"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C6" s="66" t="s">
+        <x:v>184</x:v>
+      </x:c>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
       <x:c r="F6" s="59"/>
@@ -6237,7 +6484,7 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="67"/>
       <x:c r="D7" s="68"/>
@@ -6247,31 +6494,41 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="70"/>
-      <x:c r="C9" s="9"/>
-      <x:c r="D9" s="20"/>
-      <x:c r="E9" s="9"/>
-      <x:c r="F9" s="9"/>
-      <x:c r="G9" s="9"/>
+      <x:c r="C9" s="9" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D9" s="20" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="E9" s="9" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G9" s="9" t="s">
+        <x:v>61</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="70"/>
@@ -6290,13 +6547,23 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C13" s="66"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C13" s="66" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D13" s="59" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E13" s="59" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F13" s="59" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G13" s="60" t="s">
+        <x:v>27</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="2:7">
       <x:c r="B14" s="71"/>
@@ -6308,7 +6575,7 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="68"/>
       <x:c r="D15" s="68"/>
@@ -6318,7 +6585,7 @@
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="67"/>
       <x:c r="D16" s="68"/>
@@ -6326,24 +6593,28 @@
       <x:c r="F16" s="68"/>
       <x:c r="G16" s="69"/>
     </x:row>
-    <x:row r="17" spans="2:7">
+    <x:row r="17" spans="2:7" ht="130.5" customHeight="1">
       <x:c r="B17" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D17" s="58"/>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D17" s="58" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E17" s="59"/>
       <x:c r="F17" s="59"/>
       <x:c r="G17" s="60"/>
     </x:row>
-    <x:row r="18" spans="2:7">
+    <x:row r="18" spans="2:7" ht="98.25" customHeight="1">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D18" s="74"/>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D18" s="74" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="E18" s="59"/>
       <x:c r="F18" s="59"/>
       <x:c r="G18" s="60"/>
@@ -6352,7 +6623,6 @@
   <x:mergeCells count="14">
     <x:mergeCell ref="B17:B18"/>
     <x:mergeCell ref="D17:G17"/>
-    <x:mergeCell ref="D18:G18"/>
     <x:mergeCell ref="B1:G1"/>
     <x:mergeCell ref="B3:G3"/>
     <x:mergeCell ref="C4:G4"/>
@@ -6364,6 +6634,7 @@
     <x:mergeCell ref="B14:G14"/>
     <x:mergeCell ref="B15:G15"/>
     <x:mergeCell ref="C16:G16"/>
+    <x:mergeCell ref="D18:G18"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -6377,8 +6648,8 @@
   </x:sheetPr>
   <x:dimension ref="B4:G27"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C10" activeCellId="0" sqref="C10:G10"/>
+    <x:sheetView topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="D26" activeCellId="0" sqref="D26:G27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.399999999999999"/>
@@ -6393,7 +6664,7 @@
   <x:sheetData>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="75" t="s">
-        <x:v>139</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C4" s="62"/>
       <x:c r="D4" s="62"/>
@@ -6411,7 +6682,7 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -6421,10 +6692,10 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="76" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D7" s="77"/>
       <x:c r="E7" s="77"/>
@@ -6433,10 +6704,10 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="26" t="s">
-        <x:v>122</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="79" t="s">
-        <x:v>130</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D8" s="59"/>
       <x:c r="E8" s="59"/>
@@ -6445,10 +6716,10 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C9" s="66" t="s">
-        <x:v>88</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
@@ -6457,7 +6728,7 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C10" s="67" t="s">
         <x:v>3</x:v>
@@ -6469,50 +6740,50 @@
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="80" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7" ht="16.5" customHeight="1">
       <x:c r="B12" s="70"/>
       <x:c r="C12" s="27" t="s">
-        <x:v>90</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="27" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G12" s="24"/>
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="70"/>
       <x:c r="C13" s="27" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E13" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F13" s="12"/>
       <x:c r="G13" s="9"/>
@@ -6520,13 +6791,13 @@
     <x:row r="14" spans="2:7">
       <x:c r="B14" s="70"/>
       <x:c r="C14" s="27" t="s">
-        <x:v>49</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E14" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F14" s="12"/>
       <x:c r="G14" s="9"/>
@@ -6534,13 +6805,13 @@
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="70"/>
       <x:c r="C15" s="27" t="s">
-        <x:v>28</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D15" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E15" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F15" s="12"/>
       <x:c r="G15" s="9"/>
@@ -6548,29 +6819,29 @@
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="70"/>
       <x:c r="C16" s="27" t="s">
-        <x:v>94</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D16" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E16" s="27" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="27" t="s">
-        <x:v>29</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="70"/>
       <x:c r="C17" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
         <x:v>146</x:v>
       </x:c>
       <x:c r="E17" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="22"/>
       <x:c r="G17" s="19"/>
@@ -6578,13 +6849,13 @@
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="70"/>
       <x:c r="C18" s="27" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E18" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="22"/>
       <x:c r="G18" s="19"/>
@@ -6592,13 +6863,13 @@
     <x:row r="19" spans="2:7">
       <x:c r="B19" s="70"/>
       <x:c r="C19" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D19" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E19" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="22"/>
       <x:c r="G19" s="19"/>
@@ -6606,13 +6877,13 @@
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="70"/>
       <x:c r="C20" s="27" t="s">
-        <x:v>140</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D20" s="14" t="s">
-        <x:v>82</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E20" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F20" s="22"/>
       <x:c r="G20" s="19"/>
@@ -6620,23 +6891,23 @@
     <x:row r="21" spans="2:7">
       <x:c r="B21" s="81"/>
       <x:c r="C21" s="27" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E21" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F21" s="22"/>
       <x:c r="G21" s="19"/>
     </x:row>
     <x:row r="22" spans="2:7">
       <x:c r="B22" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C22" s="66" t="s">
-        <x:v>172</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D22" s="59"/>
       <x:c r="E22" s="59"/>
@@ -6653,7 +6924,7 @@
     </x:row>
     <x:row r="24" spans="2:7">
       <x:c r="B24" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="83"/>
       <x:c r="D24" s="83"/>
@@ -6663,7 +6934,7 @@
     </x:row>
     <x:row r="25" spans="2:7">
       <x:c r="B25" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C25" s="67" t="s">
         <x:v>3</x:v>
@@ -6675,13 +6946,13 @@
     </x:row>
     <x:row r="26" spans="2:7" ht="180.75" customHeight="1">
       <x:c r="B26" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C26" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D26" s="58" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E26" s="59"/>
       <x:c r="F26" s="59"/>
@@ -6690,10 +6961,10 @@
     <x:row r="27" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B27" s="57"/>
       <x:c r="C27" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D27" s="74" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E27" s="59"/>
       <x:c r="F27" s="59"/>
@@ -6728,22 +6999,24 @@
   </x:sheetPr>
   <x:dimension ref="B4:G22"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <x:selection activeCell="J22" activeCellId="0" sqref="J22:J22"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <x:selection activeCell="C20" activeCellId="0" sqref="C20:G20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="2" max="2" width="23.5" customWidth="1"/>
     <x:col min="3" max="3" width="11.08203125" customWidth="1"/>
-    <x:col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <x:col min="4" max="4" width="17.625" customWidth="1"/>
     <x:col min="5" max="5" width="13.1640625" customWidth="1"/>
     <x:col min="6" max="6" width="14.4140625" customWidth="1"/>
     <x:col min="7" max="7" width="15.6640625" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="4" spans="2:7">
-      <x:c r="B4" s="75"/>
+      <x:c r="B4" s="75" t="s">
+        <x:v>195</x:v>
+      </x:c>
       <x:c r="C4" s="62"/>
       <x:c r="D4" s="62"/>
       <x:c r="E4" s="62"/>
@@ -6760,7 +7033,7 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="59"/>
       <x:c r="D6" s="59"/>
@@ -6770,9 +7043,11 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C7" s="76"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="76" t="s">
+        <x:v>196</x:v>
+      </x:c>
       <x:c r="D7" s="77"/>
       <x:c r="E7" s="77"/>
       <x:c r="F7" s="77"/>
@@ -6780,19 +7055,31 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C8" s="66"/>
-      <x:c r="D8" s="59"/>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="60"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="66" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D8" s="59" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E8" s="59" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F8" s="59" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="G8" s="60" t="s">
+        <x:v>211</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C9" s="66"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C9" s="66" t="s">
+        <x:v>184</x:v>
+      </x:c>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
       <x:c r="F9" s="59"/>
@@ -6800,7 +7087,7 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C10" s="67"/>
       <x:c r="D10" s="68"/>
@@ -6810,30 +7097,38 @@
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="70"/>
-      <x:c r="C12" s="9"/>
-      <x:c r="D12" s="10"/>
-      <x:c r="E12" s="9"/>
-      <x:c r="F12" s="9"/>
+      <x:c r="C12" s="9" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D12" s="10" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E12" s="9" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F12" s="9" t="s">
+        <x:v>189</x:v>
+      </x:c>
       <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:7">
@@ -6870,13 +7165,23 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C17" s="66"/>
-      <x:c r="D17" s="59"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C17" s="66" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D17" s="59" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E17" s="59" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F17" s="59" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="G17" s="60" t="s">
+        <x:v>211</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="71"/>
@@ -6888,7 +7193,7 @@
     </x:row>
     <x:row r="19" spans="2:7">
       <x:c r="B19" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C19" s="68"/>
       <x:c r="D19" s="68"/>
@@ -6898,7 +7203,7 @@
     </x:row>
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C20" s="67"/>
       <x:c r="D20" s="68"/>
@@ -6908,12 +7213,14 @@
     </x:row>
     <x:row r="21" spans="2:7" ht="85.25" customHeight="1">
       <x:c r="B21" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D21" s="58"/>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D21" s="58" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="E21" s="59"/>
       <x:c r="F21" s="59"/>
       <x:c r="G21" s="60"/>
@@ -6921,9 +7228,11 @@
     <x:row r="22" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B22" s="57"/>
       <x:c r="C22" s="8" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D22" s="74"/>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D22" s="74" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
       <x:c r="G22" s="60"/>
@@ -6931,8 +7240,6 @@
   </x:sheetData>
   <x:mergeCells count="14">
     <x:mergeCell ref="B21:B22"/>
-    <x:mergeCell ref="D21:G21"/>
-    <x:mergeCell ref="D22:G22"/>
     <x:mergeCell ref="B4:G4"/>
     <x:mergeCell ref="B6:G6"/>
     <x:mergeCell ref="C7:G7"/>
@@ -6944,6 +7251,8 @@
     <x:mergeCell ref="B18:G18"/>
     <x:mergeCell ref="B19:G19"/>
     <x:mergeCell ref="C20:G20"/>
+    <x:mergeCell ref="D21:G21"/>
+    <x:mergeCell ref="D22:G22"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -6969,7 +7278,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="75" t="s">
-        <x:v>144</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B2" s="62"/>
       <x:c r="C2" s="62"/>
@@ -6987,7 +7296,7 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B4" s="59"/>
       <x:c r="C4" s="59"/>
@@ -6997,10 +7306,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B5" s="76" t="s">
-        <x:v>159</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C5" s="77"/>
       <x:c r="D5" s="77"/>
@@ -7009,7 +7318,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="85" t="s">
         <x:v>43</x:v>
@@ -7021,10 +7330,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B7" s="85" t="s">
-        <x:v>88</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C7" s="77"/>
       <x:c r="D7" s="77"/>
@@ -7033,7 +7342,7 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B8" s="86" t="s">
         <x:v>3</x:v>
@@ -7045,66 +7354,66 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="56" t="s">
-        <x:v>51</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B9" s="18" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="70"/>
       <x:c r="B10" s="27" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C10" s="14" t="s">
-        <x:v>141</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D10" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E10" s="27" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F10" s="19"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="70"/>
       <x:c r="B11" s="27" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C11" s="15" t="s">
-        <x:v>143</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D11" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E11" s="38" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F11" s="19"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="70"/>
       <x:c r="B12" s="27" t="s">
-        <x:v>97</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C12" s="37" t="s">
-        <x:v>138</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D12" s="27" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E12" s="22"/>
       <x:c r="F12" s="27" t="s">
@@ -7114,17 +7423,17 @@
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="70"/>
       <x:c r="B13" s="27" t="s">
-        <x:v>81</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C13" s="38" t="s">
-        <x:v>96</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="27" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E13" s="22"/>
       <x:c r="F13" s="27" t="s">
-        <x:v>171</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -7153,7 +7462,7 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B17" s="85" t="s">
         <x:v>43</x:v>
@@ -7173,7 +7482,7 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B19" s="68"/>
       <x:c r="C19" s="68"/>
@@ -7183,7 +7492,7 @@
     </x:row>
     <x:row r="20" spans="1:8" ht="33" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B20" s="88" t="s">
         <x:v>3</x:v>
@@ -7196,13 +7505,13 @@
     </x:row>
     <x:row r="21" spans="1:6" ht="147.65000000000001" customHeight="1">
       <x:c r="A21" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B21" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C21" s="58" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D21" s="59"/>
       <x:c r="E21" s="59"/>
@@ -7211,7 +7520,7 @@
     <x:row r="22" spans="1:6" ht="122.40000000000001" customHeight="1">
       <x:c r="A22" s="57"/>
       <x:c r="B22" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="74" t="s">
         <x:v>5</x:v>
@@ -7263,7 +7572,7 @@
   <x:sheetData>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="91" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="92"/>
       <x:c r="C4" s="92"/>
@@ -7281,7 +7590,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="94" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B6" s="95"/>
       <x:c r="C6" s="95"/>
@@ -7291,10 +7600,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="47" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="76" t="s">
-        <x:v>23</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C7" s="77"/>
       <x:c r="D7" s="77"/>
@@ -7303,10 +7612,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="47" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B8" s="85" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C8" s="77"/>
       <x:c r="D8" s="77"/>
@@ -7315,10 +7624,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="47" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B9" s="85" t="s">
-        <x:v>88</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C9" s="77"/>
       <x:c r="D9" s="77"/>
@@ -7327,7 +7636,7 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="47" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B10" s="86" t="s">
         <x:v>3</x:v>
@@ -7339,50 +7648,50 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="99" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B11" s="40" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E11" s="40" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F11" s="48" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="100"/>
       <x:c r="B12" s="44" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C12" s="42" t="s">
-        <x:v>141</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D12" s="44" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E12" s="44" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F12" s="41"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="100"/>
       <x:c r="B13" s="44" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C13" s="43" t="s">
-        <x:v>143</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D13" s="44" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E13" s="36"/>
       <x:c r="F13" s="41"/>
@@ -7390,33 +7699,33 @@
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="100"/>
       <x:c r="B14" s="43" t="s">
-        <x:v>118</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="45" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D14" s="44" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
       <x:c r="F14" s="44" t="s">
-        <x:v>21</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="100"/>
       <x:c r="B15" s="44" t="s">
-        <x:v>81</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C15" s="45" t="s">
-        <x:v>96</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D15" s="44" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E15" s="36"/>
       <x:c r="F15" s="44" t="s">
-        <x:v>168</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -7445,10 +7754,10 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="49" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B19" s="102" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C19" s="103"/>
       <x:c r="D19" s="103"/>
@@ -7465,7 +7774,7 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B21" s="83"/>
       <x:c r="C21" s="83"/>
@@ -7475,7 +7784,7 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B22" s="88" t="s">
         <x:v>3</x:v>
@@ -7487,13 +7796,13 @@
     </x:row>
     <x:row r="23" spans="1:6" ht="108.65000000000001" customHeight="1">
       <x:c r="A23" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B23" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C23" s="58" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D23" s="59"/>
       <x:c r="E23" s="59"/>
@@ -7502,10 +7811,10 @@
     <x:row r="24" spans="1:6" ht="111" customHeight="1">
       <x:c r="A24" s="57"/>
       <x:c r="B24" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="74" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="59"/>
       <x:c r="E24" s="59"/>
@@ -7551,7 +7860,7 @@
   <x:sheetData>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="75" t="s">
-        <x:v>71</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C6" s="62"/>
       <x:c r="D6" s="62"/>
@@ -7569,7 +7878,7 @@
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="59"/>
       <x:c r="D8" s="59"/>
@@ -7579,10 +7888,10 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="106" t="s">
-        <x:v>71</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D9" s="59"/>
       <x:c r="E9" s="59"/>
@@ -7591,30 +7900,30 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="66" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D10" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E10" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F10" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G10" s="60" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C11" s="66" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D11" s="59"/>
       <x:c r="E11" s="59"/>
@@ -7623,7 +7932,7 @@
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="67"/>
       <x:c r="D12" s="68"/>
@@ -7633,72 +7942,72 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="56" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D13" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G13" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:7">
       <x:c r="B14" s="70"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D14" s="14" t="s">
-        <x:v>154</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E14" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F14" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="70"/>
       <x:c r="C15" s="9" t="s">
-        <x:v>151</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D15" s="15" t="s">
-        <x:v>60</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E15" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G15" s="9"/>
     </x:row>
     <x:row r="16" spans="2:7" ht="28.199999999999999">
       <x:c r="B16" s="70"/>
       <x:c r="C16" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>92</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E16" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G16" s="55" t="s">
-        <x:v>156</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7">
@@ -7711,22 +8020,22 @@
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C18" s="66" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D18" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E18" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F18" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G18" s="60" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:7">
@@ -7739,7 +8048,7 @@
     </x:row>
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="68"/>
       <x:c r="D20" s="68"/>
@@ -7749,7 +8058,7 @@
     </x:row>
     <x:row r="21" spans="2:7">
       <x:c r="B21" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C21" s="67"/>
       <x:c r="D21" s="68"/>
@@ -7759,13 +8068,13 @@
     </x:row>
     <x:row r="22" spans="2:7" ht="123" customHeight="1">
       <x:c r="B22" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="58" t="s">
-        <x:v>9</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E22" s="59"/>
       <x:c r="F22" s="59"/>
@@ -7774,7 +8083,7 @@
     <x:row r="23" spans="2:7" ht="73.25" customHeight="1">
       <x:c r="B23" s="57"/>
       <x:c r="C23" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="74" t="s">
         <x:v>5</x:v>
@@ -7824,7 +8133,7 @@
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="75" t="s">
-        <x:v>69</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C3" s="62"/>
       <x:c r="D3" s="62"/>
@@ -7842,7 +8151,7 @@
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="59"/>
       <x:c r="D5" s="59"/>
@@ -7852,10 +8161,10 @@
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="106" t="s">
-        <x:v>69</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="59"/>
@@ -7864,30 +8173,30 @@
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="66" t="s">
-        <x:v>166</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D7" s="59" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E7" s="59" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F7" s="59" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G7" s="60" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C8" s="66" t="s">
-        <x:v>117</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="59"/>
       <x:c r="E8" s="59"/>
@@ -7896,7 +8205,7 @@
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C9" s="67"/>
       <x:c r="D9" s="68"/>
@@ -7906,37 +8215,37 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="70"/>
       <x:c r="C11" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D11" s="14" t="s">
-        <x:v>142</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G11" s="9"/>
     </x:row>
@@ -7966,22 +8275,22 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C15" s="66" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D15" s="59" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E15" s="59" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F15" s="59" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G15" s="60" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:7">
@@ -7994,7 +8303,7 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="68"/>
       <x:c r="D17" s="68"/>
@@ -8004,7 +8313,7 @@
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C18" s="67"/>
       <x:c r="D18" s="68"/>
@@ -8014,13 +8323,13 @@
     </x:row>
     <x:row r="19" spans="2:7" ht="222" customHeight="1">
       <x:c r="B19" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="58" t="s">
-        <x:v>173</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E19" s="59"/>
       <x:c r="F19" s="59"/>
@@ -8029,7 +8338,7 @@
     <x:row r="20" spans="2:7" ht="72" customHeight="1">
       <x:c r="B20" s="57"/>
       <x:c r="C20" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D20" s="74" t="s">
         <x:v>5</x:v>
@@ -8097,7 +8406,7 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="77"/>
       <x:c r="C5" s="77"/>
@@ -8107,10 +8416,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="110" t="s">
-        <x:v>161</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C6" s="77"/>
       <x:c r="D6" s="77"/>
@@ -8119,10 +8428,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="85" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C7" s="77"/>
       <x:c r="D7" s="77"/>
@@ -8131,10 +8440,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B8" s="85" t="s">
-        <x:v>116</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C8" s="77"/>
       <x:c r="D8" s="77"/>
@@ -8143,10 +8452,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B9" s="86" t="s">
-        <x:v>167</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C9" s="82"/>
       <x:c r="D9" s="82"/>
@@ -8155,37 +8464,37 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B10" s="18" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F10" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="111"/>
       <x:c r="B11" s="27" t="s">
-        <x:v>120</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="28" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D11" s="27" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" s="27" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="D11" s="27" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E11" s="27" t="s">
-        <x:v>134</x:v>
       </x:c>
       <x:c r="F11" s="19"/>
     </x:row>
@@ -8215,10 +8524,10 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="17" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B15" s="85" t="s">
-        <x:v>22</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C15" s="77"/>
       <x:c r="D15" s="77"/>
@@ -8235,7 +8544,7 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B17" s="115"/>
       <x:c r="C17" s="115"/>
@@ -8245,10 +8554,10 @@
     </x:row>
     <x:row r="18" spans="1:6" ht="21.649999999999999" customHeight="1">
       <x:c r="A18" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B18" s="86" t="s">
-        <x:v>167</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C18" s="82"/>
       <x:c r="D18" s="82"/>
@@ -8257,13 +8566,13 @@
     </x:row>
     <x:row r="19" spans="1:6" ht="223" customHeight="1">
       <x:c r="A19" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B19" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="58" t="s">
-        <x:v>10</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D19" s="108"/>
       <x:c r="E19" s="108"/>
@@ -8272,10 +8581,10 @@
     <x:row r="20" spans="1:6" ht="127.75" customHeight="1">
       <x:c r="A20" s="107"/>
       <x:c r="B20" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C20" s="74" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="108"/>
       <x:c r="E20" s="108"/>
@@ -8323,7 +8632,7 @@
   <x:sheetData>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="61" t="s">
-        <x:v>106</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C11" s="62"/>
       <x:c r="D11" s="62"/>
@@ -8341,7 +8650,7 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="64" t="s">
-        <x:v>121</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="59"/>
       <x:c r="D13" s="59"/>
@@ -8351,10 +8660,10 @@
     </x:row>
     <x:row r="14" spans="2:7">
       <x:c r="B14" s="17" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="65" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D14" s="59"/>
       <x:c r="E14" s="59"/>
@@ -8363,10 +8672,10 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="17" t="s">
-        <x:v>124</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="66" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D15" s="59" t="s">
         <x:v>160</x:v>
@@ -8383,10 +8692,10 @@
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="17" t="s">
-        <x:v>80</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C16" s="66" t="s">
-        <x:v>117</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D16" s="59"/>
       <x:c r="E16" s="59"/>
@@ -8395,7 +8704,7 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C17" s="67"/>
       <x:c r="D17" s="68"/>
@@ -8405,37 +8714,37 @@
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>126</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D18" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E18" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F18" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G18" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:7">
       <x:c r="B19" s="70"/>
       <x:c r="C19" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D19" s="20" t="s">
-        <x:v>93</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G19" s="19"/>
     </x:row>
@@ -8455,7 +8764,7 @@
     </x:row>
     <x:row r="23" spans="2:7">
       <x:c r="B23" s="17" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C23" s="66" t="s">
         <x:v>160</x:v>
@@ -8483,7 +8792,7 @@
     </x:row>
     <x:row r="25" spans="2:7">
       <x:c r="B25" s="73" t="s">
-        <x:v>111</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C25" s="68"/>
       <x:c r="D25" s="68"/>
@@ -8493,7 +8802,7 @@
     </x:row>
     <x:row r="26" spans="2:7">
       <x:c r="B26" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C26" s="67"/>
       <x:c r="D26" s="68"/>
@@ -8503,13 +8812,13 @@
     </x:row>
     <x:row r="27" spans="2:7" ht="224.25" customHeight="1">
       <x:c r="B27" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D27" s="58" t="s">
-        <x:v>176</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E27" s="59"/>
       <x:c r="F27" s="59"/>
@@ -8518,10 +8827,10 @@
     <x:row r="28" spans="2:7" ht="92.400000000000006" customHeight="1">
       <x:c r="B28" s="57"/>
       <x:c r="C28" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D28" s="74" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E28" s="59"/>
       <x:c r="F28" s="59"/>

--- a/TNfit_API.xlsx
+++ b/TNfit_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chung Yeeun\Desktop\tnfit2\tnfit-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B32861-6528-41A7-A6B6-F8525F3C991A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF7EF44-B6B8-4582-A481-879F56E026DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22160" windowHeight="10260" tabRatio="1000" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22160" windowHeight="10260" tabRatio="1000" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마이페이지 보여주기" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,15 @@
     <sheet name="회원가입하기" sheetId="18" r:id="rId18"/>
     <sheet name="로그인하기" sheetId="19" r:id="rId19"/>
     <sheet name="로그아웃하기" sheetId="20" r:id="rId20"/>
+    <sheet name="이메일 중복 체크" sheetId="21" r:id="rId21"/>
+    <sheet name="닉네임 중복 체크" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
   <si>
     <t>{
     "message": "ok",
@@ -1299,12 +1301,393 @@
     <t>// 평균값</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>로그인하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/join</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_pw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_email</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 이메일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 비밀번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 201)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+//// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인 성공 (아이디, 패스워드 일치)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{
+    "message": "ok",
+    "data": 1
+}
+//// 로그인 실패 (아이디, 패스워드 불일치)
+{
+    "message": "ok",
+    "data": 0
+}</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 500)
+message:"server error"
+//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 400)
+message : "Null Value"
+</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 500)
+message:"server error"
+//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 400)
+message : "Null Value"</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 중복 체크</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 이메일이 중복되는지 아닌지 체크</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/emailcheck</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_email</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 이메일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/emailcheck/email@google.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상태코드 201)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중복 아닐 시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+    "message": "ok",
+    "data": 0
+}
+//// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복일 시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{
+    "message": "ok",
+    "data": 1
+}</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 500)
+message:"server error"
+//(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 400)
+message : "Null Value"</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복 체크</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 닉네임이 중복되는지 아닌지 체크</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/nickname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_nickname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 닉네임</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/nickname/nick</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1399,6 +1782,33 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1822,7 +2232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1830,8 +2240,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1996,6 +2409,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2179,14 +2598,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="보통" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2487,10 +2910,10 @@
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B16"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="11.08203125" customWidth="1"/>
@@ -2500,7 +2923,7 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7">
       <c r="C1" s="20" t="s">
         <v>117</v>
       </c>
@@ -2511,7 +2934,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7">
       <c r="C2" s="20" t="s">
         <v>45</v>
       </c>
@@ -2522,24 +2945,24 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7">
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2547,66 +2970,66 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="55" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2625,8 +3048,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="72"/>
+    <row r="12" spans="2:7">
+      <c r="B12" s="74"/>
       <c r="C12" s="4" t="s">
         <v>86</v>
       </c>
@@ -2641,108 +3064,108 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="72"/>
+    <row r="13" spans="2:7">
+      <c r="B13" s="74"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="72"/>
+    <row r="14" spans="2:7">
+      <c r="B14" s="74"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="72"/>
+    <row r="15" spans="2:7">
+      <c r="B15" s="74"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="56"/>
+    <row r="16" spans="2:7">
+      <c r="B16" s="58"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-    </row>
-    <row r="21" spans="2:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="2:8" ht="208.5" customHeight="1">
+      <c r="B21" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
+    <row r="22" spans="2:8" ht="164.4" customHeight="1">
+      <c r="B22" s="58"/>
       <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2775,27 +3198,27 @@
   <dimension ref="B11:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B22"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="108" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2803,72 +3226,72 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="64" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="61" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="55" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2887,8 +3310,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="72"/>
+    <row r="19" spans="2:7">
+      <c r="B19" s="74"/>
       <c r="C19" s="14" t="s">
         <v>135</v>
       </c>
@@ -2903,93 +3326,93 @@
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="72"/>
+    <row r="20" spans="2:7">
+      <c r="B20" s="74"/>
       <c r="C20" s="14"/>
       <c r="D20" s="16"/>
       <c r="E20" s="14"/>
       <c r="F20" s="17"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="72"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="56"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
+      <c r="B21" s="74"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="58"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="61" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="75" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-    </row>
-    <row r="27" spans="2:7" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="55" t="s">
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+    </row>
+    <row r="27" spans="2:7" ht="224.25" customHeight="1">
+      <c r="B27" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-    </row>
-    <row r="28" spans="2:7" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+    </row>
+    <row r="28" spans="2:7" ht="92.4" customHeight="1">
+      <c r="B28" s="58"/>
       <c r="C28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3022,10 +3445,10 @@
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.9140625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
@@ -3035,17 +3458,17 @@
     <col min="6" max="6" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3053,66 +3476,66 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="55" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="57" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3131,8 +3554,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="72"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="74"/>
       <c r="B12" s="45" t="s">
         <v>80</v>
       </c>
@@ -3147,8 +3570,8 @@
       </c>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="118"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="120"/>
       <c r="B13" s="39" t="s">
         <v>48</v>
       </c>
@@ -3163,8 +3586,8 @@
       </c>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="118"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="120"/>
       <c r="B14" s="39" t="s">
         <v>63</v>
       </c>
@@ -3177,8 +3600,8 @@
       <c r="E14" s="31"/>
       <c r="F14" s="36"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="118"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="120"/>
       <c r="B15" s="39" t="s">
         <v>42</v>
       </c>
@@ -3191,8 +3614,8 @@
       <c r="E15" s="31"/>
       <c r="F15" s="36"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="118"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="120"/>
       <c r="B16" s="46" t="s">
         <v>110</v>
       </c>
@@ -3205,8 +3628,8 @@
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.45">
-      <c r="A17" s="118"/>
+    <row r="17" spans="1:6" ht="34">
+      <c r="A17" s="120"/>
       <c r="B17" s="46" t="s">
         <v>54</v>
       </c>
@@ -3221,8 +3644,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="119"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="121"/>
       <c r="B18" s="46" t="s">
         <v>77</v>
       </c>
@@ -3235,73 +3658,73 @@
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="120"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="75" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="122"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-    </row>
-    <row r="23" spans="1:6" ht="121.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+    </row>
+    <row r="23" spans="1:6" ht="121.75" customHeight="1">
+      <c r="A23" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-    </row>
-    <row r="24" spans="1:6" ht="102.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="102.65" customHeight="1">
+      <c r="A24" s="58"/>
       <c r="B24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3332,26 +3755,26 @@
   <dimension ref="C3:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="108" t="s">
+    <row r="3" spans="3:8">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="4" spans="3:8">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3359,72 +3782,72 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="64" t="s">
+    <row r="5" spans="3:8">
+      <c r="C5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="61" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8">
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="55" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="57" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3443,8 +3866,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="72"/>
+    <row r="11" spans="3:8">
+      <c r="C11" s="74"/>
       <c r="D11" s="51" t="s">
         <v>177</v>
       </c>
@@ -3459,94 +3882,94 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="72"/>
+    <row r="12" spans="3:8">
+      <c r="C12" s="74"/>
       <c r="D12" s="4"/>
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="72"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="56"/>
+    <row r="13" spans="3:8">
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="58"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8">
       <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="61" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="75" t="s">
+    <row r="16" spans="3:8">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-    </row>
-    <row r="19" spans="3:8" ht="273" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="55" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+    </row>
+    <row r="19" spans="3:8" ht="273" customHeight="1">
+      <c r="C19" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="3:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="56"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+    </row>
+    <row r="20" spans="3:8" ht="70.5" customHeight="1">
+      <c r="C20" s="58"/>
       <c r="D20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3577,27 +4000,27 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F17"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3605,72 +4028,72 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="57" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3689,8 +4112,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="74"/>
       <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
@@ -3705,97 +4128,97 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="72"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="74"/>
       <c r="B10" s="4"/>
       <c r="C10" s="16"/>
       <c r="D10" s="4"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="72"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="74"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="58"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-    </row>
-    <row r="17" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+    </row>
+    <row r="17" spans="1:7" ht="292.5" customHeight="1">
+      <c r="A17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="G17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+    <row r="18" spans="1:7" ht="126" customHeight="1">
+      <c r="A18" s="58"/>
       <c r="B18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3825,28 +4248,28 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="C3:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:H20"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="24.08203125" customWidth="1"/>
     <col min="5" max="5" width="17.08203125" customWidth="1"/>
     <col min="8" max="8" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="108" t="s">
+    <row r="3" spans="3:8">
+      <c r="C3" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="4" spans="3:8">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3854,72 +4277,72 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="64" t="s">
+    <row r="5" spans="3:8">
+      <c r="C5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8">
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="55" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="57" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3938,8 +4361,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="56" x14ac:dyDescent="0.45">
-      <c r="C11" s="72"/>
+    <row r="11" spans="3:8" ht="56">
+      <c r="C11" s="74"/>
       <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
@@ -3956,94 +4379,94 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="72"/>
+    <row r="12" spans="3:8">
+      <c r="C12" s="74"/>
       <c r="D12" s="4"/>
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="72"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="56"/>
+    <row r="13" spans="3:8">
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="58"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8">
       <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="75" t="s">
+    <row r="16" spans="3:8">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-    </row>
-    <row r="19" spans="3:8" ht="323.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="55" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+    </row>
+    <row r="19" spans="3:8" ht="323.25" customHeight="1">
+      <c r="C19" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="3:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="56"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+    </row>
+    <row r="20" spans="3:8" ht="89.25" customHeight="1">
+      <c r="C20" s="58"/>
       <c r="D20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="E20" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4076,10 +4499,10 @@
   <dimension ref="C3:H20"/>
   <sheetViews>
     <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:H20"/>
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -4087,17 +4510,17 @@
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="108" t="s">
+    <row r="3" spans="3:8">
+      <c r="C3" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="4" spans="3:8">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4105,72 +4528,72 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="64" t="s">
+    <row r="5" spans="3:8">
+      <c r="C5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8">
       <c r="C8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="55" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="57" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -4189,8 +4612,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="72"/>
+    <row r="11" spans="3:8">
+      <c r="C11" s="74"/>
       <c r="D11" s="14" t="s">
         <v>168</v>
       </c>
@@ -4205,8 +4628,8 @@
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="72"/>
+    <row r="12" spans="3:8">
+      <c r="C12" s="74"/>
       <c r="D12" s="14" t="s">
         <v>169</v>
       </c>
@@ -4221,86 +4644,86 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="72"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="56"/>
+    <row r="13" spans="3:8">
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="58"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8">
       <c r="C15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="75" t="s">
+    <row r="16" spans="3:8">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-    </row>
-    <row r="19" spans="3:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="55" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+    </row>
+    <row r="19" spans="3:8" ht="199.5" customHeight="1">
+      <c r="C19" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="3:8" ht="93.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="56"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+    </row>
+    <row r="20" spans="3:8" ht="93.65" customHeight="1">
+      <c r="C20" s="58"/>
       <c r="D20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4330,26 +4753,26 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="117" t="s">
+    <row r="1" spans="2:7" ht="18">
+      <c r="B1" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4357,64 +4780,64 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4433,8 +4856,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="72"/>
+    <row r="9" spans="2:7">
+      <c r="B9" s="74"/>
       <c r="C9" s="51" t="s">
         <v>185</v>
       </c>
@@ -4449,8 +4872,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="72"/>
+    <row r="10" spans="2:7">
+      <c r="B10" s="74"/>
       <c r="C10" s="51" t="s">
         <v>186</v>
       </c>
@@ -4465,81 +4888,81 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="72"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="58"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="2:8" ht="185.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:8" ht="185.5" customHeight="1">
+      <c r="B17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="125" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="56" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+    <row r="18" spans="2:8" ht="91.5" customHeight="1">
+      <c r="B18" s="58"/>
       <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4570,20 +4993,20 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="108"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7">
+      <c r="B1" s="110"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4591,58 +5014,58 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="118"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="70"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="70"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4661,88 +5084,88 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="72"/>
+    <row r="9" spans="2:7">
+      <c r="B9" s="74"/>
       <c r="C9" s="4"/>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="72"/>
+    <row r="10" spans="2:7">
+      <c r="B10" s="74"/>
       <c r="C10" s="4"/>
       <c r="D10" s="16"/>
       <c r="E10" s="4"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="72"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="58"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="58"/>
       <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4773,20 +5196,20 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="108"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7">
+      <c r="B1" s="110"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4794,58 +5217,58 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="118"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="70"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="70"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4864,88 +5287,88 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="72"/>
+    <row r="9" spans="2:7">
+      <c r="B9" s="74"/>
       <c r="C9" s="4"/>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="72"/>
+    <row r="10" spans="2:7">
+      <c r="B10" s="74"/>
       <c r="C10" s="4"/>
       <c r="D10" s="16"/>
       <c r="E10" s="4"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="72"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="58"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="58"/>
       <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4975,21 +5398,26 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView topLeftCell="A17" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="108"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="18">
+      <c r="B1" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4997,58 +5425,64 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="125" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="126" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5067,88 +5501,110 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="72"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="4"/>
+    <row r="9" spans="2:7">
+      <c r="B9" s="74"/>
+      <c r="C9" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>204</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="72"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
+      <c r="G9" s="51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="74"/>
+      <c r="C10" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>204</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="72"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
+      <c r="G10" s="51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="58"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+      <c r="C13" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7" ht="202.5" customHeight="1">
+      <c r="B17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+      <c r="D17" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:7" ht="85" customHeight="1">
+      <c r="B18" s="58"/>
       <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="D18" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5169,7 +5625,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5181,10 +5637,10 @@
   <dimension ref="B4:G27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
@@ -5194,17 +5650,17 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5212,66 +5668,66 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="79" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5290,8 +5746,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="72"/>
+    <row r="12" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B12" s="74"/>
       <c r="C12" s="22" t="s">
         <v>80</v>
       </c>
@@ -5306,8 +5762,8 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="72"/>
+    <row r="13" spans="2:7">
+      <c r="B13" s="74"/>
       <c r="C13" s="22" t="s">
         <v>121</v>
       </c>
@@ -5320,8 +5776,8 @@
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="72"/>
+    <row r="14" spans="2:7">
+      <c r="B14" s="74"/>
       <c r="C14" s="22" t="s">
         <v>49</v>
       </c>
@@ -5334,8 +5790,8 @@
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="72"/>
+    <row r="15" spans="2:7">
+      <c r="B15" s="74"/>
       <c r="C15" s="22" t="s">
         <v>23</v>
       </c>
@@ -5348,8 +5804,8 @@
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="72"/>
+    <row r="16" spans="2:7">
+      <c r="B16" s="74"/>
       <c r="C16" s="22" t="s">
         <v>87</v>
       </c>
@@ -5364,8 +5820,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="72"/>
+    <row r="17" spans="2:7">
+      <c r="B17" s="74"/>
       <c r="C17" s="22" t="s">
         <v>31</v>
       </c>
@@ -5378,8 +5834,8 @@
       <c r="F17" s="17"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="72"/>
+    <row r="18" spans="2:7">
+      <c r="B18" s="74"/>
       <c r="C18" s="22" t="s">
         <v>19</v>
       </c>
@@ -5392,8 +5848,8 @@
       <c r="F18" s="17"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="72"/>
+    <row r="19" spans="2:7">
+      <c r="B19" s="74"/>
       <c r="C19" s="22" t="s">
         <v>20</v>
       </c>
@@ -5406,8 +5862,8 @@
       <c r="F19" s="17"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="72"/>
+    <row r="20" spans="2:7">
+      <c r="B20" s="74"/>
       <c r="C20" s="22" t="s">
         <v>127</v>
       </c>
@@ -5420,8 +5876,8 @@
       <c r="F20" s="17"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="78"/>
+    <row r="21" spans="2:7">
+      <c r="B21" s="80"/>
       <c r="C21" s="22" t="s">
         <v>126</v>
       </c>
@@ -5434,73 +5890,73 @@
       <c r="F21" s="17"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="75" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-    </row>
-    <row r="26" spans="2:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+    </row>
+    <row r="26" spans="2:7" ht="180.75" customHeight="1">
+      <c r="B26" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-    </row>
-    <row r="27" spans="2:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="56"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+    </row>
+    <row r="27" spans="2:7" ht="164.4" customHeight="1">
+      <c r="B27" s="58"/>
       <c r="C27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5530,21 +5986,21 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="B1:H22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="108"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7">
+      <c r="B1" s="110"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5552,58 +6008,58 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="118"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="70"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="70"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5622,88 +6078,88 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="72"/>
+    <row r="9" spans="2:7">
+      <c r="B9" s="74"/>
       <c r="C9" s="4"/>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="72"/>
+    <row r="10" spans="2:7">
+      <c r="B10" s="74"/>
       <c r="C10" s="4"/>
       <c r="D10" s="16"/>
       <c r="E10" s="4"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="72"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="58"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="58"/>
       <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5728,6 +6184,462 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4B87DB-723D-400E-BCD0-156265B80675}">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18.5" thickBot="1">
+      <c r="B1" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="74"/>
+      <c r="C9" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="74"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="58"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7" ht="189.5" customHeight="1">
+      <c r="B17" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:7" ht="101" customHeight="1">
+      <c r="B18" s="58"/>
+      <c r="C18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{BECC26DF-D05D-4623-AA30-606D8C84774C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66ADAF8-5BB8-4154-8342-04065748DB53}">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18.5" thickBot="1">
+      <c r="B1" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="74"/>
+      <c r="C9" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="74"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="58"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7" ht="181" customHeight="1">
+      <c r="B17" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:7" ht="92" customHeight="1">
+      <c r="B18" s="58"/>
+      <c r="C18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
@@ -5736,10 +6648,10 @@
   <dimension ref="B4:G22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="11.08203125" customWidth="1"/>
@@ -5749,15 +6661,15 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5765,58 +6677,58 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="70"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="70"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="55" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5835,105 +6747,105 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="72"/>
+    <row r="12" spans="2:7">
+      <c r="B12" s="74"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="72"/>
+    <row r="13" spans="2:7">
+      <c r="B13" s="74"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="72"/>
+    <row r="14" spans="2:7">
+      <c r="B14" s="74"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="72"/>
+    <row r="15" spans="2:7">
+      <c r="B15" s="74"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="56"/>
+    <row r="16" spans="2:7">
+      <c r="B16" s="58"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-    </row>
-    <row r="21" spans="2:7" ht="85.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="2:7" ht="85.25" customHeight="1">
+      <c r="B21" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-    </row>
-    <row r="22" spans="2:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+    </row>
+    <row r="22" spans="2:7" ht="164.4" customHeight="1">
+      <c r="B22" s="58"/>
       <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5964,10 +6876,10 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F21"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
@@ -5975,17 +6887,17 @@
     <col min="6" max="6" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5993,66 +6905,66 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="84"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="55" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="86"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="57" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -6071,8 +6983,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="72"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="74"/>
       <c r="B10" s="22" t="s">
         <v>73</v>
       </c>
@@ -6087,8 +6999,8 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="72"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="74"/>
       <c r="B11" s="22" t="s">
         <v>128</v>
       </c>
@@ -6103,8 +7015,8 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="72"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="74"/>
       <c r="B12" s="22" t="s">
         <v>82</v>
       </c>
@@ -6119,8 +7031,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="72"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="74"/>
       <c r="B13" s="22" t="s">
         <v>71</v>
       </c>
@@ -6135,98 +7047,98 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="74"/>
       <c r="B14" s="14"/>
       <c r="C14" s="17"/>
       <c r="D14" s="14"/>
       <c r="E14" s="17"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="72"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="74"/>
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
       <c r="D15" s="24"/>
       <c r="E15" s="26"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="56"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="58"/>
       <c r="B16" s="14"/>
       <c r="C16" s="29"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-    </row>
-    <row r="20" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+    </row>
+    <row r="20" spans="1:8" ht="33" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="147.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:8" ht="147.65" customHeight="1">
+      <c r="A21" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-    </row>
-    <row r="22" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:8" ht="122.4" customHeight="1">
+      <c r="A22" s="58"/>
       <c r="B22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6257,10 +7169,10 @@
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -6270,17 +7182,17 @@
     <col min="6" max="6" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -6288,66 +7200,66 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="94"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="96"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="94"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="96"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="94"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="96"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="95"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="96" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="97"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="98" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -6366,8 +7278,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="97"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="99"/>
       <c r="B12" s="39" t="s">
         <v>73</v>
       </c>
@@ -6382,8 +7294,8 @@
       </c>
       <c r="F12" s="36"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="97"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="99"/>
       <c r="B13" s="39" t="s">
         <v>128</v>
       </c>
@@ -6396,8 +7308,8 @@
       <c r="E13" s="31"/>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="97"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="99"/>
       <c r="B14" s="38" t="s">
         <v>109</v>
       </c>
@@ -6412,8 +7324,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="97"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="99"/>
       <c r="B15" s="39" t="s">
         <v>71</v>
       </c>
@@ -6428,97 +7340,97 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="97"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="99"/>
       <c r="B16" s="36"/>
       <c r="C16" s="31"/>
       <c r="D16" s="36"/>
       <c r="E16" s="31"/>
       <c r="F16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="97"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="99"/>
       <c r="B17" s="36"/>
       <c r="C17" s="31"/>
       <c r="D17" s="36"/>
       <c r="E17" s="31"/>
       <c r="F17" s="36"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="98"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="100"/>
       <c r="B18" s="36"/>
       <c r="C18" s="31"/>
       <c r="D18" s="28"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="102"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="75" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-    </row>
-    <row r="23" spans="1:6" ht="108.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+    </row>
+    <row r="23" spans="1:6" ht="108.65" customHeight="1">
+      <c r="A23" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-    </row>
-    <row r="24" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="111" customHeight="1">
+      <c r="A24" s="58"/>
       <c r="B24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6549,25 +7461,25 @@
   <dimension ref="C5:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.58203125" customWidth="1"/>
     <col min="5" max="5" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:8">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6575,58 +7487,58 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="64" t="s">
+    <row r="7" spans="3:8">
+      <c r="C7" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="105"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="70"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="3:8">
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="70"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="55" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="57" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -6645,97 +7557,97 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="72"/>
+    <row r="13" spans="3:8">
+      <c r="C13" s="74"/>
       <c r="D13" s="4"/>
       <c r="E13" s="9"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="72"/>
+    <row r="14" spans="3:8">
+      <c r="C14" s="74"/>
       <c r="D14" s="4"/>
       <c r="E14" s="10"/>
       <c r="F14" s="4"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C15" s="72"/>
+    <row r="15" spans="3:8">
+      <c r="C15" s="74"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
       <c r="F15" s="4"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="56"/>
+    <row r="16" spans="3:8">
+      <c r="C16" s="58"/>
       <c r="D16" s="4"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8">
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="75" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-    </row>
-    <row r="21" spans="3:8" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="55" t="s">
+      <c r="D20" s="106"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21" spans="3:8" ht="77.400000000000006" customHeight="1">
+      <c r="C21" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="3:8" ht="132.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="56"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
+    </row>
+    <row r="22" spans="3:8" ht="132.65" customHeight="1">
+      <c r="C22" s="58"/>
       <c r="D22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6766,27 +7678,27 @@
   <dimension ref="B6:G23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="16.08203125" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6794,72 +7706,72 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="55" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -6878,8 +7790,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="72"/>
+    <row r="14" spans="2:7">
+      <c r="B14" s="74"/>
       <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
@@ -6894,8 +7806,8 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="72"/>
+    <row r="15" spans="2:7">
+      <c r="B15" s="74"/>
       <c r="C15" s="4" t="s">
         <v>141</v>
       </c>
@@ -6910,8 +7822,8 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" ht="28" x14ac:dyDescent="0.45">
-      <c r="B16" s="72"/>
+    <row r="16" spans="2:7" ht="28">
+      <c r="B16" s="74"/>
       <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
@@ -6928,87 +7840,87 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="56"/>
+    <row r="17" spans="2:7">
+      <c r="B17" s="58"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="75" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-    </row>
-    <row r="22" spans="2:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="55" t="s">
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+    </row>
+    <row r="22" spans="2:7" ht="123" customHeight="1">
+      <c r="B22" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-    </row>
-    <row r="23" spans="2:7" ht="73.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+    </row>
+    <row r="23" spans="2:7" ht="73.25" customHeight="1">
+      <c r="B23" s="58"/>
       <c r="C23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7039,10 +7951,10 @@
   <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B14"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="22.58203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
@@ -7050,17 +7962,17 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7068,72 +7980,72 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="61" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="55" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -7152,8 +8064,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="72"/>
+    <row r="11" spans="2:7">
+      <c r="B11" s="74"/>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
@@ -7168,103 +8080,103 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="72"/>
+    <row r="12" spans="2:7">
+      <c r="B12" s="74"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10"/>
       <c r="E12" s="4"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="72"/>
+    <row r="13" spans="2:7">
+      <c r="B13" s="74"/>
       <c r="C13" s="4"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="56"/>
+    <row r="14" spans="2:7">
+      <c r="B14" s="58"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="61" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-    </row>
-    <row r="19" spans="2:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+    </row>
+    <row r="19" spans="2:7" ht="222" customHeight="1">
+      <c r="B19" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-    </row>
-    <row r="20" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="20" spans="2:7" ht="72" customHeight="1">
+      <c r="B20" s="58"/>
       <c r="C20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7297,10 +8209,10 @@
   <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
@@ -7308,15 +8220,15 @@
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
+      <c r="A3" s="110"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -7324,66 +8236,66 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="84"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="55" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="86"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="57" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -7402,8 +8314,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="112"/>
       <c r="B11" s="22" t="s">
         <v>107</v>
       </c>
@@ -7418,97 +8330,97 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="112"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="24"/>
       <c r="E12" s="26"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="111"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="113"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="112"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="114"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="75"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.65" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="84"/>
-    </row>
-    <row r="19" spans="1:6" ht="223" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="86"/>
+    </row>
+    <row r="19" spans="1:6" ht="223" customHeight="1">
+      <c r="A19" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
-    </row>
-    <row r="20" spans="1:6" ht="127.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+    </row>
+    <row r="20" spans="1:6" ht="127.75" customHeight="1">
+      <c r="A20" s="107"/>
       <c r="B20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/TNfit_API.xlsx
+++ b/TNfit_API.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.0" lowestEdited="9.0" rupBuild="0.1081"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="10125" windowHeight="10230" tabRatio="1000" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="10260" tabRatio="1000" firstSheet="10" activeTab="16"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="마이페이지 보여주기" sheetId="1" r:id="rId4"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="213">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="202">
   <x:si>
     <x:t>//(상태코드 201)
 {
@@ -75,6 +75,25 @@
 }</x:t>
   </x:si>
   <x:si>
+    <x:t>//(상태코드 201)
+{
+    "message": "ok",
+    "data": 
+            {
+                "f_name": "potato",
+                "f_cnt": 1,
+                "f_unit": "회",
+                "f_gram": 100,
+                "f_cal": "188",
+                "f_carbs": "27.6",
+                "f_protein": "2.9",
+                "f_fat": "7.29",
+                "f_sugar": "0.36",
+                "f_salt": "268.8"
+            }
+}</x:t>
+  </x:si>
+  <x:si>
     <x:t>localhost:3000/diet/showdiet/abcs</x:t>
   </x:si>
   <x:si>
@@ -82,100 +101,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> application/x-www-form-urlencoded</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 500)
-message:"server error"
-//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 400)
-message : "Null Value"</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>파라미터로 식단아이디만 받아도 되는지 모르겠어서 안되면 
-유저이름, 먹은 날짜, 아침/점심/저녁 여부로 params값 수정할꼐요!</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 500)
-message:"server error"
-//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 400)
-message : "Null Value"</x:t>
-    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -224,69 +149,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>성공시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실패시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dlt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/user/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//(상태코드 201)
-{
-    "message": "ok"
-}</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -301,7 +163,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>상태코드 201)</x:t>
+      <x:t>상태코드</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -309,24 +171,27 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve">
-{
-    "message": "ok",
-    "data": {
-        "friendNicknames": [
-            {
-                "u_nickname": "asfd"
-            },
-            {
-                "u_nickname": "byr"
-            }
-        ]
-    }
-}</x:t>
+      <x:t xml:space="preserve"> 500)
+message:"server error"
+//(</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showday?u_id=1&amp;d_date=2019-01-14</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 400)
+message : "Null Value"</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -351,63 +216,9 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 201)
-{
-    "message": "ok"
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>상태코드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 201)
-{
-    "message": "ok"
-}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>//(상태코드 201)
-{
-    "message": "ok",
-    "data": {
-        "kcal sum": 3454,
-        "carbs sum": 464.63,
-        "protein sum": 145.62,
-        "fat sum": 72.58,
-        "sugar sum": 0.72,
-        "salt sum": 537.6
-    }
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>//(</x:t>
+      <x:t xml:space="preserve"> 500)
+message:"server error"
+//(</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -423,20 +234,13 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 201)
-{
-    "message": "ok",
-    "data": [
-        {
-            "u_nickname": "asfd",
-            "u_sex": 1,
-            "u_height": 180,
-            "u_weight": 75,
-            "u_frequest": 1
-        }
-    ]
-}</x:t>
+      <x:t xml:space="preserve"> 400)
+message : "Null Value"</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>파라미터로 식단아이디만 받아도 되는지 모르겠어서 안되면 
+유저이름, 먹은 날짜, 아침/점심/저녁 여부로 params값 수정할꼐요!</x:t>
   </x:si>
   <x:si>
     <x:t>a를 검색했을때 a로 시작하는 이름의 음식들</x:t>
@@ -444,459 +248,6 @@
   <x:si>
     <x:t>0: 아침, 1: 점심,
 2: 저녁, 3: 간식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하루 먹은 영양소 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인 정보를 수정합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showmeal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일일 섭취 영양소 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthMonth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침, 점심, 저녁, 간식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex)2019-01-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">sex = 0//여자
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 검색하기-닉네임으로</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> diet/insert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한끼에 먹은 음식 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userNickname</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 선택한 음식을 입력합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 하나당 영양소 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userBirthYear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">0: </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>여자, 1: 남자</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>mypage/show/2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/request</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃하면 u_state가 0됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//(상태코드 201)
-{
-    "message": "ok",
-    "data": 
-        [
-            {
-                "u_nickname": "asfd",
-               "u_id":2
-            },
-            {
-                "u_nickname": "aaaa",               
-                "u_id":3
-            }
-        ]
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>myId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 패스워드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>foodId</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구목록 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>????</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>flag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">port </x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 목록보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 몸무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메세지 예제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>query</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FLOAT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단 입력하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>l_me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 검색하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색하는 단어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notnull</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단공개 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 메소드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색할 닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userSex</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">open </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>여부</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>params</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage/edit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인 유저 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청 수락/거절</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage/show</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">마이페이지 보여주기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>userWeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0:공개x
-1:공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 먹은 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 보여주기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_friend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friendId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_nickname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 생일 연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diet/insert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몇 인분 먹었는지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청하는 사람 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>친구</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>수락 또는 거절</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>확인할 유저 인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">0: </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>거절 1: 수락</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">delete </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial Unicode MS"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>여부</x:t>
-    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -939,89 +290,591 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>/store/kind/kfood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>application/json</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: close 1: open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diet/searchdiet/a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/search/a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: close, 1: open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet/2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/friendlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/searchdiet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showmeal/5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청 목록을 보여줍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/requestlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 하나당 영양소 정보 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구 요청을 수락 혹은 거절합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/editlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>friend/requestlist/2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0: no delete, 1: delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/friend/friendlist/1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/diet/showdiet/potato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>multipart/formed-data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친구를 삭제하거나 공개 여부를 수정합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한끼에 먹은 음식 보여주기(ex) 아침)</x:t>
-  </x:si>
-  <x:si>
     <x:t>//(상태코드 201)
 {
     "message": "ok",
     "data": 
+        [
             {
-                "f_name": "potato",
-                "f_cnt": 1,
-                "f_unit": "회",
-                "f_gram": 100,
-                "f_cal": "188",
-                "f_carbs": "27.6",
-                "f_protein": "2.9",
-                "f_fat": "7.29",
-                "f_sugar": "0.36",
-                "f_salt": "268.8"
+                "u_nickname": "asfd",
+               "u_id":2
+            },
+            {
+                "u_nickname": "aaaa",               
+                "u_id":3
             }
+        ]
 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//(상태코드 201)
+{
+    "message": "ok",
+    "data": {
+        "kcal sum": 3454,
+        "carbs sum": 464.63,
+        "protein sum": 145.62,
+        "fat sum": 72.58,
+        "sugar sum": 0.72,
+        "salt sum": 537.6
+    }
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201)
+{
+    "message": "ok",
+    "data": [
+        {
+            "u_nickname": "asfd",
+            "u_sex": 1,
+            "u_height": 180,
+            "u_weight": 75,
+            "u_frequest": 1
+        }
+    ]
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드 201)</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+{
+    "message": "ok",
+    "data": {
+        "friendNicknames": [
+            {
+                "u_nickname": "asfd"
+            },
+            {
+                "u_nickname": "byr"
+            }
+        ]
+    }
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201)
+{
+    "message": "ok"
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>//(상태코드 201)
+{
+    "message": "ok"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>//(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>상태코드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 201)
+{
+    "message": "ok"
+}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showday?u_id=1&amp;d_date=2019-01-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/requestlist/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: no delete, 1: delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한끼에 먹은 음식 보여주기(ex) 아침)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>multipart/formed-data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/friendlist/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet/potato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구를 삭제하거나 공개 여부를 수정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 선택한 음식을 입력합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인 정보를 수정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일일 섭취 영양소 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showday</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">sex = 0//여자
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침, 점심, 저녁, 간식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthMonth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 검색하기-닉네임으로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userNickname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한끼에 먹은 음식 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Content-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/user/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showmeal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 하나당 영양소 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> diet/insert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex)2019-01-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하루 먹은 영양소 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userBirthYear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage/show/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/request</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃할 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">0: </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>여자, 1: 남자</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>성공시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실패시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dlt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몸무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 패스워드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unit</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구목록 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>????</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>myId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>foodId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 목록보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>flag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">port </x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색하는 단어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 몸무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>l_me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLOAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메세지 예제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단 입력하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notnull</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 검색하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userSex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>params</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색할 닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 메소드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단공개 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">open </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>여부</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -1057,103 +910,217 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>몸무게</x:t>
+    <x:t>mypage/edit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청 수락/거절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage/show</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">마이페이지 보여주기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인 유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0:공개x
+1:공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 먹은 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 보여주기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몇 인분 먹었는지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friendId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 생일 연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diet/insert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확인할 유저 인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_friend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u_nickname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청하는 사람 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">delete </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>여부</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:t>/user/join</x:t>
   </x:si>
   <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_sex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notnull</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FLOAT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">0: </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>거절 1: 수락</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>친구</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial Unicode MS"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>수락 또는 거절</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>u_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별(0: 여자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 고유 닉네임</x:t>
   </x:si>
   <x:si>
     <x:t>탈퇴할 유저 인덱스</x:t>
   </x:si>
   <x:si>
-    <x:t>u_nickname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 고유 닉네임</x:t>
-  </x:si>
-  <x:si>
     <x:t>u_height</x:t>
   </x:si>
   <x:si>
-    <x:t>u_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별(0: 여자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃할 유저 인덱스</x:t>
+    <x:t>diet/searchdiet/a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: close, 1: open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>friend/requestlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 하나당 영양소 정보 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일(1999-01-01)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친구 요청을 수락 혹은 거절합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showmeal/5</x:t>
   </x:si>
   <x:si>
     <x:t>/mypage/withdrawal</x:t>
   </x:si>
   <x:si>
-    <x:t>생년월일(1999-01-01)</x:t>
+    <x:t>친구 요청 목록을 보여줍니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0: close 1: open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>application/json</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/searchdiet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/store/kind/kfood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/friendlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/editlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃하면 u_state가 0됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/diet/showdiet/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/friend/search/a</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1211,11 +1178,6 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1236,6 +1198,11 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -2539,9 +2506,38 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -2550,39 +2546,43 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -2627,61 +2627,12 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2790,39 +2741,39 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2987,6 +2938,19 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3076,6 +3040,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -3120,7 +3087,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3159,7 +3125,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3204,7 +3169,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3281,7 +3245,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3320,7 +3283,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3343,7 +3305,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3376,7 +3337,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3424,7 +3384,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3480,7 +3439,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3515,7 +3473,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3548,7 +3505,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3571,7 +3527,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3913,10 +3868,10 @@
   <x:sheetData>
     <x:row r="1" spans="3:7">
       <x:c r="C1" s="25" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D1" s="25" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E1" s="25"/>
       <x:c r="F1" s="25"/>
@@ -3924,10 +3879,10 @@
     </x:row>
     <x:row r="2" spans="3:7">
       <x:c r="C2" s="25" t="s">
-        <x:v>82</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
@@ -3941,14 +3896,14 @@
       <x:c r="G3" s="25"/>
     </x:row>
     <x:row r="4" spans="2:7">
-      <x:c r="B4" s="75" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C4" s="62"/>
-      <x:c r="D4" s="62"/>
-      <x:c r="E4" s="62"/>
-      <x:c r="F4" s="62"/>
-      <x:c r="G4" s="63"/>
+      <x:c r="B4" s="58" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C4" s="59"/>
+      <x:c r="D4" s="59"/>
+      <x:c r="E4" s="59"/>
+      <x:c r="F4" s="59"/>
+      <x:c r="G4" s="60"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="6"/>
@@ -3959,101 +3914,101 @@
       <x:c r="G5" s="6"/>
     </x:row>
     <x:row r="6" spans="2:7">
-      <x:c r="B6" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="59"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+      <x:c r="B6" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C6" s="62"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="76" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D7" s="77"/>
-      <x:c r="E7" s="77"/>
-      <x:c r="F7" s="77"/>
-      <x:c r="G7" s="78"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C7" s="64" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D7" s="65"/>
+      <x:c r="E7" s="65"/>
+      <x:c r="F7" s="65"/>
+      <x:c r="G7" s="66"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C8" s="66" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D8" s="59"/>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="60"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C8" s="67" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D8" s="62"/>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="63"/>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C9" s="66" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D9" s="59"/>
-      <x:c r="E9" s="59"/>
-      <x:c r="F9" s="59"/>
-      <x:c r="G9" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C9" s="67" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D9" s="62"/>
+      <x:c r="E9" s="62"/>
+      <x:c r="F9" s="62"/>
+      <x:c r="G9" s="63"/>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C10" s="67" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D10" s="68"/>
-      <x:c r="E10" s="68"/>
-      <x:c r="F10" s="68"/>
-      <x:c r="G10" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C10" s="68" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D10" s="69"/>
+      <x:c r="E10" s="69"/>
+      <x:c r="F10" s="69"/>
+      <x:c r="G10" s="70"/>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7">
-      <x:c r="B12" s="70"/>
+      <x:c r="B12" s="71"/>
       <x:c r="C12" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="70"/>
+      <x:c r="B13" s="71"/>
       <x:c r="C13" s="9"/>
       <x:c r="D13" s="11"/>
       <x:c r="E13" s="9"/>
@@ -4061,7 +4016,7 @@
       <x:c r="G13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="70"/>
+      <x:c r="B14" s="71"/>
       <x:c r="C14" s="9"/>
       <x:c r="D14" s="10"/>
       <x:c r="E14" s="9"/>
@@ -4069,7 +4024,7 @@
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="70"/>
+      <x:c r="B15" s="71"/>
       <x:c r="C15" s="9"/>
       <x:c r="D15" s="10"/>
       <x:c r="E15" s="9"/>
@@ -4086,74 +4041,74 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C17" s="66" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D17" s="59"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C17" s="67" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="62"/>
+      <x:c r="E17" s="62"/>
+      <x:c r="F17" s="62"/>
+      <x:c r="G17" s="63"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="71"/>
-      <x:c r="C18" s="72"/>
-      <x:c r="D18" s="72"/>
-      <x:c r="E18" s="72"/>
-      <x:c r="F18" s="72"/>
-      <x:c r="G18" s="72"/>
+      <x:c r="B18" s="72"/>
+      <x:c r="C18" s="73"/>
+      <x:c r="D18" s="73"/>
+      <x:c r="E18" s="73"/>
+      <x:c r="F18" s="73"/>
+      <x:c r="G18" s="73"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C19" s="68"/>
-      <x:c r="D19" s="68"/>
-      <x:c r="E19" s="68"/>
-      <x:c r="F19" s="68"/>
-      <x:c r="G19" s="69"/>
+      <x:c r="B19" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="69"/>
+      <x:c r="D19" s="69"/>
+      <x:c r="E19" s="69"/>
+      <x:c r="F19" s="69"/>
+      <x:c r="G19" s="70"/>
     </x:row>
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C20" s="67" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D20" s="68"/>
-      <x:c r="E20" s="68"/>
-      <x:c r="F20" s="68"/>
-      <x:c r="G20" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C20" s="68" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D20" s="69"/>
+      <x:c r="E20" s="69"/>
+      <x:c r="F20" s="69"/>
+      <x:c r="G20" s="70"/>
     </x:row>
     <x:row r="21" spans="2:8" ht="208.5" customHeight="1">
       <x:c r="B21" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D21" s="58" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D21" s="75" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E21" s="62"/>
+      <x:c r="F21" s="62"/>
+      <x:c r="G21" s="63"/>
+      <x:c r="H21" s="23" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="E21" s="59"/>
-      <x:c r="F21" s="59"/>
-      <x:c r="G21" s="60"/>
-      <x:c r="H21" s="23" t="s">
-        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B22" s="57"/>
       <x:c r="C22" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D22" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E22" s="59"/>
-      <x:c r="F22" s="59"/>
-      <x:c r="G22" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D22" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E22" s="62"/>
+      <x:c r="F22" s="62"/>
+      <x:c r="G22" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -4200,13 +4155,13 @@
   <x:sheetData>
     <x:row r="4" spans="1:6" ht="18.449999999999999">
       <x:c r="A4" s="117" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B4" s="62"/>
-      <x:c r="C4" s="62"/>
-      <x:c r="D4" s="62"/>
-      <x:c r="E4" s="62"/>
-      <x:c r="F4" s="63"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B4" s="59"/>
+      <x:c r="C4" s="59"/>
+      <x:c r="D4" s="59"/>
+      <x:c r="E4" s="59"/>
+      <x:c r="F4" s="60"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="16"/>
@@ -4217,125 +4172,125 @@
       <x:c r="F5" s="16"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B6" s="59"/>
-      <x:c r="C6" s="59"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="60"/>
+      <x:c r="A6" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B6" s="62"/>
+      <x:c r="C6" s="62"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="63"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B7" s="65" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C7" s="59"/>
-      <x:c r="D7" s="59"/>
-      <x:c r="E7" s="59"/>
-      <x:c r="F7" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B7" s="116" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="62"/>
+      <x:c r="D7" s="62"/>
+      <x:c r="E7" s="62"/>
+      <x:c r="F7" s="63"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B8" s="66" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C8" s="59"/>
-      <x:c r="D8" s="59"/>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="60"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B8" s="67" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C8" s="62"/>
+      <x:c r="D8" s="62"/>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="63"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B9" s="66" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C9" s="59"/>
-      <x:c r="D9" s="59"/>
-      <x:c r="E9" s="59"/>
-      <x:c r="F9" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B9" s="67" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C9" s="62"/>
+      <x:c r="D9" s="62"/>
+      <x:c r="E9" s="62"/>
+      <x:c r="F9" s="63"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B10" s="88" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C10" s="89"/>
-      <x:c r="D10" s="89"/>
-      <x:c r="E10" s="89"/>
-      <x:c r="F10" s="90"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B10" s="86" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="87"/>
+      <x:c r="D10" s="87"/>
+      <x:c r="E10" s="87"/>
+      <x:c r="F10" s="88"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D11" s="18" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E11" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F11" s="18" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="70"/>
+      <x:c r="A12" s="71"/>
       <x:c r="B12" s="50" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C12" s="52" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D12" s="50" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E12" s="50" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F12" s="29"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="118"/>
       <x:c r="B13" s="44" t="s">
-        <x:v>71</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C13" s="53" t="s">
-        <x:v>81</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D13" s="44" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="45" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F13" s="41"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="118"/>
       <x:c r="B14" s="44" t="s">
-        <x:v>87</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C14" s="53" t="s">
-        <x:v>66</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D14" s="44" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
       <x:c r="F14" s="41"/>
@@ -4343,13 +4298,13 @@
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="118"/>
       <x:c r="B15" s="44" t="s">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C15" s="53" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="44" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E15" s="36"/>
       <x:c r="F15" s="41"/>
@@ -4357,13 +4312,13 @@
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="118"/>
       <x:c r="B16" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C16" s="51" t="s">
-        <x:v>96</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D16" s="51" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E16" s="33"/>
       <x:c r="F16" s="33"/>
@@ -4371,100 +4326,100 @@
     <x:row r="17" spans="1:6" ht="32.75">
       <x:c r="A17" s="118"/>
       <x:c r="B17" s="51" t="s">
-        <x:v>79</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C17" s="51" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D17" s="51" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E17" s="33"/>
       <x:c r="F17" s="54" t="s">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="119"/>
       <x:c r="B18" s="51" t="s">
-        <x:v>64</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C18" s="51" t="s">
-        <x:v>148</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D18" s="51" t="s">
-        <x:v>90</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E18" s="33"/>
       <x:c r="F18" s="33"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="17" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B19" s="85" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="C19" s="105"/>
-      <x:c r="D19" s="105"/>
-      <x:c r="E19" s="105"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B19" s="83" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C19" s="103"/>
+      <x:c r="D19" s="103"/>
+      <x:c r="E19" s="103"/>
       <x:c r="F19" s="120"/>
     </x:row>
     <x:row r="20" spans="1:6">
-      <x:c r="A20" s="82"/>
-      <x:c r="B20" s="82"/>
-      <x:c r="C20" s="82"/>
-      <x:c r="D20" s="82"/>
-      <x:c r="E20" s="82"/>
-      <x:c r="F20" s="82"/>
+      <x:c r="A20" s="80"/>
+      <x:c r="B20" s="80"/>
+      <x:c r="C20" s="80"/>
+      <x:c r="D20" s="80"/>
+      <x:c r="E20" s="80"/>
+      <x:c r="F20" s="80"/>
     </x:row>
     <x:row r="21" spans="1:6">
-      <x:c r="A21" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B21" s="83"/>
-      <x:c r="C21" s="83"/>
-      <x:c r="D21" s="83"/>
-      <x:c r="E21" s="83"/>
-      <x:c r="F21" s="84"/>
+      <x:c r="A21" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B21" s="81"/>
+      <x:c r="C21" s="81"/>
+      <x:c r="D21" s="81"/>
+      <x:c r="E21" s="81"/>
+      <x:c r="F21" s="82"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B22" s="88" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C22" s="89"/>
-      <x:c r="D22" s="89"/>
-      <x:c r="E22" s="89"/>
-      <x:c r="F22" s="90"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B22" s="86" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C22" s="87"/>
+      <x:c r="D22" s="87"/>
+      <x:c r="E22" s="87"/>
+      <x:c r="F22" s="88"/>
     </x:row>
     <x:row r="23" spans="1:6" ht="121.75" customHeight="1">
       <x:c r="A23" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="B23" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C23" s="58" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D23" s="59"/>
-      <x:c r="E23" s="59"/>
-      <x:c r="F23" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C23" s="75" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D23" s="62"/>
+      <x:c r="E23" s="62"/>
+      <x:c r="F23" s="63"/>
     </x:row>
     <x:row r="24" spans="1:6" ht="102.65000000000001" customHeight="1">
       <x:c r="A24" s="57"/>
       <x:c r="B24" s="18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C24" s="74" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D24" s="59"/>
-      <x:c r="E24" s="59"/>
-      <x:c r="F24" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C24" s="76" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D24" s="62"/>
+      <x:c r="E24" s="62"/>
+      <x:c r="F24" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -4503,14 +4458,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="3:8">
-      <x:c r="C3" s="61" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D3" s="62"/>
-      <x:c r="E3" s="62"/>
-      <x:c r="F3" s="62"/>
-      <x:c r="G3" s="62"/>
-      <x:c r="H3" s="63"/>
+      <x:c r="C3" s="108" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="59"/>
+      <x:c r="H3" s="60"/>
     </x:row>
     <x:row r="4" spans="3:8">
       <x:c r="C4" s="6"/>
@@ -4521,107 +4476,107 @@
       <x:c r="H4" s="6"/>
     </x:row>
     <x:row r="5" spans="3:8">
-      <x:c r="C5" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="59"/>
-      <x:c r="H5" s="60"/>
+      <x:c r="C5" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="62"/>
+      <x:c r="H5" s="63"/>
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="65" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="59"/>
-      <x:c r="H6" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D6" s="116" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="62"/>
+      <x:c r="H6" s="63"/>
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D7" s="66" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E7" s="59" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="F7" s="59" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="G7" s="59" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="H7" s="60" t="s">
-        <x:v>174</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D7" s="67" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E7" s="62" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F7" s="62" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G7" s="62" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H7" s="63" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D8" s="66" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="59"/>
-      <x:c r="H8" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D8" s="67" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="62"/>
+      <x:c r="H8" s="63"/>
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D9" s="67"/>
-      <x:c r="E9" s="68"/>
-      <x:c r="F9" s="68"/>
-      <x:c r="G9" s="68"/>
-      <x:c r="H9" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D9" s="68"/>
+      <x:c r="E9" s="69"/>
+      <x:c r="F9" s="69"/>
+      <x:c r="G9" s="69"/>
+      <x:c r="H9" s="70"/>
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8">
-      <x:c r="C11" s="70"/>
+      <x:c r="C11" s="71"/>
       <x:c r="D11" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>121</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H11" s="9"/>
     </x:row>
     <x:row r="12" spans="3:8">
-      <x:c r="C12" s="70"/>
+      <x:c r="C12" s="71"/>
       <x:c r="D12" s="9"/>
       <x:c r="E12" s="21"/>
       <x:c r="F12" s="9"/>
@@ -4629,7 +4584,7 @@
       <x:c r="H12" s="9"/>
     </x:row>
     <x:row r="13" spans="3:3">
-      <x:c r="C13" s="70"/>
+      <x:c r="C13" s="71"/>
     </x:row>
     <x:row r="14" spans="3:8">
       <x:c r="C14" s="57"/>
@@ -4637,77 +4592,77 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D15" s="58" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="E15" s="59" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="F15" s="59" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="G15" s="59" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="H15" s="60" t="s">
-        <x:v>174</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D15" s="75" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="E15" s="62" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F15" s="62" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G15" s="62" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H15" s="63" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
-      <x:c r="C16" s="71"/>
-      <x:c r="D16" s="72"/>
-      <x:c r="E16" s="72"/>
-      <x:c r="F16" s="72"/>
-      <x:c r="G16" s="72"/>
-      <x:c r="H16" s="72"/>
+      <x:c r="C16" s="72"/>
+      <x:c r="D16" s="73"/>
+      <x:c r="E16" s="73"/>
+      <x:c r="F16" s="73"/>
+      <x:c r="G16" s="73"/>
+      <x:c r="H16" s="73"/>
     </x:row>
     <x:row r="17" spans="3:8">
-      <x:c r="C17" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D17" s="68"/>
-      <x:c r="E17" s="68"/>
-      <x:c r="F17" s="68"/>
-      <x:c r="G17" s="68"/>
-      <x:c r="H17" s="69"/>
+      <x:c r="C17" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D17" s="69"/>
+      <x:c r="E17" s="69"/>
+      <x:c r="F17" s="69"/>
+      <x:c r="G17" s="69"/>
+      <x:c r="H17" s="70"/>
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="67"/>
-      <x:c r="E18" s="68"/>
-      <x:c r="F18" s="68"/>
-      <x:c r="G18" s="68"/>
-      <x:c r="H18" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D18" s="68"/>
+      <x:c r="E18" s="69"/>
+      <x:c r="F18" s="69"/>
+      <x:c r="G18" s="69"/>
+      <x:c r="H18" s="70"/>
     </x:row>
     <x:row r="19" spans="3:8" ht="273" customHeight="1">
       <x:c r="C19" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E19" s="58" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="F19" s="59"/>
-      <x:c r="G19" s="59"/>
-      <x:c r="H19" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E19" s="75" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F19" s="62"/>
+      <x:c r="G19" s="62"/>
+      <x:c r="H19" s="63"/>
     </x:row>
     <x:row r="20" spans="3:8" ht="70.5" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E20" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F20" s="59"/>
-      <x:c r="G20" s="59"/>
-      <x:c r="H20" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E20" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F20" s="62"/>
+      <x:c r="G20" s="62"/>
+      <x:c r="H20" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -4748,14 +4703,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="61" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B1" s="62"/>
-      <x:c r="C1" s="62"/>
-      <x:c r="D1" s="62"/>
-      <x:c r="E1" s="62"/>
-      <x:c r="F1" s="63"/>
+      <x:c r="A1" s="108" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B1" s="59"/>
+      <x:c r="C1" s="59"/>
+      <x:c r="D1" s="59"/>
+      <x:c r="E1" s="59"/>
+      <x:c r="F1" s="60"/>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="6"/>
@@ -4766,107 +4721,107 @@
       <x:c r="F2" s="6"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="59"/>
-      <x:c r="C3" s="59"/>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="60"/>
+      <x:c r="A3" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B3" s="62"/>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="63"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B4" s="65" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C4" s="59"/>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B4" s="116" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C4" s="62"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="63"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B5" s="66" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C5" s="59" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="59" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E5" s="59" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F5" s="60" t="s">
-        <x:v>2</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B5" s="67" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C5" s="62" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D5" s="62" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E5" s="62" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="63" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B6" s="66" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C6" s="59"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B6" s="67" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C6" s="62"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="63"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B7" s="67"/>
-      <x:c r="C7" s="68"/>
-      <x:c r="D7" s="68"/>
-      <x:c r="E7" s="68"/>
-      <x:c r="F7" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B7" s="68"/>
+      <x:c r="C7" s="69"/>
+      <x:c r="D7" s="69"/>
+      <x:c r="E7" s="69"/>
+      <x:c r="F7" s="70"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
-      <x:c r="A9" s="70"/>
+      <x:c r="A9" s="71"/>
       <x:c r="B9" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="D9" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="A10" s="70"/>
+      <x:c r="A10" s="71"/>
       <x:c r="B10" s="9"/>
       <x:c r="C10" s="21"/>
       <x:c r="D10" s="9"/>
@@ -4874,7 +4829,7 @@
       <x:c r="F10" s="9"/>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="70"/>
+      <x:c r="A11" s="71"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="57"/>
@@ -4882,80 +4837,80 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B13" s="66" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C13" s="59" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D13" s="59" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E13" s="59" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F13" s="60" t="s">
-        <x:v>2</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B13" s="67" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C13" s="62" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D13" s="62" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="62" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F13" s="63" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="71"/>
-      <x:c r="B14" s="72"/>
-      <x:c r="C14" s="72"/>
-      <x:c r="D14" s="72"/>
-      <x:c r="E14" s="72"/>
-      <x:c r="F14" s="72"/>
+      <x:c r="A14" s="72"/>
+      <x:c r="B14" s="73"/>
+      <x:c r="C14" s="73"/>
+      <x:c r="D14" s="73"/>
+      <x:c r="E14" s="73"/>
+      <x:c r="F14" s="73"/>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B15" s="68"/>
-      <x:c r="C15" s="68"/>
-      <x:c r="D15" s="68"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="69"/>
+      <x:c r="A15" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B15" s="69"/>
+      <x:c r="C15" s="69"/>
+      <x:c r="D15" s="69"/>
+      <x:c r="E15" s="69"/>
+      <x:c r="F15" s="70"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B16" s="67"/>
-      <x:c r="C16" s="68"/>
-      <x:c r="D16" s="68"/>
-      <x:c r="E16" s="68"/>
-      <x:c r="F16" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B16" s="68"/>
+      <x:c r="C16" s="69"/>
+      <x:c r="D16" s="69"/>
+      <x:c r="E16" s="69"/>
+      <x:c r="F16" s="70"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="292.5" customHeight="1">
       <x:c r="A17" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C17" s="58" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C17" s="75" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D17" s="59"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="60"/>
+      <x:c r="D17" s="62"/>
+      <x:c r="E17" s="62"/>
+      <x:c r="F17" s="63"/>
       <x:c r="G17" t="s">
-        <x:v>35</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="126" customHeight="1">
       <x:c r="A18" s="57"/>
       <x:c r="B18" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C18" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D18" s="59"/>
-      <x:c r="E18" s="59"/>
-      <x:c r="F18" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C18" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="62"/>
+      <x:c r="E18" s="62"/>
+      <x:c r="F18" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -4996,14 +4951,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="3:8">
-      <x:c r="C3" s="61" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D3" s="62"/>
-      <x:c r="E3" s="62"/>
-      <x:c r="F3" s="62"/>
-      <x:c r="G3" s="62"/>
-      <x:c r="H3" s="63"/>
+      <x:c r="C3" s="108" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="59"/>
+      <x:c r="H3" s="60"/>
     </x:row>
     <x:row r="4" spans="3:8">
       <x:c r="C4" s="6"/>
@@ -5014,109 +4969,109 @@
       <x:c r="H4" s="6"/>
     </x:row>
     <x:row r="5" spans="3:8">
-      <x:c r="C5" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="59"/>
-      <x:c r="H5" s="60"/>
+      <x:c r="C5" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="62"/>
+      <x:c r="H5" s="63"/>
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="65" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="59"/>
-      <x:c r="H6" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D6" s="116" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="62"/>
+      <x:c r="H6" s="63"/>
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D7" s="66" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E7" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="F7" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="G7" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="H7" s="60" t="s">
-        <x:v>165</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D7" s="67" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E7" s="62" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="F7" s="62" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G7" s="62" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="H7" s="63" t="s">
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D8" s="66" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="59"/>
-      <x:c r="H8" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D8" s="67" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="62"/>
+      <x:c r="H8" s="63"/>
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D9" s="67"/>
-      <x:c r="E9" s="68"/>
-      <x:c r="F9" s="68"/>
-      <x:c r="G9" s="68"/>
-      <x:c r="H9" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D9" s="68"/>
+      <x:c r="E9" s="69"/>
+      <x:c r="F9" s="69"/>
+      <x:c r="G9" s="69"/>
+      <x:c r="H9" s="70"/>
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8" ht="56.350000000000001">
-      <x:c r="C11" s="70"/>
+      <x:c r="C11" s="71"/>
       <x:c r="D11" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>97</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H11" s="24" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="3:8">
-      <x:c r="C12" s="70"/>
+      <x:c r="C12" s="71"/>
       <x:c r="D12" s="9"/>
       <x:c r="E12" s="21"/>
       <x:c r="F12" s="9"/>
@@ -5124,7 +5079,7 @@
       <x:c r="H12" s="9"/>
     </x:row>
     <x:row r="13" spans="3:3">
-      <x:c r="C13" s="70"/>
+      <x:c r="C13" s="71"/>
     </x:row>
     <x:row r="14" spans="3:8">
       <x:c r="C14" s="57"/>
@@ -5132,77 +5087,77 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D15" s="66" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="E15" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="F15" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="G15" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="H15" s="60" t="s">
-        <x:v>165</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D15" s="67" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E15" s="62" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="F15" s="62" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G15" s="62" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="H15" s="63" t="s">
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
-      <x:c r="C16" s="71"/>
-      <x:c r="D16" s="72"/>
-      <x:c r="E16" s="72"/>
-      <x:c r="F16" s="72"/>
-      <x:c r="G16" s="72"/>
-      <x:c r="H16" s="72"/>
+      <x:c r="C16" s="72"/>
+      <x:c r="D16" s="73"/>
+      <x:c r="E16" s="73"/>
+      <x:c r="F16" s="73"/>
+      <x:c r="G16" s="73"/>
+      <x:c r="H16" s="73"/>
     </x:row>
     <x:row r="17" spans="3:8">
-      <x:c r="C17" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D17" s="68"/>
-      <x:c r="E17" s="68"/>
-      <x:c r="F17" s="68"/>
-      <x:c r="G17" s="68"/>
-      <x:c r="H17" s="69"/>
+      <x:c r="C17" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D17" s="69"/>
+      <x:c r="E17" s="69"/>
+      <x:c r="F17" s="69"/>
+      <x:c r="G17" s="69"/>
+      <x:c r="H17" s="70"/>
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="67"/>
-      <x:c r="E18" s="68"/>
-      <x:c r="F18" s="68"/>
-      <x:c r="G18" s="68"/>
-      <x:c r="H18" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D18" s="68"/>
+      <x:c r="E18" s="69"/>
+      <x:c r="F18" s="69"/>
+      <x:c r="G18" s="69"/>
+      <x:c r="H18" s="70"/>
     </x:row>
     <x:row r="19" spans="3:8" ht="323.25" customHeight="1">
       <x:c r="C19" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E19" s="58" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E19" s="75" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F19" s="59"/>
-      <x:c r="G19" s="59"/>
-      <x:c r="H19" s="60"/>
+      <x:c r="F19" s="62"/>
+      <x:c r="G19" s="62"/>
+      <x:c r="H19" s="63"/>
     </x:row>
     <x:row r="20" spans="3:8" ht="89.25" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E20" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F20" s="59"/>
-      <x:c r="G20" s="59"/>
-      <x:c r="H20" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E20" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F20" s="62"/>
+      <x:c r="G20" s="62"/>
+      <x:c r="H20" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -5246,14 +5201,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="3:8">
-      <x:c r="C3" s="61" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D3" s="62"/>
-      <x:c r="E3" s="62"/>
-      <x:c r="F3" s="62"/>
-      <x:c r="G3" s="62"/>
-      <x:c r="H3" s="63"/>
+      <x:c r="C3" s="108" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="59"/>
+      <x:c r="H3" s="60"/>
     </x:row>
     <x:row r="4" spans="3:8">
       <x:c r="C4" s="16"/>
@@ -5264,123 +5219,123 @@
       <x:c r="H4" s="16"/>
     </x:row>
     <x:row r="5" spans="3:8">
-      <x:c r="C5" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="59"/>
-      <x:c r="H5" s="60"/>
+      <x:c r="C5" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="62"/>
+      <x:c r="H5" s="63"/>
     </x:row>
     <x:row r="6" spans="3:8">
       <x:c r="C6" s="17" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="65" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="59"/>
-      <x:c r="H6" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D6" s="116" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="62"/>
+      <x:c r="H6" s="63"/>
     </x:row>
     <x:row r="7" spans="3:8">
       <x:c r="C7" s="17" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D7" s="66" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E7" s="59" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F7" s="59" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G7" s="59" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H7" s="60" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D7" s="67" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E7" s="62" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F7" s="62" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G7" s="62" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H7" s="63" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:8">
       <x:c r="C8" s="17" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D8" s="66" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="59"/>
-      <x:c r="H8" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D8" s="67" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="62"/>
+      <x:c r="H8" s="63"/>
     </x:row>
     <x:row r="9" spans="3:8">
       <x:c r="C9" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D9" s="67"/>
-      <x:c r="E9" s="68"/>
-      <x:c r="F9" s="68"/>
-      <x:c r="G9" s="68"/>
-      <x:c r="H9" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D9" s="68"/>
+      <x:c r="E9" s="69"/>
+      <x:c r="F9" s="69"/>
+      <x:c r="G9" s="69"/>
+      <x:c r="H9" s="70"/>
     </x:row>
     <x:row r="10" spans="3:8">
       <x:c r="C10" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="18" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F10" s="18" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G10" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H10" s="18" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:8">
-      <x:c r="C11" s="70"/>
+      <x:c r="C11" s="71"/>
       <x:c r="D11" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>152</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H11" s="19"/>
     </x:row>
     <x:row r="12" spans="3:8">
-      <x:c r="C12" s="70"/>
+      <x:c r="C12" s="71"/>
       <x:c r="D12" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E12" s="21" t="s">
-        <x:v>141</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="G12" s="22"/>
       <x:c r="H12" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="3:3">
-      <x:c r="C13" s="70"/>
+      <x:c r="C13" s="71"/>
     </x:row>
     <x:row r="14" spans="3:8">
       <x:c r="C14" s="57"/>
@@ -5388,77 +5343,77 @@
     </x:row>
     <x:row r="15" spans="3:8">
       <x:c r="C15" s="17" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D15" s="66" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E15" s="59" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F15" s="59" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G15" s="59" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H15" s="60" t="s">
-        <x:v>30</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D15" s="67" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E15" s="62" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F15" s="62" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G15" s="62" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H15" s="63" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:8">
-      <x:c r="C16" s="71"/>
-      <x:c r="D16" s="72"/>
-      <x:c r="E16" s="72"/>
-      <x:c r="F16" s="72"/>
-      <x:c r="G16" s="72"/>
-      <x:c r="H16" s="72"/>
+      <x:c r="C16" s="72"/>
+      <x:c r="D16" s="73"/>
+      <x:c r="E16" s="73"/>
+      <x:c r="F16" s="73"/>
+      <x:c r="G16" s="73"/>
+      <x:c r="H16" s="73"/>
     </x:row>
     <x:row r="17" spans="3:8">
-      <x:c r="C17" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D17" s="68"/>
-      <x:c r="E17" s="68"/>
-      <x:c r="F17" s="68"/>
-      <x:c r="G17" s="68"/>
-      <x:c r="H17" s="69"/>
+      <x:c r="C17" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D17" s="69"/>
+      <x:c r="E17" s="69"/>
+      <x:c r="F17" s="69"/>
+      <x:c r="G17" s="69"/>
+      <x:c r="H17" s="70"/>
     </x:row>
     <x:row r="18" spans="3:8">
       <x:c r="C18" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="67"/>
-      <x:c r="E18" s="68"/>
-      <x:c r="F18" s="68"/>
-      <x:c r="G18" s="68"/>
-      <x:c r="H18" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D18" s="68"/>
+      <x:c r="E18" s="69"/>
+      <x:c r="F18" s="69"/>
+      <x:c r="G18" s="69"/>
+      <x:c r="H18" s="70"/>
     </x:row>
     <x:row r="19" spans="3:8" ht="199.5" customHeight="1">
       <x:c r="C19" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="D19" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E19" s="58" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F19" s="59"/>
-      <x:c r="G19" s="59"/>
-      <x:c r="H19" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E19" s="75" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="62"/>
+      <x:c r="G19" s="62"/>
+      <x:c r="H19" s="63"/>
     </x:row>
     <x:row r="20" spans="3:8" ht="93.650000000000006" customHeight="1">
       <x:c r="C20" s="57"/>
       <x:c r="D20" s="18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E20" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F20" s="59"/>
-      <x:c r="G20" s="59"/>
-      <x:c r="H20" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E20" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F20" s="62"/>
+      <x:c r="G20" s="62"/>
+      <x:c r="H20" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -5494,12 +5449,12 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="61"/>
-      <x:c r="C1" s="62"/>
-      <x:c r="D1" s="62"/>
-      <x:c r="E1" s="62"/>
-      <x:c r="F1" s="62"/>
-      <x:c r="G1" s="63"/>
+      <x:c r="B1" s="108"/>
+      <x:c r="C1" s="59"/>
+      <x:c r="D1" s="59"/>
+      <x:c r="E1" s="59"/>
+      <x:c r="F1" s="59"/>
+      <x:c r="G1" s="60"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -5510,77 +5465,77 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="59"/>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
+      <x:c r="B3" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="63"/>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="65"/>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="59"/>
-      <x:c r="G4" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C4" s="116"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="66"/>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="60"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C5" s="67"/>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="63"/>
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C6" s="66"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C6" s="67"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C7" s="67"/>
-      <x:c r="D7" s="68"/>
-      <x:c r="E7" s="68"/>
-      <x:c r="F7" s="68"/>
-      <x:c r="G7" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="68"/>
+      <x:c r="D7" s="69"/>
+      <x:c r="E7" s="69"/>
+      <x:c r="F7" s="69"/>
+      <x:c r="G7" s="70"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="70"/>
+      <x:c r="B9" s="71"/>
       <x:c r="C9" s="9"/>
       <x:c r="D9" s="20"/>
       <x:c r="E9" s="9"/>
@@ -5588,7 +5543,7 @@
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="70"/>
+      <x:c r="B10" s="71"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -5596,7 +5551,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="70"/>
+      <x:c r="B11" s="71"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -5604,63 +5559,63 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C13" s="66"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C13" s="67"/>
+      <x:c r="D13" s="62"/>
+      <x:c r="E13" s="62"/>
+      <x:c r="F13" s="62"/>
+      <x:c r="G13" s="63"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="72"/>
-      <x:c r="D14" s="72"/>
-      <x:c r="E14" s="72"/>
-      <x:c r="F14" s="72"/>
-      <x:c r="G14" s="72"/>
+      <x:c r="B14" s="72"/>
+      <x:c r="C14" s="73"/>
+      <x:c r="D14" s="73"/>
+      <x:c r="E14" s="73"/>
+      <x:c r="F14" s="73"/>
+      <x:c r="G14" s="73"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="68"/>
-      <x:c r="D15" s="68"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="68"/>
-      <x:c r="G15" s="69"/>
+      <x:c r="B15" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C15" s="69"/>
+      <x:c r="D15" s="69"/>
+      <x:c r="E15" s="69"/>
+      <x:c r="F15" s="69"/>
+      <x:c r="G15" s="70"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C16" s="67"/>
-      <x:c r="D16" s="68"/>
-      <x:c r="E16" s="68"/>
-      <x:c r="F16" s="68"/>
-      <x:c r="G16" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C16" s="68"/>
+      <x:c r="D16" s="69"/>
+      <x:c r="E16" s="69"/>
+      <x:c r="F16" s="69"/>
+      <x:c r="G16" s="70"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D17" s="58"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D17" s="75"/>
+      <x:c r="E17" s="62"/>
+      <x:c r="F17" s="62"/>
+      <x:c r="G17" s="63"/>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D18" s="74"/>
-      <x:c r="E18" s="59"/>
-      <x:c r="F18" s="59"/>
-      <x:c r="G18" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D18" s="76"/>
+      <x:c r="E18" s="62"/>
+      <x:c r="F18" s="62"/>
+      <x:c r="G18" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -5696,12 +5651,12 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="61"/>
-      <x:c r="C1" s="62"/>
-      <x:c r="D1" s="62"/>
-      <x:c r="E1" s="62"/>
-      <x:c r="F1" s="62"/>
-      <x:c r="G1" s="63"/>
+      <x:c r="B1" s="108"/>
+      <x:c r="C1" s="59"/>
+      <x:c r="D1" s="59"/>
+      <x:c r="E1" s="59"/>
+      <x:c r="F1" s="59"/>
+      <x:c r="G1" s="60"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -5712,77 +5667,77 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="59"/>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
+      <x:c r="B3" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="63"/>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="65"/>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="59"/>
-      <x:c r="G4" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C4" s="116"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="66"/>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="60"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C5" s="67"/>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="63"/>
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C6" s="66"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C6" s="67"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C7" s="67"/>
-      <x:c r="D7" s="68"/>
-      <x:c r="E7" s="68"/>
-      <x:c r="F7" s="68"/>
-      <x:c r="G7" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="68"/>
+      <x:c r="D7" s="69"/>
+      <x:c r="E7" s="69"/>
+      <x:c r="F7" s="69"/>
+      <x:c r="G7" s="70"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="70"/>
+      <x:c r="B9" s="71"/>
       <x:c r="C9" s="9"/>
       <x:c r="D9" s="20"/>
       <x:c r="E9" s="9"/>
@@ -5790,7 +5745,7 @@
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="70"/>
+      <x:c r="B10" s="71"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -5798,7 +5753,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="70"/>
+      <x:c r="B11" s="71"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -5806,63 +5761,63 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C13" s="66"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C13" s="67"/>
+      <x:c r="D13" s="62"/>
+      <x:c r="E13" s="62"/>
+      <x:c r="F13" s="62"/>
+      <x:c r="G13" s="63"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="72"/>
-      <x:c r="D14" s="72"/>
-      <x:c r="E14" s="72"/>
-      <x:c r="F14" s="72"/>
-      <x:c r="G14" s="72"/>
+      <x:c r="B14" s="72"/>
+      <x:c r="C14" s="73"/>
+      <x:c r="D14" s="73"/>
+      <x:c r="E14" s="73"/>
+      <x:c r="F14" s="73"/>
+      <x:c r="G14" s="73"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="68"/>
-      <x:c r="D15" s="68"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="68"/>
-      <x:c r="G15" s="69"/>
+      <x:c r="B15" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C15" s="69"/>
+      <x:c r="D15" s="69"/>
+      <x:c r="E15" s="69"/>
+      <x:c r="F15" s="69"/>
+      <x:c r="G15" s="70"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C16" s="67"/>
-      <x:c r="D16" s="68"/>
-      <x:c r="E16" s="68"/>
-      <x:c r="F16" s="68"/>
-      <x:c r="G16" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C16" s="68"/>
+      <x:c r="D16" s="69"/>
+      <x:c r="E16" s="69"/>
+      <x:c r="F16" s="69"/>
+      <x:c r="G16" s="70"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D17" s="58"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D17" s="75"/>
+      <x:c r="E17" s="62"/>
+      <x:c r="F17" s="62"/>
+      <x:c r="G17" s="63"/>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D18" s="74"/>
-      <x:c r="E18" s="59"/>
-      <x:c r="F18" s="59"/>
-      <x:c r="G18" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D18" s="76"/>
+      <x:c r="E18" s="62"/>
+      <x:c r="F18" s="62"/>
+      <x:c r="G18" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -5891,8 +5846,8 @@
   <x:sheetPr codeName="Sheet17"/>
   <x:dimension ref="B1:G21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="I13" activeCellId="0" sqref="I13:I13"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J20" activeCellId="0" sqref="J20:J20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -5903,14 +5858,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="61" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="C1" s="62"/>
-      <x:c r="D1" s="62"/>
-      <x:c r="E1" s="62"/>
-      <x:c r="F1" s="62"/>
-      <x:c r="G1" s="63"/>
+      <x:c r="B1" s="108" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C1" s="59"/>
+      <x:c r="D1" s="59"/>
+      <x:c r="E1" s="59"/>
+      <x:c r="F1" s="59"/>
+      <x:c r="G1" s="60"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -5921,254 +5876,254 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="59"/>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
+      <x:c r="B3" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="63"/>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="65" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="59"/>
-      <x:c r="G4" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C4" s="116" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="66" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="60"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C5" s="67" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="63"/>
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C6" s="66" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C6" s="67" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C7" s="67"/>
-      <x:c r="D7" s="68"/>
-      <x:c r="E7" s="68"/>
-      <x:c r="F7" s="68"/>
-      <x:c r="G7" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="68"/>
+      <x:c r="D7" s="69"/>
+      <x:c r="E7" s="69"/>
+      <x:c r="F7" s="69"/>
+      <x:c r="G7" s="70"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="70"/>
+      <x:c r="B9" s="71"/>
       <x:c r="C9" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D9" s="20" t="s">
-        <x:v>205</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>188</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="70"/>
+      <x:c r="B10" s="71"/>
       <x:c r="C10" s="9" t="s">
-        <x:v>197</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>188</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F10" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:6">
-      <x:c r="B11" s="70"/>
+      <x:c r="B11" s="71"/>
       <x:c r="C11" t="s">
-        <x:v>198</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>199</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:6">
       <x:c r="B12" s="56"/>
       <x:c r="C12" t="s">
-        <x:v>206</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>202</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>201</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F12" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:6">
       <x:c r="B13" s="56"/>
       <x:c r="C13" t="s">
-        <x:v>207</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>180</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>201</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F13" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="56"/>
       <x:c r="C14" t="s">
-        <x:v>186</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>208</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>190</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F14" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="57"/>
       <x:c r="C15" t="s">
-        <x:v>187</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>212</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>194</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F15" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G15" s="23"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C16" s="66" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="D16" s="59"/>
-      <x:c r="E16" s="59"/>
-      <x:c r="F16" s="59"/>
-      <x:c r="G16" s="60"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C16" s="67" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D16" s="62"/>
+      <x:c r="E16" s="62"/>
+      <x:c r="F16" s="62"/>
+      <x:c r="G16" s="63"/>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="71"/>
-      <x:c r="C17" s="72"/>
-      <x:c r="D17" s="72"/>
-      <x:c r="E17" s="72"/>
-      <x:c r="F17" s="72"/>
-      <x:c r="G17" s="72"/>
+      <x:c r="B17" s="72"/>
+      <x:c r="C17" s="73"/>
+      <x:c r="D17" s="73"/>
+      <x:c r="E17" s="73"/>
+      <x:c r="F17" s="73"/>
+      <x:c r="G17" s="73"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C18" s="68"/>
-      <x:c r="D18" s="68"/>
-      <x:c r="E18" s="68"/>
-      <x:c r="F18" s="68"/>
-      <x:c r="G18" s="69"/>
+      <x:c r="B18" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C18" s="69"/>
+      <x:c r="D18" s="69"/>
+      <x:c r="E18" s="69"/>
+      <x:c r="F18" s="69"/>
+      <x:c r="G18" s="70"/>
     </x:row>
     <x:row r="19" spans="2:7">
       <x:c r="B19" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C19" s="67"/>
-      <x:c r="D19" s="68"/>
-      <x:c r="E19" s="68"/>
-      <x:c r="F19" s="68"/>
-      <x:c r="G19" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C19" s="68"/>
+      <x:c r="D19" s="69"/>
+      <x:c r="E19" s="69"/>
+      <x:c r="F19" s="69"/>
+      <x:c r="G19" s="70"/>
     </x:row>
     <x:row r="20" spans="2:7" ht="126.75" customHeight="1">
       <x:c r="B20" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D20" s="58" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E20" s="59"/>
-      <x:c r="F20" s="59"/>
-      <x:c r="G20" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D20" s="75" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E20" s="62"/>
+      <x:c r="F20" s="62"/>
+      <x:c r="G20" s="63"/>
     </x:row>
     <x:row r="21" spans="2:7" ht="103.5" customHeight="1">
       <x:c r="B21" s="57"/>
       <x:c r="C21" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D21" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E21" s="59"/>
-      <x:c r="F21" s="59"/>
-      <x:c r="G21" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D21" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E21" s="62"/>
+      <x:c r="F21" s="62"/>
+      <x:c r="G21" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -6204,12 +6159,12 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="61"/>
-      <x:c r="C1" s="62"/>
-      <x:c r="D1" s="62"/>
-      <x:c r="E1" s="62"/>
-      <x:c r="F1" s="62"/>
-      <x:c r="G1" s="63"/>
+      <x:c r="B1" s="108"/>
+      <x:c r="C1" s="59"/>
+      <x:c r="D1" s="59"/>
+      <x:c r="E1" s="59"/>
+      <x:c r="F1" s="59"/>
+      <x:c r="G1" s="60"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -6220,77 +6175,77 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="59"/>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
+      <x:c r="B3" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="63"/>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="65"/>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="59"/>
-      <x:c r="G4" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C4" s="116"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="66"/>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="60"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C5" s="67"/>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="63"/>
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C6" s="66"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C6" s="67"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C7" s="67"/>
-      <x:c r="D7" s="68"/>
-      <x:c r="E7" s="68"/>
-      <x:c r="F7" s="68"/>
-      <x:c r="G7" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="68"/>
+      <x:c r="D7" s="69"/>
+      <x:c r="E7" s="69"/>
+      <x:c r="F7" s="69"/>
+      <x:c r="G7" s="70"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="70"/>
+      <x:c r="B9" s="71"/>
       <x:c r="C9" s="9"/>
       <x:c r="D9" s="20"/>
       <x:c r="E9" s="9"/>
@@ -6298,7 +6253,7 @@
       <x:c r="G9" s="9"/>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="70"/>
+      <x:c r="B10" s="71"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -6306,7 +6261,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="70"/>
+      <x:c r="B11" s="71"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -6314,63 +6269,63 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C13" s="66"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C13" s="67"/>
+      <x:c r="D13" s="62"/>
+      <x:c r="E13" s="62"/>
+      <x:c r="F13" s="62"/>
+      <x:c r="G13" s="63"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="72"/>
-      <x:c r="D14" s="72"/>
-      <x:c r="E14" s="72"/>
-      <x:c r="F14" s="72"/>
-      <x:c r="G14" s="72"/>
+      <x:c r="B14" s="72"/>
+      <x:c r="C14" s="73"/>
+      <x:c r="D14" s="73"/>
+      <x:c r="E14" s="73"/>
+      <x:c r="F14" s="73"/>
+      <x:c r="G14" s="73"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="68"/>
-      <x:c r="D15" s="68"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="68"/>
-      <x:c r="G15" s="69"/>
+      <x:c r="B15" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C15" s="69"/>
+      <x:c r="D15" s="69"/>
+      <x:c r="E15" s="69"/>
+      <x:c r="F15" s="69"/>
+      <x:c r="G15" s="70"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C16" s="67"/>
-      <x:c r="D16" s="68"/>
-      <x:c r="E16" s="68"/>
-      <x:c r="F16" s="68"/>
-      <x:c r="G16" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C16" s="68"/>
+      <x:c r="D16" s="69"/>
+      <x:c r="E16" s="69"/>
+      <x:c r="F16" s="69"/>
+      <x:c r="G16" s="70"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D17" s="58"/>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D17" s="75"/>
+      <x:c r="E17" s="62"/>
+      <x:c r="F17" s="62"/>
+      <x:c r="G17" s="63"/>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D18" s="74"/>
-      <x:c r="E18" s="59"/>
-      <x:c r="F18" s="59"/>
-      <x:c r="G18" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D18" s="76"/>
+      <x:c r="E18" s="62"/>
+      <x:c r="F18" s="62"/>
+      <x:c r="G18" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -6411,14 +6366,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="61" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C1" s="62"/>
-      <x:c r="D1" s="62"/>
-      <x:c r="E1" s="62"/>
-      <x:c r="F1" s="62"/>
-      <x:c r="G1" s="63"/>
+      <x:c r="B1" s="108" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C1" s="59"/>
+      <x:c r="D1" s="59"/>
+      <x:c r="E1" s="59"/>
+      <x:c r="F1" s="59"/>
+      <x:c r="G1" s="60"/>
     </x:row>
     <x:row r="2" spans="2:7">
       <x:c r="B2" s="6"/>
@@ -6429,109 +6384,109 @@
       <x:c r="G2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="59"/>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="59"/>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="60"/>
+      <x:c r="B3" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C3" s="62"/>
+      <x:c r="D3" s="62"/>
+      <x:c r="E3" s="62"/>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="63"/>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="65" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="59"/>
-      <x:c r="G4" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C4" s="116" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="62"/>
+      <x:c r="G4" s="63"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="66" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D5" s="59" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E5" s="59" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F5" s="59" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G5" s="60" t="s">
-        <x:v>27</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C5" s="67" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D5" s="62" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E5" s="62" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F5" s="62" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G5" s="63" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C6" s="66" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C6" s="67" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C7" s="67"/>
-      <x:c r="D7" s="68"/>
-      <x:c r="E7" s="68"/>
-      <x:c r="F7" s="68"/>
-      <x:c r="G7" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="68"/>
+      <x:c r="D7" s="69"/>
+      <x:c r="E7" s="69"/>
+      <x:c r="F7" s="69"/>
+      <x:c r="G7" s="70"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
-      <x:c r="B9" s="70"/>
+      <x:c r="B9" s="71"/>
       <x:c r="C9" s="9" t="s">
-        <x:v>185</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D9" s="20" t="s">
-        <x:v>210</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>209</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G9" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:7">
-      <x:c r="B10" s="70"/>
+      <x:c r="B10" s="71"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="21"/>
       <x:c r="E10" s="9"/>
@@ -6539,7 +6494,7 @@
       <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="2:2">
-      <x:c r="B11" s="70"/>
+      <x:c r="B11" s="71"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="57"/>
@@ -6547,77 +6502,77 @@
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C13" s="66" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D13" s="59" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E13" s="59" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F13" s="59" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G13" s="60" t="s">
-        <x:v>27</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C13" s="67" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D13" s="62" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E13" s="62" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F13" s="62" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G13" s="63" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="72"/>
-      <x:c r="D14" s="72"/>
-      <x:c r="E14" s="72"/>
-      <x:c r="F14" s="72"/>
-      <x:c r="G14" s="72"/>
+      <x:c r="B14" s="72"/>
+      <x:c r="C14" s="73"/>
+      <x:c r="D14" s="73"/>
+      <x:c r="E14" s="73"/>
+      <x:c r="F14" s="73"/>
+      <x:c r="G14" s="73"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="68"/>
-      <x:c r="D15" s="68"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="68"/>
-      <x:c r="G15" s="69"/>
+      <x:c r="B15" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C15" s="69"/>
+      <x:c r="D15" s="69"/>
+      <x:c r="E15" s="69"/>
+      <x:c r="F15" s="69"/>
+      <x:c r="G15" s="70"/>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C16" s="67"/>
-      <x:c r="D16" s="68"/>
-      <x:c r="E16" s="68"/>
-      <x:c r="F16" s="68"/>
-      <x:c r="G16" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C16" s="68"/>
+      <x:c r="D16" s="69"/>
+      <x:c r="E16" s="69"/>
+      <x:c r="F16" s="69"/>
+      <x:c r="G16" s="70"/>
     </x:row>
     <x:row r="17" spans="2:7" ht="130.5" customHeight="1">
       <x:c r="B17" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D17" s="58" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E17" s="59"/>
-      <x:c r="F17" s="59"/>
-      <x:c r="G17" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D17" s="75" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E17" s="62"/>
+      <x:c r="F17" s="62"/>
+      <x:c r="G17" s="63"/>
     </x:row>
     <x:row r="18" spans="2:7" ht="98.25" customHeight="1">
       <x:c r="B18" s="57"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D18" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E18" s="59"/>
-      <x:c r="F18" s="59"/>
-      <x:c r="G18" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D18" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E18" s="62"/>
+      <x:c r="F18" s="62"/>
+      <x:c r="G18" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -6663,14 +6618,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="4" spans="2:7">
-      <x:c r="B4" s="75" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C4" s="62"/>
-      <x:c r="D4" s="62"/>
-      <x:c r="E4" s="62"/>
-      <x:c r="F4" s="62"/>
-      <x:c r="G4" s="63"/>
+      <x:c r="B4" s="58" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C4" s="59"/>
+      <x:c r="D4" s="59"/>
+      <x:c r="E4" s="59"/>
+      <x:c r="F4" s="59"/>
+      <x:c r="G4" s="60"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="6"/>
@@ -6681,294 +6636,294 @@
       <x:c r="G5" s="6"/>
     </x:row>
     <x:row r="6" spans="2:7">
-      <x:c r="B6" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="59"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+      <x:c r="B6" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C6" s="62"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="76" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D7" s="77"/>
-      <x:c r="E7" s="77"/>
-      <x:c r="F7" s="77"/>
-      <x:c r="G7" s="78"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C7" s="64" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="65"/>
+      <x:c r="E7" s="65"/>
+      <x:c r="F7" s="65"/>
+      <x:c r="G7" s="66"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="26" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C8" s="79" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D8" s="59"/>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="60"/>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C8" s="77" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D8" s="62"/>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="63"/>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C9" s="66" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D9" s="59"/>
-      <x:c r="E9" s="59"/>
-      <x:c r="F9" s="59"/>
-      <x:c r="G9" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C9" s="67" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D9" s="62"/>
+      <x:c r="E9" s="62"/>
+      <x:c r="F9" s="62"/>
+      <x:c r="G9" s="63"/>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C10" s="67" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D10" s="68"/>
-      <x:c r="E10" s="68"/>
-      <x:c r="F10" s="68"/>
-      <x:c r="G10" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C10" s="68" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D10" s="69"/>
+      <x:c r="E10" s="69"/>
+      <x:c r="F10" s="69"/>
+      <x:c r="G10" s="70"/>
     </x:row>
     <x:row r="11" spans="2:7">
-      <x:c r="B11" s="80" t="s">
-        <x:v>88</x:v>
+      <x:c r="B11" s="78" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B12" s="70"/>
+      <x:c r="B12" s="71"/>
       <x:c r="C12" s="27" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E12" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="27" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G12" s="24"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="70"/>
+      <x:c r="B13" s="71"/>
       <x:c r="C13" s="27" t="s">
-        <x:v>139</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E13" s="27" t="s">
-        <x:v>111</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F13" s="12"/>
       <x:c r="G13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="70"/>
+      <x:c r="B14" s="71"/>
       <x:c r="C14" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D14" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E14" s="27" t="s">
-        <x:v>111</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F14" s="12"/>
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="70"/>
+      <x:c r="B15" s="71"/>
       <x:c r="C15" s="27" t="s">
-        <x:v>52</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D15" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E15" s="27" t="s">
-        <x:v>111</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F15" s="12"/>
       <x:c r="G15" s="9"/>
     </x:row>
     <x:row r="16" spans="2:7">
-      <x:c r="B16" s="70"/>
+      <x:c r="B16" s="71"/>
       <x:c r="C16" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D16" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="70"/>
+      <x:c r="B17" s="71"/>
       <x:c r="C17" s="27" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
-        <x:v>146</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E17" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F17" s="22"/>
       <x:c r="G17" s="19"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="70"/>
+      <x:c r="B18" s="71"/>
       <x:c r="C18" s="27" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E18" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F18" s="22"/>
       <x:c r="G18" s="19"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="70"/>
+      <x:c r="B19" s="71"/>
       <x:c r="C19" s="27" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D19" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E19" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="22"/>
       <x:c r="G19" s="19"/>
     </x:row>
     <x:row r="20" spans="2:7">
-      <x:c r="B20" s="70"/>
+      <x:c r="B20" s="71"/>
       <x:c r="C20" s="27" t="s">
-        <x:v>133</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D20" s="14" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E20" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F20" s="22"/>
       <x:c r="G20" s="19"/>
     </x:row>
     <x:row r="21" spans="2:7">
-      <x:c r="B21" s="81"/>
+      <x:c r="B21" s="79"/>
       <x:c r="C21" s="27" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E21" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="22"/>
       <x:c r="G21" s="19"/>
     </x:row>
     <x:row r="22" spans="2:7">
       <x:c r="B22" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C22" s="66" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D22" s="59"/>
-      <x:c r="E22" s="59"/>
-      <x:c r="F22" s="59"/>
-      <x:c r="G22" s="60"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C22" s="67" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D22" s="62"/>
+      <x:c r="E22" s="62"/>
+      <x:c r="F22" s="62"/>
+      <x:c r="G22" s="63"/>
     </x:row>
     <x:row r="23" spans="2:7">
-      <x:c r="B23" s="82"/>
-      <x:c r="C23" s="82"/>
-      <x:c r="D23" s="82"/>
-      <x:c r="E23" s="82"/>
-      <x:c r="F23" s="82"/>
-      <x:c r="G23" s="82"/>
+      <x:c r="B23" s="80"/>
+      <x:c r="C23" s="80"/>
+      <x:c r="D23" s="80"/>
+      <x:c r="E23" s="80"/>
+      <x:c r="F23" s="80"/>
+      <x:c r="G23" s="80"/>
     </x:row>
     <x:row r="24" spans="2:7">
-      <x:c r="B24" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C24" s="83"/>
-      <x:c r="D24" s="83"/>
-      <x:c r="E24" s="83"/>
-      <x:c r="F24" s="83"/>
-      <x:c r="G24" s="84"/>
+      <x:c r="B24" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C24" s="81"/>
+      <x:c r="D24" s="81"/>
+      <x:c r="E24" s="81"/>
+      <x:c r="F24" s="81"/>
+      <x:c r="G24" s="82"/>
     </x:row>
     <x:row r="25" spans="2:7">
       <x:c r="B25" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C25" s="67" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D25" s="68"/>
-      <x:c r="E25" s="68"/>
-      <x:c r="F25" s="68"/>
-      <x:c r="G25" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C25" s="68" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D25" s="69"/>
+      <x:c r="E25" s="69"/>
+      <x:c r="F25" s="69"/>
+      <x:c r="G25" s="70"/>
     </x:row>
     <x:row r="26" spans="2:7" ht="180.75" customHeight="1">
       <x:c r="B26" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C26" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D26" s="58" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E26" s="59"/>
-      <x:c r="F26" s="59"/>
-      <x:c r="G26" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D26" s="75" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E26" s="62"/>
+      <x:c r="F26" s="62"/>
+      <x:c r="G26" s="63"/>
     </x:row>
     <x:row r="27" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B27" s="57"/>
       <x:c r="C27" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D27" s="74" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D27" s="76" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E27" s="59"/>
-      <x:c r="F27" s="59"/>
-      <x:c r="G27" s="60"/>
+      <x:c r="E27" s="62"/>
+      <x:c r="F27" s="62"/>
+      <x:c r="G27" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -6999,7 +6954,7 @@
   </x:sheetPr>
   <x:dimension ref="B4:G22"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <x:sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <x:selection activeCell="C20" activeCellId="0" sqref="C20:G20"/>
     </x:sheetView>
   </x:sheetViews>
@@ -7014,14 +6969,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="4" spans="2:7">
-      <x:c r="B4" s="75" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="C4" s="62"/>
-      <x:c r="D4" s="62"/>
-      <x:c r="E4" s="62"/>
-      <x:c r="F4" s="62"/>
-      <x:c r="G4" s="63"/>
+      <x:c r="B4" s="58" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C4" s="59"/>
+      <x:c r="D4" s="59"/>
+      <x:c r="E4" s="59"/>
+      <x:c r="F4" s="59"/>
+      <x:c r="G4" s="60"/>
     </x:row>
     <x:row r="5" spans="2:7">
       <x:c r="B5" s="6"/>
@@ -7032,107 +6987,107 @@
       <x:c r="G5" s="6"/>
     </x:row>
     <x:row r="6" spans="2:7">
-      <x:c r="B6" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="59"/>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+      <x:c r="B6" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C6" s="62"/>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="76" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="D7" s="77"/>
-      <x:c r="E7" s="77"/>
-      <x:c r="F7" s="77"/>
-      <x:c r="G7" s="78"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C7" s="64" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D7" s="65"/>
+      <x:c r="E7" s="65"/>
+      <x:c r="F7" s="65"/>
+      <x:c r="G7" s="66"/>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C8" s="66" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="D8" s="59" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E8" s="59" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="F8" s="59" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="G8" s="60" t="s">
-        <x:v>211</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C8" s="67" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D8" s="62" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E8" s="62" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="F8" s="62" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="G8" s="63" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C9" s="66" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="D9" s="59"/>
-      <x:c r="E9" s="59"/>
-      <x:c r="F9" s="59"/>
-      <x:c r="G9" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C9" s="67" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D9" s="62"/>
+      <x:c r="E9" s="62"/>
+      <x:c r="F9" s="62"/>
+      <x:c r="G9" s="63"/>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C10" s="67"/>
-      <x:c r="D10" s="68"/>
-      <x:c r="E10" s="68"/>
-      <x:c r="F10" s="68"/>
-      <x:c r="G10" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C10" s="68"/>
+      <x:c r="D10" s="69"/>
+      <x:c r="E10" s="69"/>
+      <x:c r="F10" s="69"/>
+      <x:c r="G10" s="70"/>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7">
-      <x:c r="B12" s="70"/>
+      <x:c r="B12" s="71"/>
       <x:c r="C12" s="9" t="s">
-        <x:v>185</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>203</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>209</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="70"/>
+      <x:c r="B13" s="71"/>
       <x:c r="C13" s="9"/>
       <x:c r="D13" s="11"/>
       <x:c r="E13" s="9"/>
@@ -7140,7 +7095,7 @@
       <x:c r="G13" s="9"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="70"/>
+      <x:c r="B14" s="71"/>
       <x:c r="C14" s="9"/>
       <x:c r="D14" s="10"/>
       <x:c r="E14" s="9"/>
@@ -7148,7 +7103,7 @@
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="70"/>
+      <x:c r="B15" s="71"/>
       <x:c r="C15" s="9"/>
       <x:c r="D15" s="10"/>
       <x:c r="E15" s="9"/>
@@ -7165,77 +7120,77 @@
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C17" s="66" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="D17" s="59" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E17" s="59" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="F17" s="59" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="G17" s="60" t="s">
-        <x:v>211</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C17" s="67" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D17" s="62" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E17" s="62" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="F17" s="62" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="G17" s="63" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="71"/>
-      <x:c r="C18" s="72"/>
-      <x:c r="D18" s="72"/>
-      <x:c r="E18" s="72"/>
-      <x:c r="F18" s="72"/>
-      <x:c r="G18" s="72"/>
+      <x:c r="B18" s="72"/>
+      <x:c r="C18" s="73"/>
+      <x:c r="D18" s="73"/>
+      <x:c r="E18" s="73"/>
+      <x:c r="F18" s="73"/>
+      <x:c r="G18" s="73"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C19" s="68"/>
-      <x:c r="D19" s="68"/>
-      <x:c r="E19" s="68"/>
-      <x:c r="F19" s="68"/>
-      <x:c r="G19" s="69"/>
+      <x:c r="B19" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="69"/>
+      <x:c r="D19" s="69"/>
+      <x:c r="E19" s="69"/>
+      <x:c r="F19" s="69"/>
+      <x:c r="G19" s="70"/>
     </x:row>
     <x:row r="20" spans="2:7">
       <x:c r="B20" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C20" s="67"/>
-      <x:c r="D20" s="68"/>
-      <x:c r="E20" s="68"/>
-      <x:c r="F20" s="68"/>
-      <x:c r="G20" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C20" s="68"/>
+      <x:c r="D20" s="69"/>
+      <x:c r="E20" s="69"/>
+      <x:c r="F20" s="69"/>
+      <x:c r="G20" s="70"/>
     </x:row>
     <x:row r="21" spans="2:7" ht="85.25" customHeight="1">
       <x:c r="B21" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D21" s="58" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E21" s="59"/>
-      <x:c r="F21" s="59"/>
-      <x:c r="G21" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D21" s="75" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E21" s="62"/>
+      <x:c r="F21" s="62"/>
+      <x:c r="G21" s="63"/>
     </x:row>
     <x:row r="22" spans="2:7" ht="164.40000000000001" customHeight="1">
       <x:c r="B22" s="57"/>
       <x:c r="C22" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D22" s="74" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D22" s="76" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E22" s="59"/>
-      <x:c r="F22" s="59"/>
-      <x:c r="G22" s="60"/>
+      <x:c r="E22" s="62"/>
+      <x:c r="F22" s="62"/>
+      <x:c r="G22" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -7277,14 +7232,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="75" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="B2" s="62"/>
-      <x:c r="C2" s="62"/>
-      <x:c r="D2" s="62"/>
-      <x:c r="E2" s="62"/>
-      <x:c r="F2" s="63"/>
+      <x:c r="A2" s="58" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B2" s="59"/>
+      <x:c r="C2" s="59"/>
+      <x:c r="D2" s="59"/>
+      <x:c r="E2" s="59"/>
+      <x:c r="F2" s="60"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="6"/>
@@ -7295,149 +7250,149 @@
       <x:c r="F3" s="6"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B4" s="59"/>
-      <x:c r="C4" s="59"/>
-      <x:c r="D4" s="59"/>
-      <x:c r="E4" s="59"/>
-      <x:c r="F4" s="60"/>
+      <x:c r="A4" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B4" s="62"/>
+      <x:c r="C4" s="62"/>
+      <x:c r="D4" s="62"/>
+      <x:c r="E4" s="62"/>
+      <x:c r="F4" s="63"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="76" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="C5" s="77"/>
-      <x:c r="D5" s="77"/>
-      <x:c r="E5" s="77"/>
-      <x:c r="F5" s="78"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B5" s="64" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C5" s="65"/>
+      <x:c r="D5" s="65"/>
+      <x:c r="E5" s="65"/>
+      <x:c r="F5" s="66"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="85" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C6" s="77"/>
-      <x:c r="D6" s="77"/>
-      <x:c r="E6" s="77"/>
-      <x:c r="F6" s="78"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B6" s="83" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C6" s="65"/>
+      <x:c r="D6" s="65"/>
+      <x:c r="E6" s="65"/>
+      <x:c r="F6" s="66"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B7" s="85" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C7" s="77"/>
-      <x:c r="D7" s="77"/>
-      <x:c r="E7" s="77"/>
-      <x:c r="F7" s="78"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B7" s="83" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C7" s="65"/>
+      <x:c r="D7" s="65"/>
+      <x:c r="E7" s="65"/>
+      <x:c r="F7" s="66"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B8" s="86" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="82"/>
-      <x:c r="D8" s="82"/>
-      <x:c r="E8" s="82"/>
-      <x:c r="F8" s="87"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B8" s="84" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C8" s="80"/>
+      <x:c r="D8" s="80"/>
+      <x:c r="E8" s="80"/>
+      <x:c r="F8" s="85"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="56" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B9" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="18" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F9" s="18" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="A10" s="70"/>
+      <x:c r="A10" s="71"/>
       <x:c r="B10" s="27" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C10" s="14" t="s">
-        <x:v>136</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D10" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E10" s="27" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F10" s="19"/>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="A11" s="70"/>
+      <x:c r="A11" s="71"/>
       <x:c r="B11" s="27" t="s">
-        <x:v>144</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C11" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D11" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E11" s="38" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F11" s="19"/>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="70"/>
+      <x:c r="A12" s="71"/>
       <x:c r="B12" s="27" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="C12" s="37" t="s">
-        <x:v>151</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D12" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E12" s="22"/>
       <x:c r="F12" s="27" t="s">
-        <x:v>153</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="A13" s="70"/>
+      <x:c r="A13" s="71"/>
       <x:c r="B13" s="27" t="s">
-        <x:v>110</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C13" s="38" t="s">
-        <x:v>120</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D13" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E13" s="22"/>
       <x:c r="F13" s="27" t="s">
-        <x:v>158</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="70"/>
+      <x:c r="A14" s="71"/>
       <x:c r="B14" s="19"/>
       <x:c r="C14" s="22"/>
       <x:c r="D14" s="19"/>
@@ -7445,7 +7400,7 @@
       <x:c r="F14" s="19"/>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="70"/>
+      <x:c r="A15" s="71"/>
       <x:c r="B15" s="19"/>
       <x:c r="C15" s="22"/>
       <x:c r="D15" s="29"/>
@@ -7462,45 +7417,45 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B17" s="85" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C17" s="77"/>
-      <x:c r="D17" s="77"/>
-      <x:c r="E17" s="77"/>
-      <x:c r="F17" s="78"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B17" s="83" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C17" s="65"/>
+      <x:c r="D17" s="65"/>
+      <x:c r="E17" s="65"/>
+      <x:c r="F17" s="66"/>
     </x:row>
     <x:row r="18" spans="1:6">
-      <x:c r="A18" s="71"/>
-      <x:c r="B18" s="72"/>
-      <x:c r="C18" s="72"/>
-      <x:c r="D18" s="72"/>
-      <x:c r="E18" s="72"/>
-      <x:c r="F18" s="72"/>
+      <x:c r="A18" s="72"/>
+      <x:c r="B18" s="73"/>
+      <x:c r="C18" s="73"/>
+      <x:c r="D18" s="73"/>
+      <x:c r="E18" s="73"/>
+      <x:c r="F18" s="73"/>
     </x:row>
     <x:row r="19" spans="1:6">
-      <x:c r="A19" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B19" s="68"/>
-      <x:c r="C19" s="68"/>
-      <x:c r="D19" s="68"/>
-      <x:c r="E19" s="68"/>
-      <x:c r="F19" s="69"/>
+      <x:c r="A19" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B19" s="69"/>
+      <x:c r="C19" s="69"/>
+      <x:c r="D19" s="69"/>
+      <x:c r="E19" s="69"/>
+      <x:c r="F19" s="70"/>
     </x:row>
     <x:row r="20" spans="1:8" ht="33" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B20" s="88" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C20" s="89"/>
-      <x:c r="D20" s="89"/>
-      <x:c r="E20" s="89"/>
-      <x:c r="F20" s="90"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B20" s="86" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C20" s="87"/>
+      <x:c r="D20" s="87"/>
+      <x:c r="E20" s="87"/>
+      <x:c r="F20" s="88"/>
       <x:c r="H20" s="39"/>
     </x:row>
     <x:row r="21" spans="1:6" ht="147.65000000000001" customHeight="1">
@@ -7508,26 +7463,26 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B21" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C21" s="58" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D21" s="59"/>
-      <x:c r="E21" s="59"/>
-      <x:c r="F21" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C21" s="75" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D21" s="62"/>
+      <x:c r="E21" s="62"/>
+      <x:c r="F21" s="63"/>
     </x:row>
     <x:row r="22" spans="1:6" ht="122.40000000000001" customHeight="1">
       <x:c r="A22" s="57"/>
       <x:c r="B22" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C22" s="74" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D22" s="59"/>
-      <x:c r="E22" s="59"/>
-      <x:c r="F22" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C22" s="76" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D22" s="62"/>
+      <x:c r="E22" s="62"/>
+      <x:c r="F22" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -7571,14 +7526,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="91" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B4" s="92"/>
-      <x:c r="C4" s="92"/>
-      <x:c r="D4" s="92"/>
-      <x:c r="E4" s="92"/>
-      <x:c r="F4" s="93"/>
+      <x:c r="A4" s="89" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B4" s="90"/>
+      <x:c r="C4" s="90"/>
+      <x:c r="D4" s="90"/>
+      <x:c r="E4" s="90"/>
+      <x:c r="F4" s="91"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="46"/>
@@ -7589,147 +7544,147 @@
       <x:c r="F5" s="46"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="94" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B6" s="95"/>
-      <x:c r="C6" s="95"/>
-      <x:c r="D6" s="95"/>
-      <x:c r="E6" s="95"/>
-      <x:c r="F6" s="96"/>
+      <x:c r="A6" s="92" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B6" s="93"/>
+      <x:c r="C6" s="93"/>
+      <x:c r="D6" s="93"/>
+      <x:c r="E6" s="93"/>
+      <x:c r="F6" s="94"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="47" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B7" s="76" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="C7" s="77"/>
-      <x:c r="D7" s="77"/>
-      <x:c r="E7" s="77"/>
-      <x:c r="F7" s="97"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B7" s="64" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="65"/>
+      <x:c r="D7" s="65"/>
+      <x:c r="E7" s="65"/>
+      <x:c r="F7" s="95"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="47" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B8" s="85" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C8" s="77"/>
-      <x:c r="D8" s="77"/>
-      <x:c r="E8" s="77"/>
-      <x:c r="F8" s="97"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B8" s="83" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C8" s="65"/>
+      <x:c r="D8" s="65"/>
+      <x:c r="E8" s="65"/>
+      <x:c r="F8" s="95"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="47" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B9" s="85" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C9" s="77"/>
-      <x:c r="D9" s="77"/>
-      <x:c r="E9" s="77"/>
-      <x:c r="F9" s="97"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B9" s="83" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C9" s="65"/>
+      <x:c r="D9" s="65"/>
+      <x:c r="E9" s="65"/>
+      <x:c r="F9" s="95"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="47" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B10" s="86" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C10" s="82"/>
-      <x:c r="D10" s="82"/>
-      <x:c r="E10" s="82"/>
-      <x:c r="F10" s="98"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B10" s="84" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="80"/>
+      <x:c r="D10" s="80"/>
+      <x:c r="E10" s="80"/>
+      <x:c r="F10" s="96"/>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="A11" s="99" t="s">
-        <x:v>88</x:v>
+      <x:c r="A11" s="97" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B11" s="40" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E11" s="40" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F11" s="48" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="100"/>
+      <x:c r="A12" s="98"/>
       <x:c r="B12" s="44" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C12" s="42" t="s">
-        <x:v>136</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D12" s="44" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E12" s="44" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F12" s="41"/>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="A13" s="100"/>
+      <x:c r="A13" s="98"/>
       <x:c r="B13" s="44" t="s">
-        <x:v>144</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C13" s="43" t="s">
-        <x:v>129</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D13" s="44" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="36"/>
       <x:c r="F13" s="41"/>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="100"/>
+      <x:c r="A14" s="98"/>
       <x:c r="B14" s="43" t="s">
-        <x:v>17</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C14" s="45" t="s">
-        <x:v>154</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D14" s="44" t="s">
-        <x:v>112</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
       <x:c r="F14" s="44" t="s">
-        <x:v>172</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="100"/>
+      <x:c r="A15" s="98"/>
       <x:c r="B15" s="44" t="s">
-        <x:v>110</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C15" s="45" t="s">
-        <x:v>120</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D15" s="44" t="s">
-        <x:v>112</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E15" s="36"/>
       <x:c r="F15" s="44" t="s">
-        <x:v>161</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
-      <x:c r="A16" s="100"/>
+      <x:c r="A16" s="98"/>
       <x:c r="B16" s="41"/>
       <x:c r="C16" s="36"/>
       <x:c r="D16" s="41"/>
@@ -7737,7 +7692,7 @@
       <x:c r="F16" s="41"/>
     </x:row>
     <x:row r="17" spans="1:6">
-      <x:c r="A17" s="100"/>
+      <x:c r="A17" s="98"/>
       <x:c r="B17" s="41"/>
       <x:c r="C17" s="36"/>
       <x:c r="D17" s="41"/>
@@ -7745,7 +7700,7 @@
       <x:c r="F17" s="41"/>
     </x:row>
     <x:row r="18" spans="1:6">
-      <x:c r="A18" s="101"/>
+      <x:c r="A18" s="99"/>
       <x:c r="B18" s="41"/>
       <x:c r="C18" s="36"/>
       <x:c r="D18" s="33"/>
@@ -7754,71 +7709,71 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="49" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B19" s="102" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C19" s="103"/>
-      <x:c r="D19" s="103"/>
-      <x:c r="E19" s="103"/>
-      <x:c r="F19" s="104"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B19" s="100" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C19" s="101"/>
+      <x:c r="D19" s="101"/>
+      <x:c r="E19" s="101"/>
+      <x:c r="F19" s="102"/>
     </x:row>
     <x:row r="20" spans="1:6">
-      <x:c r="A20" s="105"/>
-      <x:c r="B20" s="105"/>
-      <x:c r="C20" s="105"/>
-      <x:c r="D20" s="105"/>
-      <x:c r="E20" s="105"/>
-      <x:c r="F20" s="105"/>
+      <x:c r="A20" s="103"/>
+      <x:c r="B20" s="103"/>
+      <x:c r="C20" s="103"/>
+      <x:c r="D20" s="103"/>
+      <x:c r="E20" s="103"/>
+      <x:c r="F20" s="103"/>
     </x:row>
     <x:row r="21" spans="1:6">
-      <x:c r="A21" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B21" s="83"/>
-      <x:c r="C21" s="83"/>
-      <x:c r="D21" s="83"/>
-      <x:c r="E21" s="83"/>
-      <x:c r="F21" s="84"/>
+      <x:c r="A21" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B21" s="81"/>
+      <x:c r="C21" s="81"/>
+      <x:c r="D21" s="81"/>
+      <x:c r="E21" s="81"/>
+      <x:c r="F21" s="82"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B22" s="88" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C22" s="89"/>
-      <x:c r="D22" s="89"/>
-      <x:c r="E22" s="89"/>
-      <x:c r="F22" s="90"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B22" s="86" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C22" s="87"/>
+      <x:c r="D22" s="87"/>
+      <x:c r="E22" s="87"/>
+      <x:c r="F22" s="88"/>
     </x:row>
     <x:row r="23" spans="1:6" ht="108.65000000000001" customHeight="1">
       <x:c r="A23" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="B23" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C23" s="58" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D23" s="59"/>
-      <x:c r="E23" s="59"/>
-      <x:c r="F23" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C23" s="75" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D23" s="62"/>
+      <x:c r="E23" s="62"/>
+      <x:c r="F23" s="63"/>
     </x:row>
     <x:row r="24" spans="1:6" ht="111" customHeight="1">
       <x:c r="A24" s="57"/>
       <x:c r="B24" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C24" s="74" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C24" s="76" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D24" s="59"/>
-      <x:c r="E24" s="59"/>
-      <x:c r="F24" s="60"/>
+      <x:c r="D24" s="62"/>
+      <x:c r="E24" s="62"/>
+      <x:c r="F24" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -7859,14 +7814,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="6" spans="2:7">
-      <x:c r="B6" s="75" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C6" s="62"/>
-      <x:c r="D6" s="62"/>
-      <x:c r="E6" s="62"/>
-      <x:c r="F6" s="62"/>
-      <x:c r="G6" s="63"/>
+      <x:c r="B6" s="58" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C6" s="59"/>
+      <x:c r="D6" s="59"/>
+      <x:c r="E6" s="59"/>
+      <x:c r="F6" s="59"/>
+      <x:c r="G6" s="60"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="6"/>
@@ -7877,137 +7832,137 @@
       <x:c r="G7" s="6"/>
     </x:row>
     <x:row r="8" spans="2:7">
-      <x:c r="B8" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C8" s="59"/>
-      <x:c r="D8" s="59"/>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="60"/>
+      <x:c r="B8" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C8" s="62"/>
+      <x:c r="D8" s="62"/>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="63"/>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="106" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D9" s="59"/>
-      <x:c r="E9" s="59"/>
-      <x:c r="F9" s="59"/>
-      <x:c r="G9" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C9" s="104" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D9" s="62"/>
+      <x:c r="E9" s="62"/>
+      <x:c r="F9" s="62"/>
+      <x:c r="G9" s="63"/>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C10" s="66" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D10" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E10" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F10" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G10" s="60" t="s">
-        <x:v>60</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C10" s="67" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D10" s="62" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E10" s="62" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F10" s="62" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G10" s="63" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7">
       <x:c r="B11" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C11" s="66" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D11" s="59"/>
-      <x:c r="E11" s="59"/>
-      <x:c r="F11" s="59"/>
-      <x:c r="G11" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C11" s="67" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D11" s="62"/>
+      <x:c r="E11" s="62"/>
+      <x:c r="F11" s="62"/>
+      <x:c r="G11" s="63"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C12" s="67"/>
-      <x:c r="D12" s="68"/>
-      <x:c r="E12" s="68"/>
-      <x:c r="F12" s="68"/>
-      <x:c r="G12" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C12" s="68"/>
+      <x:c r="D12" s="69"/>
+      <x:c r="E12" s="69"/>
+      <x:c r="F12" s="69"/>
+      <x:c r="G12" s="70"/>
     </x:row>
     <x:row r="13" spans="2:7">
       <x:c r="B13" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D13" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G13" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="70"/>
+      <x:c r="B14" s="71"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D14" s="14" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E14" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F14" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="70"/>
+      <x:c r="B15" s="71"/>
       <x:c r="C15" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D15" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E15" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F15" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G15" s="9"/>
     </x:row>
     <x:row r="16" spans="2:7" ht="28.199999999999999">
-      <x:c r="B16" s="70"/>
+      <x:c r="B16" s="71"/>
       <x:c r="C16" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E16" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F16" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G16" s="55" t="s">
-        <x:v>140</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7">
@@ -8020,77 +7975,77 @@
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C18" s="66" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D18" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E18" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F18" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G18" s="60" t="s">
-        <x:v>60</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C18" s="67" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D18" s="62" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E18" s="62" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F18" s="62" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G18" s="63" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="71"/>
-      <x:c r="C19" s="72"/>
-      <x:c r="D19" s="72"/>
-      <x:c r="E19" s="72"/>
-      <x:c r="F19" s="72"/>
-      <x:c r="G19" s="72"/>
+      <x:c r="B19" s="72"/>
+      <x:c r="C19" s="73"/>
+      <x:c r="D19" s="73"/>
+      <x:c r="E19" s="73"/>
+      <x:c r="F19" s="73"/>
+      <x:c r="G19" s="73"/>
     </x:row>
     <x:row r="20" spans="2:7">
-      <x:c r="B20" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C20" s="68"/>
-      <x:c r="D20" s="68"/>
-      <x:c r="E20" s="68"/>
-      <x:c r="F20" s="68"/>
-      <x:c r="G20" s="69"/>
+      <x:c r="B20" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C20" s="69"/>
+      <x:c r="D20" s="69"/>
+      <x:c r="E20" s="69"/>
+      <x:c r="F20" s="69"/>
+      <x:c r="G20" s="70"/>
     </x:row>
     <x:row r="21" spans="2:7">
       <x:c r="B21" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C21" s="67"/>
-      <x:c r="D21" s="68"/>
-      <x:c r="E21" s="68"/>
-      <x:c r="F21" s="68"/>
-      <x:c r="G21" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C21" s="68"/>
+      <x:c r="D21" s="69"/>
+      <x:c r="E21" s="69"/>
+      <x:c r="F21" s="69"/>
+      <x:c r="G21" s="70"/>
     </x:row>
     <x:row r="22" spans="2:7" ht="123" customHeight="1">
       <x:c r="B22" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D22" s="58" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="E22" s="59"/>
-      <x:c r="F22" s="59"/>
-      <x:c r="G22" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D22" s="75" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E22" s="62"/>
+      <x:c r="F22" s="62"/>
+      <x:c r="G22" s="63"/>
     </x:row>
     <x:row r="23" spans="2:7" ht="73.25" customHeight="1">
       <x:c r="B23" s="57"/>
       <x:c r="C23" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D23" s="74" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E23" s="59"/>
-      <x:c r="F23" s="59"/>
-      <x:c r="G23" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D23" s="76" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E23" s="62"/>
+      <x:c r="F23" s="62"/>
+      <x:c r="G23" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -8132,14 +8087,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="2:7">
-      <x:c r="B3" s="75" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C3" s="62"/>
-      <x:c r="D3" s="62"/>
-      <x:c r="E3" s="62"/>
-      <x:c r="F3" s="62"/>
-      <x:c r="G3" s="63"/>
+      <x:c r="B3" s="58" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C3" s="59"/>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="60"/>
     </x:row>
     <x:row r="4" spans="2:7">
       <x:c r="B4" s="6"/>
@@ -8150,107 +8105,107 @@
       <x:c r="G4" s="6"/>
     </x:row>
     <x:row r="5" spans="2:7">
-      <x:c r="B5" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="59"/>
-      <x:c r="D5" s="59"/>
-      <x:c r="E5" s="59"/>
-      <x:c r="F5" s="59"/>
-      <x:c r="G5" s="60"/>
+      <x:c r="B5" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C5" s="62"/>
+      <x:c r="D5" s="62"/>
+      <x:c r="E5" s="62"/>
+      <x:c r="F5" s="62"/>
+      <x:c r="G5" s="63"/>
     </x:row>
     <x:row r="6" spans="2:7">
       <x:c r="B6" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="106" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="59"/>
-      <x:c r="F6" s="59"/>
-      <x:c r="G6" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C6" s="104" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="62"/>
+      <x:c r="F6" s="62"/>
+      <x:c r="G6" s="63"/>
     </x:row>
     <x:row r="7" spans="2:7">
       <x:c r="B7" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C7" s="66" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="D7" s="59" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E7" s="59" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="F7" s="59" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="G7" s="60" t="s">
-        <x:v>173</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C7" s="67" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D7" s="62" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E7" s="62" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F7" s="62" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G7" s="63" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:7">
       <x:c r="B8" s="7" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C8" s="66" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="59"/>
-      <x:c r="E8" s="59"/>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C8" s="67" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D8" s="62"/>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="63"/>
     </x:row>
     <x:row r="9" spans="2:7">
       <x:c r="B9" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C9" s="67"/>
-      <x:c r="D9" s="68"/>
-      <x:c r="E9" s="68"/>
-      <x:c r="F9" s="68"/>
-      <x:c r="G9" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C9" s="68"/>
+      <x:c r="D9" s="69"/>
+      <x:c r="E9" s="69"/>
+      <x:c r="F9" s="69"/>
+      <x:c r="G9" s="70"/>
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7">
-      <x:c r="B11" s="70"/>
+      <x:c r="B11" s="71"/>
       <x:c r="C11" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D11" s="14" t="s">
-        <x:v>128</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G11" s="9"/>
     </x:row>
     <x:row r="12" spans="2:7">
-      <x:c r="B12" s="70"/>
+      <x:c r="B12" s="71"/>
       <x:c r="C12" s="9"/>
       <x:c r="D12" s="15"/>
       <x:c r="E12" s="9"/>
@@ -8258,7 +8213,7 @@
       <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="70"/>
+      <x:c r="B13" s="71"/>
       <x:c r="C13" s="9"/>
       <x:c r="D13" s="12"/>
       <x:c r="E13" s="9"/>
@@ -8275,77 +8230,77 @@
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C15" s="66" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="D15" s="59" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E15" s="59" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="F15" s="59" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="G15" s="60" t="s">
-        <x:v>173</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="67" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D15" s="62" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E15" s="62" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F15" s="62" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G15" s="63" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:7">
-      <x:c r="B16" s="71"/>
-      <x:c r="C16" s="72"/>
-      <x:c r="D16" s="72"/>
-      <x:c r="E16" s="72"/>
-      <x:c r="F16" s="72"/>
-      <x:c r="G16" s="72"/>
+      <x:c r="B16" s="72"/>
+      <x:c r="C16" s="73"/>
+      <x:c r="D16" s="73"/>
+      <x:c r="E16" s="73"/>
+      <x:c r="F16" s="73"/>
+      <x:c r="G16" s="73"/>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C17" s="68"/>
-      <x:c r="D17" s="68"/>
-      <x:c r="E17" s="68"/>
-      <x:c r="F17" s="68"/>
-      <x:c r="G17" s="69"/>
+      <x:c r="B17" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C17" s="69"/>
+      <x:c r="D17" s="69"/>
+      <x:c r="E17" s="69"/>
+      <x:c r="F17" s="69"/>
+      <x:c r="G17" s="70"/>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C18" s="67"/>
-      <x:c r="D18" s="68"/>
-      <x:c r="E18" s="68"/>
-      <x:c r="F18" s="68"/>
-      <x:c r="G18" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C18" s="68"/>
+      <x:c r="D18" s="69"/>
+      <x:c r="E18" s="69"/>
+      <x:c r="F18" s="69"/>
+      <x:c r="G18" s="70"/>
     </x:row>
     <x:row r="19" spans="2:7" ht="222" customHeight="1">
       <x:c r="B19" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D19" s="58" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="E19" s="59"/>
-      <x:c r="F19" s="59"/>
-      <x:c r="G19" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D19" s="75" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E19" s="62"/>
+      <x:c r="F19" s="62"/>
+      <x:c r="G19" s="63"/>
     </x:row>
     <x:row r="20" spans="2:7" ht="72" customHeight="1">
       <x:c r="B20" s="57"/>
       <x:c r="C20" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D20" s="74" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E20" s="59"/>
-      <x:c r="F20" s="59"/>
-      <x:c r="G20" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D20" s="76" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E20" s="62"/>
+      <x:c r="F20" s="62"/>
+      <x:c r="G20" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -8389,12 +8344,12 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="61"/>
-      <x:c r="B3" s="62"/>
-      <x:c r="C3" s="62"/>
-      <x:c r="D3" s="62"/>
-      <x:c r="E3" s="62"/>
-      <x:c r="F3" s="63"/>
+      <x:c r="A3" s="108"/>
+      <x:c r="B3" s="59"/>
+      <x:c r="C3" s="59"/>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="59"/>
+      <x:c r="F3" s="60"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="16"/>
@@ -8405,101 +8360,101 @@
       <x:c r="F4" s="16"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" s="77"/>
-      <x:c r="C5" s="77"/>
-      <x:c r="D5" s="77"/>
-      <x:c r="E5" s="77"/>
-      <x:c r="F5" s="78"/>
+      <x:c r="A5" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B5" s="65"/>
+      <x:c r="C5" s="65"/>
+      <x:c r="D5" s="65"/>
+      <x:c r="E5" s="65"/>
+      <x:c r="F5" s="66"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="110" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="C6" s="77"/>
-      <x:c r="D6" s="77"/>
-      <x:c r="E6" s="77"/>
-      <x:c r="F6" s="78"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="109" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C6" s="65"/>
+      <x:c r="D6" s="65"/>
+      <x:c r="E6" s="65"/>
+      <x:c r="F6" s="66"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B7" s="85" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C7" s="77"/>
-      <x:c r="D7" s="77"/>
-      <x:c r="E7" s="77"/>
-      <x:c r="F7" s="78"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B7" s="83" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C7" s="65"/>
+      <x:c r="D7" s="65"/>
+      <x:c r="E7" s="65"/>
+      <x:c r="F7" s="66"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B8" s="85" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C8" s="77"/>
-      <x:c r="D8" s="77"/>
-      <x:c r="E8" s="77"/>
-      <x:c r="F8" s="78"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B8" s="83" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C8" s="65"/>
+      <x:c r="D8" s="65"/>
+      <x:c r="E8" s="65"/>
+      <x:c r="F8" s="66"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B9" s="86" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C9" s="82"/>
-      <x:c r="D9" s="82"/>
-      <x:c r="E9" s="82"/>
-      <x:c r="F9" s="87"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B9" s="84" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C9" s="80"/>
+      <x:c r="D9" s="80"/>
+      <x:c r="E9" s="80"/>
+      <x:c r="F9" s="85"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B10" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E10" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F10" s="18" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="A11" s="111"/>
+      <x:c r="A11" s="110"/>
       <x:c r="B11" s="27" t="s">
-        <x:v>16</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C11" s="28" t="s">
-        <x:v>137</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D11" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E11" s="27" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F11" s="19"/>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="111"/>
+      <x:c r="A12" s="110"/>
       <x:c r="B12" s="29"/>
       <x:c r="C12" s="30"/>
       <x:c r="D12" s="29"/>
@@ -8507,7 +8462,7 @@
       <x:c r="F12" s="29"/>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="A13" s="112"/>
+      <x:c r="A13" s="111"/>
       <x:c r="B13" s="32"/>
       <x:c r="C13" s="32"/>
       <x:c r="D13" s="32"/>
@@ -8515,7 +8470,7 @@
       <x:c r="F13" s="32"/>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="A14" s="113"/>
+      <x:c r="A14" s="112"/>
       <x:c r="B14" s="33"/>
       <x:c r="C14" s="33"/>
       <x:c r="D14" s="33"/>
@@ -8524,71 +8479,71 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="17" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B15" s="85" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="C15" s="77"/>
-      <x:c r="D15" s="77"/>
-      <x:c r="E15" s="77"/>
-      <x:c r="F15" s="78"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B15" s="83" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C15" s="65"/>
+      <x:c r="D15" s="65"/>
+      <x:c r="E15" s="65"/>
+      <x:c r="F15" s="66"/>
     </x:row>
     <x:row r="16" spans="1:6">
-      <x:c r="A16" s="71"/>
-      <x:c r="B16" s="114"/>
-      <x:c r="C16" s="114"/>
-      <x:c r="D16" s="114"/>
-      <x:c r="E16" s="114"/>
-      <x:c r="F16" s="114"/>
+      <x:c r="A16" s="72"/>
+      <x:c r="B16" s="113"/>
+      <x:c r="C16" s="113"/>
+      <x:c r="D16" s="113"/>
+      <x:c r="E16" s="113"/>
+      <x:c r="F16" s="113"/>
     </x:row>
     <x:row r="17" spans="1:6">
-      <x:c r="A17" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B17" s="115"/>
-      <x:c r="C17" s="115"/>
-      <x:c r="D17" s="115"/>
-      <x:c r="E17" s="115"/>
-      <x:c r="F17" s="116"/>
+      <x:c r="A17" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B17" s="114"/>
+      <x:c r="C17" s="114"/>
+      <x:c r="D17" s="114"/>
+      <x:c r="E17" s="114"/>
+      <x:c r="F17" s="115"/>
     </x:row>
     <x:row r="18" spans="1:6" ht="21.649999999999999" customHeight="1">
       <x:c r="A18" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B18" s="86" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C18" s="82"/>
-      <x:c r="D18" s="82"/>
-      <x:c r="E18" s="82"/>
-      <x:c r="F18" s="87"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B18" s="84" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C18" s="80"/>
+      <x:c r="D18" s="80"/>
+      <x:c r="E18" s="80"/>
+      <x:c r="F18" s="85"/>
     </x:row>
     <x:row r="19" spans="1:6" ht="223" customHeight="1">
       <x:c r="A19" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="B19" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C19" s="58" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D19" s="108"/>
-      <x:c r="E19" s="108"/>
-      <x:c r="F19" s="109"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="75" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D19" s="106"/>
+      <x:c r="E19" s="106"/>
+      <x:c r="F19" s="107"/>
     </x:row>
     <x:row r="20" spans="1:6" ht="127.75" customHeight="1">
-      <x:c r="A20" s="107"/>
+      <x:c r="A20" s="105"/>
       <x:c r="B20" s="18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C20" s="74" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="76" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D20" s="108"/>
-      <x:c r="E20" s="108"/>
-      <x:c r="F20" s="109"/>
+      <x:c r="D20" s="106"/>
+      <x:c r="E20" s="106"/>
+      <x:c r="F20" s="107"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
@@ -8631,14 +8586,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="11" spans="2:7">
-      <x:c r="B11" s="61" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C11" s="62"/>
-      <x:c r="D11" s="62"/>
-      <x:c r="E11" s="62"/>
-      <x:c r="F11" s="62"/>
-      <x:c r="G11" s="63"/>
+      <x:c r="B11" s="108" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C11" s="59"/>
+      <x:c r="D11" s="59"/>
+      <x:c r="E11" s="59"/>
+      <x:c r="F11" s="59"/>
+      <x:c r="G11" s="60"/>
     </x:row>
     <x:row r="12" spans="2:7">
       <x:c r="B12" s="16"/>
@@ -8649,107 +8604,107 @@
       <x:c r="G12" s="16"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="64" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C13" s="59"/>
-      <x:c r="D13" s="59"/>
-      <x:c r="E13" s="59"/>
-      <x:c r="F13" s="59"/>
-      <x:c r="G13" s="60"/>
+      <x:c r="B13" s="61" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C13" s="62"/>
+      <x:c r="D13" s="62"/>
+      <x:c r="E13" s="62"/>
+      <x:c r="F13" s="62"/>
+      <x:c r="G13" s="63"/>
     </x:row>
     <x:row r="14" spans="2:7">
       <x:c r="B14" s="17" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C14" s="65" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D14" s="59"/>
-      <x:c r="E14" s="59"/>
-      <x:c r="F14" s="59"/>
-      <x:c r="G14" s="60"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C14" s="116" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D14" s="62"/>
+      <x:c r="E14" s="62"/>
+      <x:c r="F14" s="62"/>
+      <x:c r="G14" s="63"/>
     </x:row>
     <x:row r="15" spans="2:7">
       <x:c r="B15" s="17" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C15" s="66" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D15" s="59" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="E15" s="59" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="F15" s="59" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="G15" s="60" t="s">
-        <x:v>160</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C15" s="67" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D15" s="62" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E15" s="62" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F15" s="62" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="G15" s="63" t="s">
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:7">
       <x:c r="B16" s="17" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C16" s="66" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D16" s="59"/>
-      <x:c r="E16" s="59"/>
-      <x:c r="F16" s="59"/>
-      <x:c r="G16" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C16" s="67" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D16" s="62"/>
+      <x:c r="E16" s="62"/>
+      <x:c r="F16" s="62"/>
+      <x:c r="G16" s="63"/>
     </x:row>
     <x:row r="17" spans="2:7">
       <x:c r="B17" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C17" s="67"/>
-      <x:c r="D17" s="68"/>
-      <x:c r="E17" s="68"/>
-      <x:c r="F17" s="68"/>
-      <x:c r="G17" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C17" s="68"/>
+      <x:c r="D17" s="69"/>
+      <x:c r="E17" s="69"/>
+      <x:c r="F17" s="69"/>
+      <x:c r="G17" s="70"/>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D18" s="18" t="s">
-        <x:v>20</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E18" s="18" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F18" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G18" s="18" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="70"/>
+      <x:c r="B19" s="71"/>
       <x:c r="C19" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D19" s="20" t="s">
-        <x:v>118</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="19"/>
     </x:row>
     <x:row r="20" spans="2:7">
-      <x:c r="B20" s="70"/>
+      <x:c r="B20" s="71"/>
       <x:c r="C20" s="19"/>
       <x:c r="D20" s="21"/>
       <x:c r="E20" s="19"/>
@@ -8757,84 +8712,84 @@
       <x:c r="G20" s="19"/>
     </x:row>
     <x:row r="21" spans="2:2">
-      <x:c r="B21" s="70"/>
+      <x:c r="B21" s="71"/>
     </x:row>
     <x:row r="22" spans="2:2">
       <x:c r="B22" s="57"/>
     </x:row>
     <x:row r="23" spans="2:7">
       <x:c r="B23" s="17" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C23" s="66" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D23" s="59" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="E23" s="59" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="F23" s="59" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="G23" s="60" t="s">
-        <x:v>160</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C23" s="67" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D23" s="62" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E23" s="62" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F23" s="62" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="G23" s="63" t="s">
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:7">
-      <x:c r="B24" s="71"/>
-      <x:c r="C24" s="72"/>
-      <x:c r="D24" s="72"/>
-      <x:c r="E24" s="72"/>
-      <x:c r="F24" s="72"/>
-      <x:c r="G24" s="72"/>
+      <x:c r="B24" s="72"/>
+      <x:c r="C24" s="73"/>
+      <x:c r="D24" s="73"/>
+      <x:c r="E24" s="73"/>
+      <x:c r="F24" s="73"/>
+      <x:c r="G24" s="73"/>
     </x:row>
     <x:row r="25" spans="2:7">
-      <x:c r="B25" s="73" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C25" s="68"/>
-      <x:c r="D25" s="68"/>
-      <x:c r="E25" s="68"/>
-      <x:c r="F25" s="68"/>
-      <x:c r="G25" s="69"/>
+      <x:c r="B25" s="74" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C25" s="69"/>
+      <x:c r="D25" s="69"/>
+      <x:c r="E25" s="69"/>
+      <x:c r="F25" s="69"/>
+      <x:c r="G25" s="70"/>
     </x:row>
     <x:row r="26" spans="2:7">
       <x:c r="B26" s="17" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C26" s="67"/>
-      <x:c r="D26" s="68"/>
-      <x:c r="E26" s="68"/>
-      <x:c r="F26" s="68"/>
-      <x:c r="G26" s="69"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C26" s="68"/>
+      <x:c r="D26" s="69"/>
+      <x:c r="E26" s="69"/>
+      <x:c r="F26" s="69"/>
+      <x:c r="G26" s="70"/>
     </x:row>
     <x:row r="27" spans="2:7" ht="224.25" customHeight="1">
       <x:c r="B27" s="56" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D27" s="58" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E27" s="59"/>
-      <x:c r="F27" s="59"/>
-      <x:c r="G27" s="60"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D27" s="75" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E27" s="62"/>
+      <x:c r="F27" s="62"/>
+      <x:c r="G27" s="63"/>
     </x:row>
     <x:row r="28" spans="2:7" ht="92.400000000000006" customHeight="1">
       <x:c r="B28" s="57"/>
       <x:c r="C28" s="18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D28" s="74" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E28" s="59"/>
-      <x:c r="F28" s="59"/>
-      <x:c r="G28" s="60"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D28" s="76" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E28" s="62"/>
+      <x:c r="F28" s="62"/>
+      <x:c r="G28" s="63"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="14">
